--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8E977-B97D-314B-A5A8-36819730EA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="12360" yWindow="2100" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>症例</t>
   </si>
@@ -313,37 +322,141 @@
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000607081.pdf</t>
   </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="1">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>京都市</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3月6日 発症(38.5°Cの発熱、咳、倦怠感、筋肉痛)、現在も症状が続いている 
+3月7、8日 自宅療養_x000B_3月9日 かかりつけ医を受診 
+3月10日  自宅療養 _x000B_3月11日  かかりつけ医を再受診、紹介先医療機関に入院。検体採取 _x000B_
+3月12日  本日夕方、陽性が判明 _x000B_感染症指定医療機関へ入院</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・当該理髪店は3月9日から休業中 ・通勤に公共交通機関の利用なし </t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200312-16.pdf</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3月6日　出勤　・最終出勤日
+3月7日　勤務不要日
+3月8日　休暇　・園児が発症（下痢嘔吐の症状）
+3月9日　休暇　・園児が市内医療機関を受診（自転車使用）
+3月10日　休暇
+3月11日　休暇　・園児の陽性反応が判明
+3月12日　休暇　・検体を採取　・陽性反応</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000266/266787/200312oshirase.pdf</t>
+  </si>
+  <si>
+    <t>市内保育所の園児の保護者</t>
+    <rPh sb="9" eb="12">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="A-OTF Midashi Go MB31 Pr6N MB31"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック Regular"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック Regular"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -351,7 +464,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -361,56 +474,71 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -600,26 +728,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.43"/>
-    <col customWidth="1" min="6" max="6" width="12.71"/>
-    <col customWidth="1" min="7" max="8" width="42.0"/>
-    <col customWidth="1" min="10" max="10" width="26.14"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="42" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,12 +784,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>43860.0</v>
+        <v>43860</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -675,18 +808,18 @@
         <v>14</v>
       </c>
       <c r="I2" s="6">
-        <v>43872.0</v>
+        <v>43872</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>43866.0</v>
+        <v>43866</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -705,18 +838,18 @@
         <v>18</v>
       </c>
       <c r="I3" s="6">
-        <v>43869.0</v>
+        <v>43869</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>43893.0</v>
+        <v>43893</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -734,16 +867,19 @@
       <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="I4" s="6">
+        <v>43901</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>43894.0</v>
+        <v>43894</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -762,18 +898,18 @@
         <v>25</v>
       </c>
       <c r="I5" s="6">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>43894.0</v>
+        <v>43894</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -795,12 +931,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>43895.0</v>
+        <v>43895</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -822,12 +958,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>43896.0</v>
+        <v>43896</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -849,12 +985,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>43897.0</v>
+        <v>43897</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -876,12 +1012,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -893,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>45</v>
@@ -902,12 +1038,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -919,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>47</v>
@@ -928,12 +1064,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -945,7 +1081,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>48</v>
@@ -954,12 +1090,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -981,12 +1117,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>43900.0</v>
+        <v>43900</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
@@ -998,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>53</v>
@@ -1007,12 +1143,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>43901.0</v>
+        <v>43901</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -1034,12 +1170,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>43901.0</v>
+        <v>43901</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>58</v>
@@ -1049,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>59</v>
@@ -1061,23 +1197,56 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>43902</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="F17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="G17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43902</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19">
+      <c r="F18" s="9">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1085,7 +1254,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1093,7 +1262,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1101,7 +1270,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1109,7 +1278,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1117,7 +1286,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1125,7 +1294,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1133,7 +1302,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1141,7 +1310,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1149,7 +1318,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1157,7 +1326,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1165,7 +1334,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1173,7 +1342,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1181,7 +1350,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1189,7 +1358,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1197,7 +1366,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1205,7 +1374,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1213,7 +1382,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1221,7 +1390,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1229,7 +1398,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1237,7 +1406,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1245,7 +1414,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1253,7 +1422,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1261,7 +1430,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1269,7 +1438,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1277,7 +1446,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1285,7 +1454,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1293,7 +1462,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1301,7 +1470,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1309,7 +1478,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1317,7 +1486,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1325,7 +1494,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1333,7 +1502,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1341,7 +1510,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1349,7 +1518,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1357,7 +1526,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1365,7 +1534,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1373,7 +1542,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1381,7 +1550,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1389,7 +1558,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1397,7 +1566,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1405,7 +1574,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1413,7 +1582,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1421,7 +1590,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1429,7 +1598,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1437,7 +1606,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -1445,7 +1614,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1453,7 +1622,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -1461,7 +1630,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -1469,7 +1638,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -1477,7 +1646,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -1485,7 +1654,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1493,7 +1662,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1501,7 +1670,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -1509,7 +1678,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -1517,7 +1686,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -1525,7 +1694,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -1533,7 +1702,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -1541,7 +1710,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="13">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1549,7 +1718,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="13">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -1557,7 +1726,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="13">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -1565,7 +1734,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="13">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1573,7 +1742,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="13">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1581,7 +1750,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="13">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -1589,7 +1758,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="13">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -1597,7 +1766,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="13">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -1605,7 +1774,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="13">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -1613,7 +1782,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="13">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -1621,7 +1790,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="13">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -1629,7 +1798,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" ht="13">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -1637,7 +1806,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="13">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -1645,7 +1814,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" ht="13">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -1653,7 +1822,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" ht="13">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -1661,7 +1830,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" ht="13">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -1669,7 +1838,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" ht="13">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -1677,7 +1846,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" ht="13">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -1685,7 +1854,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="13">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -1693,7 +1862,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="13">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -1701,7 +1870,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" ht="13">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -1709,7 +1878,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" ht="13">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -1717,7 +1886,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" ht="13">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -1725,7 +1894,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" ht="13">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -1733,7 +1902,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" ht="13">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -1741,7 +1910,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" ht="13">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -1749,7 +1918,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" ht="13">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -1757,7 +1926,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" ht="13">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -1765,7 +1934,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" ht="13">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -1773,7 +1942,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" ht="13">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -1781,7 +1950,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" ht="13">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -1789,7 +1958,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" ht="13">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -1797,7 +1966,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" ht="13">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -1805,7 +1974,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" ht="13">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -1813,7 +1982,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" ht="13">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -1821,7 +1990,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" ht="13">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -1829,7 +1998,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" ht="13">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -1837,7 +2006,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" ht="13">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -1845,7 +2014,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" ht="13">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -1853,7 +2022,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" ht="13">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -1861,7 +2030,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" ht="13">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -1869,7 +2038,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" ht="13">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -1877,7 +2046,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" ht="13">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -1885,7 +2054,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" ht="13">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -1893,7 +2062,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" ht="13">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -1901,7 +2070,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" ht="13">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -1909,7 +2078,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" ht="13">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -1917,7 +2086,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" ht="13">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -1925,7 +2094,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" ht="13">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -1933,7 +2102,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" ht="13">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -1941,7 +2110,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" ht="13">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -1949,7 +2118,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" ht="13">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -1957,7 +2126,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" ht="13">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -1965,7 +2134,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" ht="13">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -1973,7 +2142,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" ht="13">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -1981,7 +2150,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" ht="13">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -1989,7 +2158,7 @@
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" ht="13">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -1997,7 +2166,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" ht="13">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -2005,7 +2174,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" ht="13">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -2013,7 +2182,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" ht="13">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -2021,7 +2190,7 @@
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" ht="13">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -2029,7 +2198,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" ht="13">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -2037,7 +2206,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" ht="13">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -2045,7 +2214,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" ht="13">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -2053,7 +2222,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" ht="13">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -2061,7 +2230,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" ht="13">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -2069,7 +2238,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" ht="13">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -2077,7 +2246,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" ht="13">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -2085,7 +2254,7 @@
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" ht="13">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -2093,7 +2262,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" ht="13">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -2101,7 +2270,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" ht="13">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -2109,7 +2278,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" ht="13">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -2117,7 +2286,7 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" ht="13">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -2125,7 +2294,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" ht="13">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -2133,7 +2302,7 @@
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" ht="13">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -2141,7 +2310,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" ht="13">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -2149,7 +2318,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" ht="13">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -2157,7 +2326,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" ht="13">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -2165,7 +2334,7 @@
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6" ht="13">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -2173,7 +2342,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6" ht="13">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -2181,7 +2350,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" ht="13">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -2189,7 +2358,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" ht="13">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -2197,7 +2366,7 @@
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" ht="13">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -2205,7 +2374,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" ht="13">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -2213,7 +2382,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" ht="13">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -2221,7 +2390,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" ht="13">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -2229,7 +2398,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" ht="13">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -2237,7 +2406,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" ht="13">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -2245,7 +2414,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" ht="13">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -2253,7 +2422,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" ht="13">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -2261,7 +2430,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" ht="13">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -2269,7 +2438,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" ht="13">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -2277,7 +2446,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" ht="13">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -2285,7 +2454,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" ht="13">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -2293,7 +2462,7 @@
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" ht="13">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -2301,7 +2470,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" ht="13">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -2309,7 +2478,7 @@
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" ht="13">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -2317,7 +2486,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" ht="13">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -2325,7 +2494,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" ht="13">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -2333,7 +2502,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" ht="13">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -2341,7 +2510,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" ht="13">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -2349,7 +2518,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" ht="13">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -2357,7 +2526,7 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" ht="13">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -2365,7 +2534,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" ht="13">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -2373,7 +2542,7 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" ht="13">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -2381,7 +2550,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" ht="13">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -2389,7 +2558,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" ht="13">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -2397,7 +2566,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" ht="13">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -2405,7 +2574,7 @@
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" ht="13">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -2413,7 +2582,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" ht="13">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -2421,7 +2590,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" ht="13">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -2429,7 +2598,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" ht="13">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -2437,7 +2606,7 @@
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" ht="13">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -2445,7 +2614,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" ht="13">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -2453,7 +2622,7 @@
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" ht="13">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -2461,7 +2630,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" ht="13">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -2469,7 +2638,7 @@
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" ht="13">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -2477,7 +2646,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" ht="13">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -2485,7 +2654,7 @@
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" ht="13">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -2493,7 +2662,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" ht="13">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -2501,7 +2670,7 @@
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" ht="13">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -2509,7 +2678,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6" ht="13">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -2517,7 +2686,7 @@
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:6" ht="13">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -2525,7 +2694,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6" ht="13">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -2533,7 +2702,7 @@
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:6" ht="13">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -2541,7 +2710,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6" ht="13">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -2549,7 +2718,7 @@
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6" ht="13">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -2557,7 +2726,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6" ht="13">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -2565,7 +2734,7 @@
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6" ht="13">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -2573,7 +2742,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6" ht="13">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -2581,7 +2750,7 @@
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6" ht="13">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -2589,7 +2758,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6" ht="13">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -2597,7 +2766,7 @@
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6" ht="13">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -2605,7 +2774,7 @@
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6" ht="13">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -2613,7 +2782,7 @@
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6" ht="13">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -2621,7 +2790,7 @@
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6" ht="13">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -2629,7 +2798,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6" ht="13">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -2637,7 +2806,7 @@
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6" ht="13">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -2645,7 +2814,7 @@
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6" ht="13">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -2653,7 +2822,7 @@
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6" ht="13">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -2661,7 +2830,7 @@
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6" ht="13">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -2669,7 +2838,7 @@
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6" ht="13">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -2677,7 +2846,7 @@
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6" ht="13">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -2685,7 +2854,7 @@
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6" ht="13">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -2693,7 +2862,7 @@
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6" ht="13">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -2701,7 +2870,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6" ht="13">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -2709,7 +2878,7 @@
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6" ht="13">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -2717,7 +2886,7 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6" ht="13">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -2725,7 +2894,7 @@
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6" ht="13">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -2733,7 +2902,7 @@
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6" ht="13">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -2741,7 +2910,7 @@
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6" ht="13">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -2749,7 +2918,7 @@
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6" ht="13">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -2757,7 +2926,7 @@
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6" ht="13">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -2765,7 +2934,7 @@
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6" ht="13">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -2773,7 +2942,7 @@
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6" ht="13">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -2781,7 +2950,7 @@
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6" ht="13">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -2789,7 +2958,7 @@
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6" ht="13">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -2797,7 +2966,7 @@
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6" ht="13">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -2805,7 +2974,7 @@
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6" ht="13">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -2813,7 +2982,7 @@
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6" ht="13">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -2821,7 +2990,7 @@
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6" ht="13">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -2829,7 +2998,7 @@
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6" ht="13">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -2837,7 +3006,7 @@
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6" ht="13">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -2845,7 +3014,7 @@
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6" ht="13">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -2853,7 +3022,7 @@
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6" ht="13">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -2861,7 +3030,7 @@
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6" ht="13">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -2869,7 +3038,7 @@
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6" ht="13">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -2877,7 +3046,7 @@
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6" ht="13">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -2885,7 +3054,7 @@
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6" ht="13">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -2893,7 +3062,7 @@
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6" ht="13">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -2901,7 +3070,7 @@
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6" ht="13">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -2909,7 +3078,7 @@
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6" ht="13">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -2917,7 +3086,7 @@
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:6" ht="13">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -2925,7 +3094,7 @@
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:6" ht="13">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -2933,7 +3102,7 @@
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:6" ht="13">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -2941,7 +3110,7 @@
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:6" ht="13">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -2949,7 +3118,7 @@
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:6" ht="13">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -2957,7 +3126,7 @@
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:6" ht="13">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -2965,7 +3134,7 @@
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:6" ht="13">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -2973,7 +3142,7 @@
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:6" ht="13">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -2981,7 +3150,7 @@
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:6" ht="13">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -2989,7 +3158,7 @@
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:6" ht="13">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -2997,7 +3166,7 @@
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:6" ht="13">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -3005,7 +3174,7 @@
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:6" ht="13">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -3013,7 +3182,7 @@
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:6" ht="13">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -3021,7 +3190,7 @@
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:6" ht="13">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -3029,7 +3198,7 @@
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:6" ht="13">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -3037,7 +3206,7 @@
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:6" ht="13">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -3045,7 +3214,7 @@
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:6" ht="13">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -3053,7 +3222,7 @@
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:6" ht="13">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -3061,7 +3230,7 @@
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:6" ht="13">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -3069,7 +3238,7 @@
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:6" ht="13">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -3077,7 +3246,7 @@
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:6" ht="13">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -3085,7 +3254,7 @@
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:6" ht="13">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -3093,7 +3262,7 @@
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:6" ht="13">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -3101,7 +3270,7 @@
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:6" ht="13">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -3109,7 +3278,7 @@
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:6" ht="13">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -3117,7 +3286,7 @@
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:6" ht="13">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -3125,7 +3294,7 @@
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:6" ht="13">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -3133,7 +3302,7 @@
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:6" ht="13">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -3141,7 +3310,7 @@
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:6" ht="13">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -3149,7 +3318,7 @@
       <c r="E277" s="9"/>
       <c r="F277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:6" ht="13">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -3157,7 +3326,7 @@
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:6" ht="13">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -3165,7 +3334,7 @@
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:6" ht="13">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -3173,7 +3342,7 @@
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:6" ht="13">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -3181,7 +3350,7 @@
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:6" ht="13">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -3189,7 +3358,7 @@
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:6" ht="13">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -3197,7 +3366,7 @@
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:6" ht="13">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -3205,7 +3374,7 @@
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:6" ht="13">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -3213,7 +3382,7 @@
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:6" ht="13">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -3221,7 +3390,7 @@
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:6" ht="13">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -3229,7 +3398,7 @@
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:6" ht="13">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -3237,7 +3406,7 @@
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:6" ht="13">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -3245,7 +3414,7 @@
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:6" ht="13">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -3253,7 +3422,7 @@
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:6" ht="13">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -3261,7 +3430,7 @@
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:6" ht="13">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -3269,7 +3438,7 @@
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:6" ht="13">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -3277,7 +3446,7 @@
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:6" ht="13">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -3285,7 +3454,7 @@
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:6" ht="13">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -3293,7 +3462,7 @@
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:6" ht="13">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -3301,7 +3470,7 @@
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:6" ht="13">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -3309,7 +3478,7 @@
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:6" ht="13">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -3317,7 +3486,7 @@
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:6" ht="13">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -3325,7 +3494,7 @@
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:6" ht="13">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -3333,7 +3502,7 @@
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:6" ht="13">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -3341,7 +3510,7 @@
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:6" ht="13">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -3349,7 +3518,7 @@
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:6" ht="13">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -3357,7 +3526,7 @@
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:6" ht="13">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -3365,7 +3534,7 @@
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:6" ht="13">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -3373,7 +3542,7 @@
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:6" ht="13">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -3381,7 +3550,7 @@
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:6" ht="13">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -3389,7 +3558,7 @@
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:6" ht="13">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -3397,7 +3566,7 @@
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:6" ht="13">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -3405,7 +3574,7 @@
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:6" ht="13">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -3413,7 +3582,7 @@
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:6" ht="13">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -3421,7 +3590,7 @@
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:6" ht="13">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -3429,7 +3598,7 @@
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:6" ht="13">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -3437,7 +3606,7 @@
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:6" ht="13">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -3445,7 +3614,7 @@
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:6" ht="13">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -3453,7 +3622,7 @@
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:6" ht="13">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -3461,7 +3630,7 @@
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:6" ht="13">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -3469,7 +3638,7 @@
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:6" ht="13">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -3477,7 +3646,7 @@
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:6" ht="13">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -3485,7 +3654,7 @@
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:6" ht="13">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -3493,7 +3662,7 @@
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:6" ht="13">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -3501,7 +3670,7 @@
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:6" ht="13">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -3509,7 +3678,7 @@
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:6" ht="13">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -3517,7 +3686,7 @@
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:6" ht="13">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -3525,7 +3694,7 @@
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:6" ht="13">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -3533,7 +3702,7 @@
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:6" ht="13">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -3541,7 +3710,7 @@
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:6" ht="13">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -3549,7 +3718,7 @@
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:6" ht="13">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -3557,7 +3726,7 @@
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:6" ht="13">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -3565,7 +3734,7 @@
       <c r="E329" s="9"/>
       <c r="F329" s="9"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:6" ht="13">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -3573,7 +3742,7 @@
       <c r="E330" s="9"/>
       <c r="F330" s="9"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:6" ht="13">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -3581,7 +3750,7 @@
       <c r="E331" s="9"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:6" ht="13">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -3589,7 +3758,7 @@
       <c r="E332" s="9"/>
       <c r="F332" s="9"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:6" ht="13">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -3597,7 +3766,7 @@
       <c r="E333" s="9"/>
       <c r="F333" s="9"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:6" ht="13">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -3605,7 +3774,7 @@
       <c r="E334" s="9"/>
       <c r="F334" s="9"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:6" ht="13">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -3613,7 +3782,7 @@
       <c r="E335" s="9"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:6" ht="13">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -3621,7 +3790,7 @@
       <c r="E336" s="9"/>
       <c r="F336" s="9"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:6" ht="13">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -3629,7 +3798,7 @@
       <c r="E337" s="9"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:6" ht="13">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -3637,7 +3806,7 @@
       <c r="E338" s="9"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:6" ht="13">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -3645,7 +3814,7 @@
       <c r="E339" s="9"/>
       <c r="F339" s="9"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:6" ht="13">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -3653,7 +3822,7 @@
       <c r="E340" s="9"/>
       <c r="F340" s="9"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:6" ht="13">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -3661,7 +3830,7 @@
       <c r="E341" s="9"/>
       <c r="F341" s="9"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:6" ht="13">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -3669,7 +3838,7 @@
       <c r="E342" s="9"/>
       <c r="F342" s="9"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:6" ht="13">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -3677,7 +3846,7 @@
       <c r="E343" s="9"/>
       <c r="F343" s="9"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:6" ht="13">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -3685,7 +3854,7 @@
       <c r="E344" s="9"/>
       <c r="F344" s="9"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:6" ht="13">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -3693,7 +3862,7 @@
       <c r="E345" s="9"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:6" ht="13">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -3701,7 +3870,7 @@
       <c r="E346" s="9"/>
       <c r="F346" s="9"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:6" ht="13">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -3709,7 +3878,7 @@
       <c r="E347" s="9"/>
       <c r="F347" s="9"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:6" ht="13">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -3717,7 +3886,7 @@
       <c r="E348" s="9"/>
       <c r="F348" s="9"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:6" ht="13">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -3725,7 +3894,7 @@
       <c r="E349" s="9"/>
       <c r="F349" s="9"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:6" ht="13">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -3733,7 +3902,7 @@
       <c r="E350" s="9"/>
       <c r="F350" s="9"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:6" ht="13">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -3741,7 +3910,7 @@
       <c r="E351" s="9"/>
       <c r="F351" s="9"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:6" ht="13">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -3749,7 +3918,7 @@
       <c r="E352" s="9"/>
       <c r="F352" s="9"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:6" ht="13">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -3757,7 +3926,7 @@
       <c r="E353" s="9"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:6" ht="13">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -3765,7 +3934,7 @@
       <c r="E354" s="9"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:6" ht="13">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -3773,7 +3942,7 @@
       <c r="E355" s="9"/>
       <c r="F355" s="9"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:6" ht="13">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -3781,7 +3950,7 @@
       <c r="E356" s="9"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:6" ht="13">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -3789,7 +3958,7 @@
       <c r="E357" s="9"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:6" ht="13">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -3797,7 +3966,7 @@
       <c r="E358" s="9"/>
       <c r="F358" s="9"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:6" ht="13">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -3805,7 +3974,7 @@
       <c r="E359" s="9"/>
       <c r="F359" s="9"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:6" ht="13">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -3813,7 +3982,7 @@
       <c r="E360" s="9"/>
       <c r="F360" s="9"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:6" ht="13">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -3821,7 +3990,7 @@
       <c r="E361" s="9"/>
       <c r="F361" s="9"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:6" ht="13">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -3829,7 +3998,7 @@
       <c r="E362" s="9"/>
       <c r="F362" s="9"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:6" ht="13">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -3837,7 +4006,7 @@
       <c r="E363" s="9"/>
       <c r="F363" s="9"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:6" ht="13">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -3845,7 +4014,7 @@
       <c r="E364" s="9"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:6" ht="13">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -3853,7 +4022,7 @@
       <c r="E365" s="9"/>
       <c r="F365" s="9"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:6" ht="13">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -3861,7 +4030,7 @@
       <c r="E366" s="9"/>
       <c r="F366" s="9"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:6" ht="13">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -3869,7 +4038,7 @@
       <c r="E367" s="9"/>
       <c r="F367" s="9"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:6" ht="13">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -3877,7 +4046,7 @@
       <c r="E368" s="9"/>
       <c r="F368" s="9"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:6" ht="13">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -3885,7 +4054,7 @@
       <c r="E369" s="9"/>
       <c r="F369" s="9"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:6" ht="13">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -3893,7 +4062,7 @@
       <c r="E370" s="9"/>
       <c r="F370" s="9"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:6" ht="13">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -3901,7 +4070,7 @@
       <c r="E371" s="9"/>
       <c r="F371" s="9"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:6" ht="13">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -3909,7 +4078,7 @@
       <c r="E372" s="9"/>
       <c r="F372" s="9"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:6" ht="13">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -3917,7 +4086,7 @@
       <c r="E373" s="9"/>
       <c r="F373" s="9"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:6" ht="13">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -3925,7 +4094,7 @@
       <c r="E374" s="9"/>
       <c r="F374" s="9"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:6" ht="13">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -3933,7 +4102,7 @@
       <c r="E375" s="9"/>
       <c r="F375" s="9"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:6" ht="13">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -3941,7 +4110,7 @@
       <c r="E376" s="9"/>
       <c r="F376" s="9"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:6" ht="13">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -3949,7 +4118,7 @@
       <c r="E377" s="9"/>
       <c r="F377" s="9"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:6" ht="13">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -3957,7 +4126,7 @@
       <c r="E378" s="9"/>
       <c r="F378" s="9"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:6" ht="13">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -3965,7 +4134,7 @@
       <c r="E379" s="9"/>
       <c r="F379" s="9"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:6" ht="13">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -3973,7 +4142,7 @@
       <c r="E380" s="9"/>
       <c r="F380" s="9"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:6" ht="13">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -3981,7 +4150,7 @@
       <c r="E381" s="9"/>
       <c r="F381" s="9"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:6" ht="13">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -3989,7 +4158,7 @@
       <c r="E382" s="9"/>
       <c r="F382" s="9"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:6" ht="13">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -3997,7 +4166,7 @@
       <c r="E383" s="9"/>
       <c r="F383" s="9"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:6" ht="13">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -4005,7 +4174,7 @@
       <c r="E384" s="9"/>
       <c r="F384" s="9"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:6" ht="13">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -4013,7 +4182,7 @@
       <c r="E385" s="9"/>
       <c r="F385" s="9"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:6" ht="13">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -4021,7 +4190,7 @@
       <c r="E386" s="9"/>
       <c r="F386" s="9"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:6" ht="13">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -4029,7 +4198,7 @@
       <c r="E387" s="9"/>
       <c r="F387" s="9"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:6" ht="13">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -4037,7 +4206,7 @@
       <c r="E388" s="9"/>
       <c r="F388" s="9"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:6" ht="13">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -4045,7 +4214,7 @@
       <c r="E389" s="9"/>
       <c r="F389" s="9"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:6" ht="13">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -4053,7 +4222,7 @@
       <c r="E390" s="9"/>
       <c r="F390" s="9"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:6" ht="13">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -4061,7 +4230,7 @@
       <c r="E391" s="9"/>
       <c r="F391" s="9"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:6" ht="13">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -4069,7 +4238,7 @@
       <c r="E392" s="9"/>
       <c r="F392" s="9"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:6" ht="13">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -4077,7 +4246,7 @@
       <c r="E393" s="9"/>
       <c r="F393" s="9"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:6" ht="13">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -4085,7 +4254,7 @@
       <c r="E394" s="9"/>
       <c r="F394" s="9"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:6" ht="13">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -4093,7 +4262,7 @@
       <c r="E395" s="9"/>
       <c r="F395" s="9"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:6" ht="13">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -4101,7 +4270,7 @@
       <c r="E396" s="9"/>
       <c r="F396" s="9"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:6" ht="13">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -4109,7 +4278,7 @@
       <c r="E397" s="9"/>
       <c r="F397" s="9"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:6" ht="13">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -4117,7 +4286,7 @@
       <c r="E398" s="9"/>
       <c r="F398" s="9"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:6" ht="13">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -4125,7 +4294,7 @@
       <c r="E399" s="9"/>
       <c r="F399" s="9"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:6" ht="13">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -4133,7 +4302,7 @@
       <c r="E400" s="9"/>
       <c r="F400" s="9"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:6" ht="13">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -4141,7 +4310,7 @@
       <c r="E401" s="9"/>
       <c r="F401" s="9"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:6" ht="13">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -4149,7 +4318,7 @@
       <c r="E402" s="9"/>
       <c r="F402" s="9"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:6" ht="13">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -4157,7 +4326,7 @@
       <c r="E403" s="9"/>
       <c r="F403" s="9"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:6" ht="13">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -4165,7 +4334,7 @@
       <c r="E404" s="9"/>
       <c r="F404" s="9"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:6" ht="13">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -4173,7 +4342,7 @@
       <c r="E405" s="9"/>
       <c r="F405" s="9"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:6" ht="13">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -4181,7 +4350,7 @@
       <c r="E406" s="9"/>
       <c r="F406" s="9"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:6" ht="13">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -4189,7 +4358,7 @@
       <c r="E407" s="9"/>
       <c r="F407" s="9"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:6" ht="13">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -4197,7 +4366,7 @@
       <c r="E408" s="9"/>
       <c r="F408" s="9"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:6" ht="13">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -4205,7 +4374,7 @@
       <c r="E409" s="9"/>
       <c r="F409" s="9"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:6" ht="13">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -4213,7 +4382,7 @@
       <c r="E410" s="9"/>
       <c r="F410" s="9"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:6" ht="13">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -4221,7 +4390,7 @@
       <c r="E411" s="9"/>
       <c r="F411" s="9"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:6" ht="13">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -4229,7 +4398,7 @@
       <c r="E412" s="9"/>
       <c r="F412" s="9"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:6" ht="13">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -4237,7 +4406,7 @@
       <c r="E413" s="9"/>
       <c r="F413" s="9"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:6" ht="13">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -4245,7 +4414,7 @@
       <c r="E414" s="9"/>
       <c r="F414" s="9"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:6" ht="13">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -4253,7 +4422,7 @@
       <c r="E415" s="9"/>
       <c r="F415" s="9"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:6" ht="13">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -4261,7 +4430,7 @@
       <c r="E416" s="9"/>
       <c r="F416" s="9"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:6" ht="13">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -4269,7 +4438,7 @@
       <c r="E417" s="9"/>
       <c r="F417" s="9"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:6" ht="13">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -4277,7 +4446,7 @@
       <c r="E418" s="9"/>
       <c r="F418" s="9"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:6" ht="13">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -4285,7 +4454,7 @@
       <c r="E419" s="9"/>
       <c r="F419" s="9"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:6" ht="13">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -4293,7 +4462,7 @@
       <c r="E420" s="9"/>
       <c r="F420" s="9"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:6" ht="13">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -4301,7 +4470,7 @@
       <c r="E421" s="9"/>
       <c r="F421" s="9"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:6" ht="13">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -4309,7 +4478,7 @@
       <c r="E422" s="9"/>
       <c r="F422" s="9"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:6" ht="13">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -4317,7 +4486,7 @@
       <c r="E423" s="9"/>
       <c r="F423" s="9"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:6" ht="13">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -4325,7 +4494,7 @@
       <c r="E424" s="9"/>
       <c r="F424" s="9"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:6" ht="13">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -4333,7 +4502,7 @@
       <c r="E425" s="9"/>
       <c r="F425" s="9"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:6" ht="13">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -4341,7 +4510,7 @@
       <c r="E426" s="9"/>
       <c r="F426" s="9"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:6" ht="13">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -4349,7 +4518,7 @@
       <c r="E427" s="9"/>
       <c r="F427" s="9"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:6" ht="13">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -4357,7 +4526,7 @@
       <c r="E428" s="9"/>
       <c r="F428" s="9"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:6" ht="13">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -4365,7 +4534,7 @@
       <c r="E429" s="9"/>
       <c r="F429" s="9"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:6" ht="13">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -4373,7 +4542,7 @@
       <c r="E430" s="9"/>
       <c r="F430" s="9"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:6" ht="13">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -4381,7 +4550,7 @@
       <c r="E431" s="9"/>
       <c r="F431" s="9"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:6" ht="13">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -4389,7 +4558,7 @@
       <c r="E432" s="9"/>
       <c r="F432" s="9"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:6" ht="13">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -4397,7 +4566,7 @@
       <c r="E433" s="9"/>
       <c r="F433" s="9"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:6" ht="13">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -4405,7 +4574,7 @@
       <c r="E434" s="9"/>
       <c r="F434" s="9"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:6" ht="13">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -4413,7 +4582,7 @@
       <c r="E435" s="9"/>
       <c r="F435" s="9"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:6" ht="13">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -4421,7 +4590,7 @@
       <c r="E436" s="9"/>
       <c r="F436" s="9"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:6" ht="13">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -4429,7 +4598,7 @@
       <c r="E437" s="9"/>
       <c r="F437" s="9"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:6" ht="13">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -4437,7 +4606,7 @@
       <c r="E438" s="9"/>
       <c r="F438" s="9"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:6" ht="13">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -4445,7 +4614,7 @@
       <c r="E439" s="9"/>
       <c r="F439" s="9"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:6" ht="13">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -4453,7 +4622,7 @@
       <c r="E440" s="9"/>
       <c r="F440" s="9"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:6" ht="13">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -4461,7 +4630,7 @@
       <c r="E441" s="9"/>
       <c r="F441" s="9"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:6" ht="13">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -4469,7 +4638,7 @@
       <c r="E442" s="9"/>
       <c r="F442" s="9"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:6" ht="13">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -4477,7 +4646,7 @@
       <c r="E443" s="9"/>
       <c r="F443" s="9"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:6" ht="13">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -4485,7 +4654,7 @@
       <c r="E444" s="9"/>
       <c r="F444" s="9"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:6" ht="13">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -4493,7 +4662,7 @@
       <c r="E445" s="9"/>
       <c r="F445" s="9"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:6" ht="13">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -4501,7 +4670,7 @@
       <c r="E446" s="9"/>
       <c r="F446" s="9"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:6" ht="13">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -4509,7 +4678,7 @@
       <c r="E447" s="9"/>
       <c r="F447" s="9"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:6" ht="13">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -4517,7 +4686,7 @@
       <c r="E448" s="9"/>
       <c r="F448" s="9"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:6" ht="13">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -4525,7 +4694,7 @@
       <c r="E449" s="9"/>
       <c r="F449" s="9"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:6" ht="13">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -4533,7 +4702,7 @@
       <c r="E450" s="9"/>
       <c r="F450" s="9"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:6" ht="13">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -4541,7 +4710,7 @@
       <c r="E451" s="9"/>
       <c r="F451" s="9"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:6" ht="13">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -4549,7 +4718,7 @@
       <c r="E452" s="9"/>
       <c r="F452" s="9"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:6" ht="13">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -4557,7 +4726,7 @@
       <c r="E453" s="9"/>
       <c r="F453" s="9"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:6" ht="13">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -4565,7 +4734,7 @@
       <c r="E454" s="9"/>
       <c r="F454" s="9"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:6" ht="13">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -4573,7 +4742,7 @@
       <c r="E455" s="9"/>
       <c r="F455" s="9"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:6" ht="13">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -4581,7 +4750,7 @@
       <c r="E456" s="9"/>
       <c r="F456" s="9"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:6" ht="13">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -4589,7 +4758,7 @@
       <c r="E457" s="9"/>
       <c r="F457" s="9"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:6" ht="13">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -4597,7 +4766,7 @@
       <c r="E458" s="9"/>
       <c r="F458" s="9"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:6" ht="13">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -4605,7 +4774,7 @@
       <c r="E459" s="9"/>
       <c r="F459" s="9"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:6" ht="13">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -4613,7 +4782,7 @@
       <c r="E460" s="9"/>
       <c r="F460" s="9"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:6" ht="13">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -4621,7 +4790,7 @@
       <c r="E461" s="9"/>
       <c r="F461" s="9"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:6" ht="13">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -4629,7 +4798,7 @@
       <c r="E462" s="9"/>
       <c r="F462" s="9"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:6" ht="13">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -4637,7 +4806,7 @@
       <c r="E463" s="9"/>
       <c r="F463" s="9"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:6" ht="13">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -4645,7 +4814,7 @@
       <c r="E464" s="9"/>
       <c r="F464" s="9"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:6" ht="13">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -4653,7 +4822,7 @@
       <c r="E465" s="9"/>
       <c r="F465" s="9"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:6" ht="13">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -4661,7 +4830,7 @@
       <c r="E466" s="9"/>
       <c r="F466" s="9"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:6" ht="13">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -4669,7 +4838,7 @@
       <c r="E467" s="9"/>
       <c r="F467" s="9"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:6" ht="13">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -4677,7 +4846,7 @@
       <c r="E468" s="9"/>
       <c r="F468" s="9"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:6" ht="13">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -4685,7 +4854,7 @@
       <c r="E469" s="9"/>
       <c r="F469" s="9"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:6" ht="13">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -4693,7 +4862,7 @@
       <c r="E470" s="9"/>
       <c r="F470" s="9"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:6" ht="13">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -4701,7 +4870,7 @@
       <c r="E471" s="9"/>
       <c r="F471" s="9"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:6" ht="13">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -4709,7 +4878,7 @@
       <c r="E472" s="9"/>
       <c r="F472" s="9"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:6" ht="13">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -4717,7 +4886,7 @@
       <c r="E473" s="9"/>
       <c r="F473" s="9"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:6" ht="13">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -4725,7 +4894,7 @@
       <c r="E474" s="9"/>
       <c r="F474" s="9"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:6" ht="13">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -4733,7 +4902,7 @@
       <c r="E475" s="9"/>
       <c r="F475" s="9"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:6" ht="13">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -4741,7 +4910,7 @@
       <c r="E476" s="9"/>
       <c r="F476" s="9"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:6" ht="13">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -4749,7 +4918,7 @@
       <c r="E477" s="9"/>
       <c r="F477" s="9"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:6" ht="13">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -4757,7 +4926,7 @@
       <c r="E478" s="9"/>
       <c r="F478" s="9"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:6" ht="13">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -4765,7 +4934,7 @@
       <c r="E479" s="9"/>
       <c r="F479" s="9"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:6" ht="13">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -4773,7 +4942,7 @@
       <c r="E480" s="9"/>
       <c r="F480" s="9"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:6" ht="13">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -4781,7 +4950,7 @@
       <c r="E481" s="9"/>
       <c r="F481" s="9"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:6" ht="13">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -4789,7 +4958,7 @@
       <c r="E482" s="9"/>
       <c r="F482" s="9"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:6" ht="13">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -4797,7 +4966,7 @@
       <c r="E483" s="9"/>
       <c r="F483" s="9"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:6" ht="13">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -4805,7 +4974,7 @@
       <c r="E484" s="9"/>
       <c r="F484" s="9"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:6" ht="13">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -4813,7 +4982,7 @@
       <c r="E485" s="9"/>
       <c r="F485" s="9"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:6" ht="13">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -4821,7 +4990,7 @@
       <c r="E486" s="9"/>
       <c r="F486" s="9"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:6" ht="13">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -4829,7 +4998,7 @@
       <c r="E487" s="9"/>
       <c r="F487" s="9"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:6" ht="13">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -4837,7 +5006,7 @@
       <c r="E488" s="9"/>
       <c r="F488" s="9"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:6" ht="13">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -4845,7 +5014,7 @@
       <c r="E489" s="9"/>
       <c r="F489" s="9"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:6" ht="13">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -4853,7 +5022,7 @@
       <c r="E490" s="9"/>
       <c r="F490" s="9"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:6" ht="13">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -4861,7 +5030,7 @@
       <c r="E491" s="9"/>
       <c r="F491" s="9"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:6" ht="13">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -4869,7 +5038,7 @@
       <c r="E492" s="9"/>
       <c r="F492" s="9"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:6" ht="13">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -4877,7 +5046,7 @@
       <c r="E493" s="9"/>
       <c r="F493" s="9"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:6" ht="13">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -4885,7 +5054,7 @@
       <c r="E494" s="9"/>
       <c r="F494" s="9"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:6" ht="13">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -4893,7 +5062,7 @@
       <c r="E495" s="9"/>
       <c r="F495" s="9"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:6" ht="13">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -4901,7 +5070,7 @@
       <c r="E496" s="9"/>
       <c r="F496" s="9"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:6" ht="13">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -4909,7 +5078,7 @@
       <c r="E497" s="9"/>
       <c r="F497" s="9"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:6" ht="13">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -4917,7 +5086,7 @@
       <c r="E498" s="9"/>
       <c r="F498" s="9"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:6" ht="13">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -4925,7 +5094,7 @@
       <c r="E499" s="9"/>
       <c r="F499" s="9"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:6" ht="13">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -4933,7 +5102,7 @@
       <c r="E500" s="9"/>
       <c r="F500" s="9"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:6" ht="13">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -4941,7 +5110,7 @@
       <c r="E501" s="9"/>
       <c r="F501" s="9"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:6" ht="13">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -4949,7 +5118,7 @@
       <c r="E502" s="9"/>
       <c r="F502" s="9"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:6" ht="13">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -4957,7 +5126,7 @@
       <c r="E503" s="9"/>
       <c r="F503" s="9"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:6" ht="13">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -4965,7 +5134,7 @@
       <c r="E504" s="9"/>
       <c r="F504" s="9"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:6" ht="13">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -4973,7 +5142,7 @@
       <c r="E505" s="9"/>
       <c r="F505" s="9"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:6" ht="13">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -4981,7 +5150,7 @@
       <c r="E506" s="9"/>
       <c r="F506" s="9"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:6" ht="13">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -4989,7 +5158,7 @@
       <c r="E507" s="9"/>
       <c r="F507" s="9"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:6" ht="13">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -4997,7 +5166,7 @@
       <c r="E508" s="9"/>
       <c r="F508" s="9"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:6" ht="13">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -5005,7 +5174,7 @@
       <c r="E509" s="9"/>
       <c r="F509" s="9"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:6" ht="13">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -5013,7 +5182,7 @@
       <c r="E510" s="9"/>
       <c r="F510" s="9"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:6" ht="13">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -5021,7 +5190,7 @@
       <c r="E511" s="9"/>
       <c r="F511" s="9"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:6" ht="13">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -5029,7 +5198,7 @@
       <c r="E512" s="9"/>
       <c r="F512" s="9"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:6" ht="13">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -5037,7 +5206,7 @@
       <c r="E513" s="9"/>
       <c r="F513" s="9"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:6" ht="13">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -5045,7 +5214,7 @@
       <c r="E514" s="9"/>
       <c r="F514" s="9"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:6" ht="13">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -5053,7 +5222,7 @@
       <c r="E515" s="9"/>
       <c r="F515" s="9"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:6" ht="13">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -5061,7 +5230,7 @@
       <c r="E516" s="9"/>
       <c r="F516" s="9"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:6" ht="13">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -5069,7 +5238,7 @@
       <c r="E517" s="9"/>
       <c r="F517" s="9"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:6" ht="13">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -5077,7 +5246,7 @@
       <c r="E518" s="9"/>
       <c r="F518" s="9"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:6" ht="13">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -5085,7 +5254,7 @@
       <c r="E519" s="9"/>
       <c r="F519" s="9"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:6" ht="13">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -5093,7 +5262,7 @@
       <c r="E520" s="9"/>
       <c r="F520" s="9"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:6" ht="13">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -5101,7 +5270,7 @@
       <c r="E521" s="9"/>
       <c r="F521" s="9"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:6" ht="13">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -5109,7 +5278,7 @@
       <c r="E522" s="9"/>
       <c r="F522" s="9"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:6" ht="13">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -5117,7 +5286,7 @@
       <c r="E523" s="9"/>
       <c r="F523" s="9"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:6" ht="13">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -5125,7 +5294,7 @@
       <c r="E524" s="9"/>
       <c r="F524" s="9"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:6" ht="13">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -5133,7 +5302,7 @@
       <c r="E525" s="9"/>
       <c r="F525" s="9"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:6" ht="13">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -5141,7 +5310,7 @@
       <c r="E526" s="9"/>
       <c r="F526" s="9"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:6" ht="13">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -5149,7 +5318,7 @@
       <c r="E527" s="9"/>
       <c r="F527" s="9"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:6" ht="13">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -5157,7 +5326,7 @@
       <c r="E528" s="9"/>
       <c r="F528" s="9"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:6" ht="13">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -5165,7 +5334,7 @@
       <c r="E529" s="9"/>
       <c r="F529" s="9"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:6" ht="13">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -5173,7 +5342,7 @@
       <c r="E530" s="9"/>
       <c r="F530" s="9"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:6" ht="13">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -5181,7 +5350,7 @@
       <c r="E531" s="9"/>
       <c r="F531" s="9"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:6" ht="13">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -5189,7 +5358,7 @@
       <c r="E532" s="9"/>
       <c r="F532" s="9"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:6" ht="13">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -5197,7 +5366,7 @@
       <c r="E533" s="9"/>
       <c r="F533" s="9"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:6" ht="13">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -5205,7 +5374,7 @@
       <c r="E534" s="9"/>
       <c r="F534" s="9"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:6" ht="13">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -5213,7 +5382,7 @@
       <c r="E535" s="9"/>
       <c r="F535" s="9"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:6" ht="13">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -5221,7 +5390,7 @@
       <c r="E536" s="9"/>
       <c r="F536" s="9"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:6" ht="13">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -5229,7 +5398,7 @@
       <c r="E537" s="9"/>
       <c r="F537" s="9"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:6" ht="13">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -5237,7 +5406,7 @@
       <c r="E538" s="9"/>
       <c r="F538" s="9"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:6" ht="13">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -5245,7 +5414,7 @@
       <c r="E539" s="9"/>
       <c r="F539" s="9"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:6" ht="13">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -5253,7 +5422,7 @@
       <c r="E540" s="9"/>
       <c r="F540" s="9"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:6" ht="13">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -5261,7 +5430,7 @@
       <c r="E541" s="9"/>
       <c r="F541" s="9"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:6" ht="13">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -5269,7 +5438,7 @@
       <c r="E542" s="9"/>
       <c r="F542" s="9"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:6" ht="13">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -5277,7 +5446,7 @@
       <c r="E543" s="9"/>
       <c r="F543" s="9"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:6" ht="13">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -5285,7 +5454,7 @@
       <c r="E544" s="9"/>
       <c r="F544" s="9"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:6" ht="13">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -5293,7 +5462,7 @@
       <c r="E545" s="9"/>
       <c r="F545" s="9"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:6" ht="13">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -5301,7 +5470,7 @@
       <c r="E546" s="9"/>
       <c r="F546" s="9"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:6" ht="13">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -5309,7 +5478,7 @@
       <c r="E547" s="9"/>
       <c r="F547" s="9"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:6" ht="13">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -5317,7 +5486,7 @@
       <c r="E548" s="9"/>
       <c r="F548" s="9"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:6" ht="13">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -5325,7 +5494,7 @@
       <c r="E549" s="9"/>
       <c r="F549" s="9"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:6" ht="13">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -5333,7 +5502,7 @@
       <c r="E550" s="9"/>
       <c r="F550" s="9"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:6" ht="13">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -5341,7 +5510,7 @@
       <c r="E551" s="9"/>
       <c r="F551" s="9"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:6" ht="13">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -5349,7 +5518,7 @@
       <c r="E552" s="9"/>
       <c r="F552" s="9"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:6" ht="13">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -5357,7 +5526,7 @@
       <c r="E553" s="9"/>
       <c r="F553" s="9"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:6" ht="13">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -5365,7 +5534,7 @@
       <c r="E554" s="9"/>
       <c r="F554" s="9"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:6" ht="13">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -5373,7 +5542,7 @@
       <c r="E555" s="9"/>
       <c r="F555" s="9"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:6" ht="13">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -5381,7 +5550,7 @@
       <c r="E556" s="9"/>
       <c r="F556" s="9"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:6" ht="13">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -5389,7 +5558,7 @@
       <c r="E557" s="9"/>
       <c r="F557" s="9"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:6" ht="13">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -5397,7 +5566,7 @@
       <c r="E558" s="9"/>
       <c r="F558" s="9"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:6" ht="13">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -5405,7 +5574,7 @@
       <c r="E559" s="9"/>
       <c r="F559" s="9"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:6" ht="13">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -5413,7 +5582,7 @@
       <c r="E560" s="9"/>
       <c r="F560" s="9"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:6" ht="13">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -5421,7 +5590,7 @@
       <c r="E561" s="9"/>
       <c r="F561" s="9"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:6" ht="13">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -5429,7 +5598,7 @@
       <c r="E562" s="9"/>
       <c r="F562" s="9"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:6" ht="13">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -5437,7 +5606,7 @@
       <c r="E563" s="9"/>
       <c r="F563" s="9"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:6" ht="13">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -5445,7 +5614,7 @@
       <c r="E564" s="9"/>
       <c r="F564" s="9"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:6" ht="13">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -5453,7 +5622,7 @@
       <c r="E565" s="9"/>
       <c r="F565" s="9"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:6" ht="13">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -5461,7 +5630,7 @@
       <c r="E566" s="9"/>
       <c r="F566" s="9"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:6" ht="13">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -5469,7 +5638,7 @@
       <c r="E567" s="9"/>
       <c r="F567" s="9"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:6" ht="13">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -5477,7 +5646,7 @@
       <c r="E568" s="9"/>
       <c r="F568" s="9"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:6" ht="13">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -5485,7 +5654,7 @@
       <c r="E569" s="9"/>
       <c r="F569" s="9"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:6" ht="13">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -5493,7 +5662,7 @@
       <c r="E570" s="9"/>
       <c r="F570" s="9"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:6" ht="13">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -5501,7 +5670,7 @@
       <c r="E571" s="9"/>
       <c r="F571" s="9"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:6" ht="13">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -5509,7 +5678,7 @@
       <c r="E572" s="9"/>
       <c r="F572" s="9"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:6" ht="13">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -5517,7 +5686,7 @@
       <c r="E573" s="9"/>
       <c r="F573" s="9"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:6" ht="13">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -5525,7 +5694,7 @@
       <c r="E574" s="9"/>
       <c r="F574" s="9"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:6" ht="13">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -5533,7 +5702,7 @@
       <c r="E575" s="9"/>
       <c r="F575" s="9"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:6" ht="13">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -5541,7 +5710,7 @@
       <c r="E576" s="9"/>
       <c r="F576" s="9"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:6" ht="13">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -5549,7 +5718,7 @@
       <c r="E577" s="9"/>
       <c r="F577" s="9"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:6" ht="13">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -5557,7 +5726,7 @@
       <c r="E578" s="9"/>
       <c r="F578" s="9"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:6" ht="13">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -5565,7 +5734,7 @@
       <c r="E579" s="9"/>
       <c r="F579" s="9"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:6" ht="13">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -5573,7 +5742,7 @@
       <c r="E580" s="9"/>
       <c r="F580" s="9"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:6" ht="13">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -5581,7 +5750,7 @@
       <c r="E581" s="9"/>
       <c r="F581" s="9"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:6" ht="13">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -5589,7 +5758,7 @@
       <c r="E582" s="9"/>
       <c r="F582" s="9"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:6" ht="13">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -5597,7 +5766,7 @@
       <c r="E583" s="9"/>
       <c r="F583" s="9"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:6" ht="13">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -5605,7 +5774,7 @@
       <c r="E584" s="9"/>
       <c r="F584" s="9"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:6" ht="13">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -5613,7 +5782,7 @@
       <c r="E585" s="9"/>
       <c r="F585" s="9"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:6" ht="13">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -5621,7 +5790,7 @@
       <c r="E586" s="9"/>
       <c r="F586" s="9"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:6" ht="13">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -5629,7 +5798,7 @@
       <c r="E587" s="9"/>
       <c r="F587" s="9"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:6" ht="13">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -5637,7 +5806,7 @@
       <c r="E588" s="9"/>
       <c r="F588" s="9"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:6" ht="13">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -5645,7 +5814,7 @@
       <c r="E589" s="9"/>
       <c r="F589" s="9"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:6" ht="13">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -5653,7 +5822,7 @@
       <c r="E590" s="9"/>
       <c r="F590" s="9"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:6" ht="13">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -5661,7 +5830,7 @@
       <c r="E591" s="9"/>
       <c r="F591" s="9"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:6" ht="13">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -5669,7 +5838,7 @@
       <c r="E592" s="9"/>
       <c r="F592" s="9"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:6" ht="13">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -5677,7 +5846,7 @@
       <c r="E593" s="9"/>
       <c r="F593" s="9"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:6" ht="13">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -5685,7 +5854,7 @@
       <c r="E594" s="9"/>
       <c r="F594" s="9"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:6" ht="13">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -5693,7 +5862,7 @@
       <c r="E595" s="9"/>
       <c r="F595" s="9"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:6" ht="13">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -5701,7 +5870,7 @@
       <c r="E596" s="9"/>
       <c r="F596" s="9"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:6" ht="13">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -5709,7 +5878,7 @@
       <c r="E597" s="9"/>
       <c r="F597" s="9"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:6" ht="13">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -5717,7 +5886,7 @@
       <c r="E598" s="9"/>
       <c r="F598" s="9"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:6" ht="13">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -5725,7 +5894,7 @@
       <c r="E599" s="9"/>
       <c r="F599" s="9"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:6" ht="13">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -5733,7 +5902,7 @@
       <c r="E600" s="9"/>
       <c r="F600" s="9"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:6" ht="13">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -5741,7 +5910,7 @@
       <c r="E601" s="9"/>
       <c r="F601" s="9"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:6" ht="13">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -5749,7 +5918,7 @@
       <c r="E602" s="9"/>
       <c r="F602" s="9"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:6" ht="13">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -5757,7 +5926,7 @@
       <c r="E603" s="9"/>
       <c r="F603" s="9"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:6" ht="13">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -5765,7 +5934,7 @@
       <c r="E604" s="9"/>
       <c r="F604" s="9"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:6" ht="13">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -5773,7 +5942,7 @@
       <c r="E605" s="9"/>
       <c r="F605" s="9"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:6" ht="13">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -5781,7 +5950,7 @@
       <c r="E606" s="9"/>
       <c r="F606" s="9"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:6" ht="13">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -5789,7 +5958,7 @@
       <c r="E607" s="9"/>
       <c r="F607" s="9"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:6" ht="13">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -5797,7 +5966,7 @@
       <c r="E608" s="9"/>
       <c r="F608" s="9"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:6" ht="13">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -5805,7 +5974,7 @@
       <c r="E609" s="9"/>
       <c r="F609" s="9"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:6" ht="13">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -5813,7 +5982,7 @@
       <c r="E610" s="9"/>
       <c r="F610" s="9"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:6" ht="13">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -5821,7 +5990,7 @@
       <c r="E611" s="9"/>
       <c r="F611" s="9"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:6" ht="13">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -5829,7 +5998,7 @@
       <c r="E612" s="9"/>
       <c r="F612" s="9"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:6" ht="13">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -5837,7 +6006,7 @@
       <c r="E613" s="9"/>
       <c r="F613" s="9"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:6" ht="13">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -5845,7 +6014,7 @@
       <c r="E614" s="9"/>
       <c r="F614" s="9"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:6" ht="13">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -5853,7 +6022,7 @@
       <c r="E615" s="9"/>
       <c r="F615" s="9"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:6" ht="13">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -5861,7 +6030,7 @@
       <c r="E616" s="9"/>
       <c r="F616" s="9"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:6" ht="13">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -5869,7 +6038,7 @@
       <c r="E617" s="9"/>
       <c r="F617" s="9"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:6" ht="13">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -5877,7 +6046,7 @@
       <c r="E618" s="9"/>
       <c r="F618" s="9"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:6" ht="13">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -5885,7 +6054,7 @@
       <c r="E619" s="9"/>
       <c r="F619" s="9"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:6" ht="13">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -5893,7 +6062,7 @@
       <c r="E620" s="9"/>
       <c r="F620" s="9"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:6" ht="13">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -5901,7 +6070,7 @@
       <c r="E621" s="9"/>
       <c r="F621" s="9"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:6" ht="13">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -5909,7 +6078,7 @@
       <c r="E622" s="9"/>
       <c r="F622" s="9"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:6" ht="13">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -5917,7 +6086,7 @@
       <c r="E623" s="9"/>
       <c r="F623" s="9"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:6" ht="13">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -5925,7 +6094,7 @@
       <c r="E624" s="9"/>
       <c r="F624" s="9"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:6" ht="13">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -5933,7 +6102,7 @@
       <c r="E625" s="9"/>
       <c r="F625" s="9"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:6" ht="13">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -5941,7 +6110,7 @@
       <c r="E626" s="9"/>
       <c r="F626" s="9"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:6" ht="13">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -5949,7 +6118,7 @@
       <c r="E627" s="9"/>
       <c r="F627" s="9"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:6" ht="13">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -5957,7 +6126,7 @@
       <c r="E628" s="9"/>
       <c r="F628" s="9"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:6" ht="13">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -5965,7 +6134,7 @@
       <c r="E629" s="9"/>
       <c r="F629" s="9"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:6" ht="13">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -5973,7 +6142,7 @@
       <c r="E630" s="9"/>
       <c r="F630" s="9"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:6" ht="13">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -5981,7 +6150,7 @@
       <c r="E631" s="9"/>
       <c r="F631" s="9"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:6" ht="13">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -5989,7 +6158,7 @@
       <c r="E632" s="9"/>
       <c r="F632" s="9"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:6" ht="13">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -5997,7 +6166,7 @@
       <c r="E633" s="9"/>
       <c r="F633" s="9"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:6" ht="13">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -6005,7 +6174,7 @@
       <c r="E634" s="9"/>
       <c r="F634" s="9"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:6" ht="13">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -6013,7 +6182,7 @@
       <c r="E635" s="9"/>
       <c r="F635" s="9"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:6" ht="13">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -6021,7 +6190,7 @@
       <c r="E636" s="9"/>
       <c r="F636" s="9"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:6" ht="13">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -6029,7 +6198,7 @@
       <c r="E637" s="9"/>
       <c r="F637" s="9"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:6" ht="13">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -6037,7 +6206,7 @@
       <c r="E638" s="9"/>
       <c r="F638" s="9"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:6" ht="13">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -6045,7 +6214,7 @@
       <c r="E639" s="9"/>
       <c r="F639" s="9"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:6" ht="13">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -6053,7 +6222,7 @@
       <c r="E640" s="9"/>
       <c r="F640" s="9"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:6" ht="13">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -6061,7 +6230,7 @@
       <c r="E641" s="9"/>
       <c r="F641" s="9"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:6" ht="13">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -6069,7 +6238,7 @@
       <c r="E642" s="9"/>
       <c r="F642" s="9"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:6" ht="13">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -6077,7 +6246,7 @@
       <c r="E643" s="9"/>
       <c r="F643" s="9"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:6" ht="13">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -6085,7 +6254,7 @@
       <c r="E644" s="9"/>
       <c r="F644" s="9"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:6" ht="13">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -6093,7 +6262,7 @@
       <c r="E645" s="9"/>
       <c r="F645" s="9"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:6" ht="13">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -6101,7 +6270,7 @@
       <c r="E646" s="9"/>
       <c r="F646" s="9"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:6" ht="13">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -6109,7 +6278,7 @@
       <c r="E647" s="9"/>
       <c r="F647" s="9"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:6" ht="13">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -6117,7 +6286,7 @@
       <c r="E648" s="9"/>
       <c r="F648" s="9"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:6" ht="13">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -6125,7 +6294,7 @@
       <c r="E649" s="9"/>
       <c r="F649" s="9"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:6" ht="13">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -6133,7 +6302,7 @@
       <c r="E650" s="9"/>
       <c r="F650" s="9"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:6" ht="13">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -6141,7 +6310,7 @@
       <c r="E651" s="9"/>
       <c r="F651" s="9"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:6" ht="13">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -6149,7 +6318,7 @@
       <c r="E652" s="9"/>
       <c r="F652" s="9"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:6" ht="13">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -6157,7 +6326,7 @@
       <c r="E653" s="9"/>
       <c r="F653" s="9"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:6" ht="13">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -6165,7 +6334,7 @@
       <c r="E654" s="9"/>
       <c r="F654" s="9"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:6" ht="13">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -6173,7 +6342,7 @@
       <c r="E655" s="9"/>
       <c r="F655" s="9"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:6" ht="13">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -6181,7 +6350,7 @@
       <c r="E656" s="9"/>
       <c r="F656" s="9"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:6" ht="13">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -6189,7 +6358,7 @@
       <c r="E657" s="9"/>
       <c r="F657" s="9"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:6" ht="13">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -6197,7 +6366,7 @@
       <c r="E658" s="9"/>
       <c r="F658" s="9"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:6" ht="13">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -6205,7 +6374,7 @@
       <c r="E659" s="9"/>
       <c r="F659" s="9"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:6" ht="13">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -6213,7 +6382,7 @@
       <c r="E660" s="9"/>
       <c r="F660" s="9"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:6" ht="13">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -6221,7 +6390,7 @@
       <c r="E661" s="9"/>
       <c r="F661" s="9"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:6" ht="13">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -6229,7 +6398,7 @@
       <c r="E662" s="9"/>
       <c r="F662" s="9"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:6" ht="13">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -6237,7 +6406,7 @@
       <c r="E663" s="9"/>
       <c r="F663" s="9"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:6" ht="13">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -6245,7 +6414,7 @@
       <c r="E664" s="9"/>
       <c r="F664" s="9"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:6" ht="13">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -6253,7 +6422,7 @@
       <c r="E665" s="9"/>
       <c r="F665" s="9"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:6" ht="13">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -6261,7 +6430,7 @@
       <c r="E666" s="9"/>
       <c r="F666" s="9"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:6" ht="13">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -6269,7 +6438,7 @@
       <c r="E667" s="9"/>
       <c r="F667" s="9"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:6" ht="13">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -6277,7 +6446,7 @@
       <c r="E668" s="9"/>
       <c r="F668" s="9"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:6" ht="13">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -6285,7 +6454,7 @@
       <c r="E669" s="9"/>
       <c r="F669" s="9"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:6" ht="13">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -6293,7 +6462,7 @@
       <c r="E670" s="9"/>
       <c r="F670" s="9"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:6" ht="13">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -6301,7 +6470,7 @@
       <c r="E671" s="9"/>
       <c r="F671" s="9"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:6" ht="13">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -6309,7 +6478,7 @@
       <c r="E672" s="9"/>
       <c r="F672" s="9"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:6" ht="13">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -6317,7 +6486,7 @@
       <c r="E673" s="9"/>
       <c r="F673" s="9"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:6" ht="13">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -6325,7 +6494,7 @@
       <c r="E674" s="9"/>
       <c r="F674" s="9"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:6" ht="13">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -6333,7 +6502,7 @@
       <c r="E675" s="9"/>
       <c r="F675" s="9"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:6" ht="13">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -6341,7 +6510,7 @@
       <c r="E676" s="9"/>
       <c r="F676" s="9"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:6" ht="13">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -6349,7 +6518,7 @@
       <c r="E677" s="9"/>
       <c r="F677" s="9"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:6" ht="13">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -6357,7 +6526,7 @@
       <c r="E678" s="9"/>
       <c r="F678" s="9"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:6" ht="13">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -6365,7 +6534,7 @@
       <c r="E679" s="9"/>
       <c r="F679" s="9"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:6" ht="13">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -6373,7 +6542,7 @@
       <c r="E680" s="9"/>
       <c r="F680" s="9"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:6" ht="13">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -6381,7 +6550,7 @@
       <c r="E681" s="9"/>
       <c r="F681" s="9"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:6" ht="13">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -6389,7 +6558,7 @@
       <c r="E682" s="9"/>
       <c r="F682" s="9"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:6" ht="13">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -6397,7 +6566,7 @@
       <c r="E683" s="9"/>
       <c r="F683" s="9"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:6" ht="13">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -6405,7 +6574,7 @@
       <c r="E684" s="9"/>
       <c r="F684" s="9"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:6" ht="13">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -6413,7 +6582,7 @@
       <c r="E685" s="9"/>
       <c r="F685" s="9"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:6" ht="13">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -6421,7 +6590,7 @@
       <c r="E686" s="9"/>
       <c r="F686" s="9"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:6" ht="13">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -6429,7 +6598,7 @@
       <c r="E687" s="9"/>
       <c r="F687" s="9"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:6" ht="13">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -6437,7 +6606,7 @@
       <c r="E688" s="9"/>
       <c r="F688" s="9"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:6" ht="13">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -6445,7 +6614,7 @@
       <c r="E689" s="9"/>
       <c r="F689" s="9"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:6" ht="13">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -6453,7 +6622,7 @@
       <c r="E690" s="9"/>
       <c r="F690" s="9"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:6" ht="13">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -6461,7 +6630,7 @@
       <c r="E691" s="9"/>
       <c r="F691" s="9"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:6" ht="13">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -6469,7 +6638,7 @@
       <c r="E692" s="9"/>
       <c r="F692" s="9"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:6" ht="13">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -6477,7 +6646,7 @@
       <c r="E693" s="9"/>
       <c r="F693" s="9"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:6" ht="13">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -6485,7 +6654,7 @@
       <c r="E694" s="9"/>
       <c r="F694" s="9"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:6" ht="13">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -6493,7 +6662,7 @@
       <c r="E695" s="9"/>
       <c r="F695" s="9"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:6" ht="13">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -6501,7 +6670,7 @@
       <c r="E696" s="9"/>
       <c r="F696" s="9"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:6" ht="13">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -6509,7 +6678,7 @@
       <c r="E697" s="9"/>
       <c r="F697" s="9"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:6" ht="13">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -6517,7 +6686,7 @@
       <c r="E698" s="9"/>
       <c r="F698" s="9"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:6" ht="13">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -6525,7 +6694,7 @@
       <c r="E699" s="9"/>
       <c r="F699" s="9"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:6" ht="13">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -6533,7 +6702,7 @@
       <c r="E700" s="9"/>
       <c r="F700" s="9"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:6" ht="13">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -6541,7 +6710,7 @@
       <c r="E701" s="9"/>
       <c r="F701" s="9"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:6" ht="13">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -6549,7 +6718,7 @@
       <c r="E702" s="9"/>
       <c r="F702" s="9"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:6" ht="13">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -6557,7 +6726,7 @@
       <c r="E703" s="9"/>
       <c r="F703" s="9"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:6" ht="13">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -6565,7 +6734,7 @@
       <c r="E704" s="9"/>
       <c r="F704" s="9"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:6" ht="13">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -6573,7 +6742,7 @@
       <c r="E705" s="9"/>
       <c r="F705" s="9"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:6" ht="13">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -6581,7 +6750,7 @@
       <c r="E706" s="9"/>
       <c r="F706" s="9"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:6" ht="13">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -6589,7 +6758,7 @@
       <c r="E707" s="9"/>
       <c r="F707" s="9"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:6" ht="13">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -6597,7 +6766,7 @@
       <c r="E708" s="9"/>
       <c r="F708" s="9"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:6" ht="13">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -6605,7 +6774,7 @@
       <c r="E709" s="9"/>
       <c r="F709" s="9"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:6" ht="13">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -6613,7 +6782,7 @@
       <c r="E710" s="9"/>
       <c r="F710" s="9"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:6" ht="13">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -6621,7 +6790,7 @@
       <c r="E711" s="9"/>
       <c r="F711" s="9"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:6" ht="13">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -6629,7 +6798,7 @@
       <c r="E712" s="9"/>
       <c r="F712" s="9"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:6" ht="13">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -6637,7 +6806,7 @@
       <c r="E713" s="9"/>
       <c r="F713" s="9"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:6" ht="13">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -6645,7 +6814,7 @@
       <c r="E714" s="9"/>
       <c r="F714" s="9"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:6" ht="13">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -6653,7 +6822,7 @@
       <c r="E715" s="9"/>
       <c r="F715" s="9"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:6" ht="13">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -6661,7 +6830,7 @@
       <c r="E716" s="9"/>
       <c r="F716" s="9"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:6" ht="13">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -6669,7 +6838,7 @@
       <c r="E717" s="9"/>
       <c r="F717" s="9"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:6" ht="13">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -6677,7 +6846,7 @@
       <c r="E718" s="9"/>
       <c r="F718" s="9"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:6" ht="13">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -6685,7 +6854,7 @@
       <c r="E719" s="9"/>
       <c r="F719" s="9"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:6" ht="13">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -6693,7 +6862,7 @@
       <c r="E720" s="9"/>
       <c r="F720" s="9"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:6" ht="13">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -6701,7 +6870,7 @@
       <c r="E721" s="9"/>
       <c r="F721" s="9"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:6" ht="13">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -6709,7 +6878,7 @@
       <c r="E722" s="9"/>
       <c r="F722" s="9"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:6" ht="13">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -6717,7 +6886,7 @@
       <c r="E723" s="9"/>
       <c r="F723" s="9"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:6" ht="13">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -6725,7 +6894,7 @@
       <c r="E724" s="9"/>
       <c r="F724" s="9"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:6" ht="13">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -6733,7 +6902,7 @@
       <c r="E725" s="9"/>
       <c r="F725" s="9"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:6" ht="13">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -6741,7 +6910,7 @@
       <c r="E726" s="9"/>
       <c r="F726" s="9"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:6" ht="13">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -6749,7 +6918,7 @@
       <c r="E727" s="9"/>
       <c r="F727" s="9"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:6" ht="13">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -6757,7 +6926,7 @@
       <c r="E728" s="9"/>
       <c r="F728" s="9"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:6" ht="13">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -6765,7 +6934,7 @@
       <c r="E729" s="9"/>
       <c r="F729" s="9"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:6" ht="13">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -6773,7 +6942,7 @@
       <c r="E730" s="9"/>
       <c r="F730" s="9"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:6" ht="13">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -6781,7 +6950,7 @@
       <c r="E731" s="9"/>
       <c r="F731" s="9"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:6" ht="13">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -6789,7 +6958,7 @@
       <c r="E732" s="9"/>
       <c r="F732" s="9"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:6" ht="13">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -6797,7 +6966,7 @@
       <c r="E733" s="9"/>
       <c r="F733" s="9"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:6" ht="13">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -6805,7 +6974,7 @@
       <c r="E734" s="9"/>
       <c r="F734" s="9"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:6" ht="13">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -6813,7 +6982,7 @@
       <c r="E735" s="9"/>
       <c r="F735" s="9"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:6" ht="13">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -6821,7 +6990,7 @@
       <c r="E736" s="9"/>
       <c r="F736" s="9"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:6" ht="13">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -6829,7 +6998,7 @@
       <c r="E737" s="9"/>
       <c r="F737" s="9"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:6" ht="13">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -6837,7 +7006,7 @@
       <c r="E738" s="9"/>
       <c r="F738" s="9"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:6" ht="13">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -6845,7 +7014,7 @@
       <c r="E739" s="9"/>
       <c r="F739" s="9"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:6" ht="13">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -6853,7 +7022,7 @@
       <c r="E740" s="9"/>
       <c r="F740" s="9"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:6" ht="13">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -6861,7 +7030,7 @@
       <c r="E741" s="9"/>
       <c r="F741" s="9"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:6" ht="13">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -6869,7 +7038,7 @@
       <c r="E742" s="9"/>
       <c r="F742" s="9"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:6" ht="13">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -6877,7 +7046,7 @@
       <c r="E743" s="9"/>
       <c r="F743" s="9"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:6" ht="13">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -6885,7 +7054,7 @@
       <c r="E744" s="9"/>
       <c r="F744" s="9"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:6" ht="13">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -6893,7 +7062,7 @@
       <c r="E745" s="9"/>
       <c r="F745" s="9"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:6" ht="13">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -6901,7 +7070,7 @@
       <c r="E746" s="9"/>
       <c r="F746" s="9"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:6" ht="13">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -6909,7 +7078,7 @@
       <c r="E747" s="9"/>
       <c r="F747" s="9"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:6" ht="13">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -6917,7 +7086,7 @@
       <c r="E748" s="9"/>
       <c r="F748" s="9"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:6" ht="13">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -6925,7 +7094,7 @@
       <c r="E749" s="9"/>
       <c r="F749" s="9"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:6" ht="13">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -6933,7 +7102,7 @@
       <c r="E750" s="9"/>
       <c r="F750" s="9"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:6" ht="13">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -6941,7 +7110,7 @@
       <c r="E751" s="9"/>
       <c r="F751" s="9"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:6" ht="13">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -6949,7 +7118,7 @@
       <c r="E752" s="9"/>
       <c r="F752" s="9"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:6" ht="13">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -6957,7 +7126,7 @@
       <c r="E753" s="9"/>
       <c r="F753" s="9"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:6" ht="13">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -6965,7 +7134,7 @@
       <c r="E754" s="9"/>
       <c r="F754" s="9"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:6" ht="13">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -6973,7 +7142,7 @@
       <c r="E755" s="9"/>
       <c r="F755" s="9"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:6" ht="13">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -6981,7 +7150,7 @@
       <c r="E756" s="9"/>
       <c r="F756" s="9"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:6" ht="13">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -6989,7 +7158,7 @@
       <c r="E757" s="9"/>
       <c r="F757" s="9"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:6" ht="13">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -6997,7 +7166,7 @@
       <c r="E758" s="9"/>
       <c r="F758" s="9"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:6" ht="13">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -7005,7 +7174,7 @@
       <c r="E759" s="9"/>
       <c r="F759" s="9"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:6" ht="13">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -7013,7 +7182,7 @@
       <c r="E760" s="9"/>
       <c r="F760" s="9"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:6" ht="13">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -7021,7 +7190,7 @@
       <c r="E761" s="9"/>
       <c r="F761" s="9"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:6" ht="13">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -7029,7 +7198,7 @@
       <c r="E762" s="9"/>
       <c r="F762" s="9"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:6" ht="13">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -7037,7 +7206,7 @@
       <c r="E763" s="9"/>
       <c r="F763" s="9"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:6" ht="13">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -7045,7 +7214,7 @@
       <c r="E764" s="9"/>
       <c r="F764" s="9"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:6" ht="13">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -7053,7 +7222,7 @@
       <c r="E765" s="9"/>
       <c r="F765" s="9"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:6" ht="13">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -7061,7 +7230,7 @@
       <c r="E766" s="9"/>
       <c r="F766" s="9"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:6" ht="13">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -7069,7 +7238,7 @@
       <c r="E767" s="9"/>
       <c r="F767" s="9"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:6" ht="13">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -7077,7 +7246,7 @@
       <c r="E768" s="9"/>
       <c r="F768" s="9"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:6" ht="13">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -7085,7 +7254,7 @@
       <c r="E769" s="9"/>
       <c r="F769" s="9"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:6" ht="13">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -7093,7 +7262,7 @@
       <c r="E770" s="9"/>
       <c r="F770" s="9"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:6" ht="13">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -7101,7 +7270,7 @@
       <c r="E771" s="9"/>
       <c r="F771" s="9"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:6" ht="13">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -7109,7 +7278,7 @@
       <c r="E772" s="9"/>
       <c r="F772" s="9"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:6" ht="13">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -7117,7 +7286,7 @@
       <c r="E773" s="9"/>
       <c r="F773" s="9"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:6" ht="13">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -7125,7 +7294,7 @@
       <c r="E774" s="9"/>
       <c r="F774" s="9"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:6" ht="13">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -7133,7 +7302,7 @@
       <c r="E775" s="9"/>
       <c r="F775" s="9"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:6" ht="13">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -7141,7 +7310,7 @@
       <c r="E776" s="9"/>
       <c r="F776" s="9"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:6" ht="13">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -7149,7 +7318,7 @@
       <c r="E777" s="9"/>
       <c r="F777" s="9"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:6" ht="13">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -7157,7 +7326,7 @@
       <c r="E778" s="9"/>
       <c r="F778" s="9"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:6" ht="13">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -7165,7 +7334,7 @@
       <c r="E779" s="9"/>
       <c r="F779" s="9"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:6" ht="13">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -7173,7 +7342,7 @@
       <c r="E780" s="9"/>
       <c r="F780" s="9"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:6" ht="13">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -7181,7 +7350,7 @@
       <c r="E781" s="9"/>
       <c r="F781" s="9"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:6" ht="13">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -7189,7 +7358,7 @@
       <c r="E782" s="9"/>
       <c r="F782" s="9"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:6" ht="13">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -7197,7 +7366,7 @@
       <c r="E783" s="9"/>
       <c r="F783" s="9"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:6" ht="13">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -7205,7 +7374,7 @@
       <c r="E784" s="9"/>
       <c r="F784" s="9"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:6" ht="13">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -7213,7 +7382,7 @@
       <c r="E785" s="9"/>
       <c r="F785" s="9"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:6" ht="13">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -7221,7 +7390,7 @@
       <c r="E786" s="9"/>
       <c r="F786" s="9"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:6" ht="13">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -7229,7 +7398,7 @@
       <c r="E787" s="9"/>
       <c r="F787" s="9"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:6" ht="13">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -7237,7 +7406,7 @@
       <c r="E788" s="9"/>
       <c r="F788" s="9"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:6" ht="13">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -7245,7 +7414,7 @@
       <c r="E789" s="9"/>
       <c r="F789" s="9"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:6" ht="13">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -7253,7 +7422,7 @@
       <c r="E790" s="9"/>
       <c r="F790" s="9"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:6" ht="13">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -7261,7 +7430,7 @@
       <c r="E791" s="9"/>
       <c r="F791" s="9"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:6" ht="13">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -7269,7 +7438,7 @@
       <c r="E792" s="9"/>
       <c r="F792" s="9"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:6" ht="13">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -7277,7 +7446,7 @@
       <c r="E793" s="9"/>
       <c r="F793" s="9"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:6" ht="13">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -7285,7 +7454,7 @@
       <c r="E794" s="9"/>
       <c r="F794" s="9"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:6" ht="13">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -7293,7 +7462,7 @@
       <c r="E795" s="9"/>
       <c r="F795" s="9"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:6" ht="13">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -7301,7 +7470,7 @@
       <c r="E796" s="9"/>
       <c r="F796" s="9"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:6" ht="13">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -7309,7 +7478,7 @@
       <c r="E797" s="9"/>
       <c r="F797" s="9"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:6" ht="13">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -7317,7 +7486,7 @@
       <c r="E798" s="9"/>
       <c r="F798" s="9"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:6" ht="13">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -7325,7 +7494,7 @@
       <c r="E799" s="9"/>
       <c r="F799" s="9"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:6" ht="13">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -7333,7 +7502,7 @@
       <c r="E800" s="9"/>
       <c r="F800" s="9"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:6" ht="13">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -7341,7 +7510,7 @@
       <c r="E801" s="9"/>
       <c r="F801" s="9"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:6" ht="13">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -7349,7 +7518,7 @@
       <c r="E802" s="9"/>
       <c r="F802" s="9"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:6" ht="13">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -7357,7 +7526,7 @@
       <c r="E803" s="9"/>
       <c r="F803" s="9"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:6" ht="13">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -7365,7 +7534,7 @@
       <c r="E804" s="9"/>
       <c r="F804" s="9"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:6" ht="13">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -7373,7 +7542,7 @@
       <c r="E805" s="9"/>
       <c r="F805" s="9"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:6" ht="13">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -7381,7 +7550,7 @@
       <c r="E806" s="9"/>
       <c r="F806" s="9"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:6" ht="13">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -7389,7 +7558,7 @@
       <c r="E807" s="9"/>
       <c r="F807" s="9"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:6" ht="13">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -7397,7 +7566,7 @@
       <c r="E808" s="9"/>
       <c r="F808" s="9"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:6" ht="13">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -7405,7 +7574,7 @@
       <c r="E809" s="9"/>
       <c r="F809" s="9"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:6" ht="13">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -7413,7 +7582,7 @@
       <c r="E810" s="9"/>
       <c r="F810" s="9"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:6" ht="13">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -7421,7 +7590,7 @@
       <c r="E811" s="9"/>
       <c r="F811" s="9"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:6" ht="13">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -7429,7 +7598,7 @@
       <c r="E812" s="9"/>
       <c r="F812" s="9"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:6" ht="13">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -7437,7 +7606,7 @@
       <c r="E813" s="9"/>
       <c r="F813" s="9"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:6" ht="13">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -7445,7 +7614,7 @@
       <c r="E814" s="9"/>
       <c r="F814" s="9"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:6" ht="13">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -7453,7 +7622,7 @@
       <c r="E815" s="9"/>
       <c r="F815" s="9"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:6" ht="13">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -7461,7 +7630,7 @@
       <c r="E816" s="9"/>
       <c r="F816" s="9"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:6" ht="13">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -7469,7 +7638,7 @@
       <c r="E817" s="9"/>
       <c r="F817" s="9"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:6" ht="13">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -7477,7 +7646,7 @@
       <c r="E818" s="9"/>
       <c r="F818" s="9"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:6" ht="13">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -7485,7 +7654,7 @@
       <c r="E819" s="9"/>
       <c r="F819" s="9"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:6" ht="13">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -7493,7 +7662,7 @@
       <c r="E820" s="9"/>
       <c r="F820" s="9"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:6" ht="13">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -7501,7 +7670,7 @@
       <c r="E821" s="9"/>
       <c r="F821" s="9"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:6" ht="13">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -7509,7 +7678,7 @@
       <c r="E822" s="9"/>
       <c r="F822" s="9"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:6" ht="13">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -7517,7 +7686,7 @@
       <c r="E823" s="9"/>
       <c r="F823" s="9"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:6" ht="13">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -7525,7 +7694,7 @@
       <c r="E824" s="9"/>
       <c r="F824" s="9"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:6" ht="13">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -7533,7 +7702,7 @@
       <c r="E825" s="9"/>
       <c r="F825" s="9"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:6" ht="13">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -7541,7 +7710,7 @@
       <c r="E826" s="9"/>
       <c r="F826" s="9"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:6" ht="13">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -7549,7 +7718,7 @@
       <c r="E827" s="9"/>
       <c r="F827" s="9"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:6" ht="13">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -7557,7 +7726,7 @@
       <c r="E828" s="9"/>
       <c r="F828" s="9"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:6" ht="13">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -7565,7 +7734,7 @@
       <c r="E829" s="9"/>
       <c r="F829" s="9"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:6" ht="13">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -7573,7 +7742,7 @@
       <c r="E830" s="9"/>
       <c r="F830" s="9"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:6" ht="13">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -7581,7 +7750,7 @@
       <c r="E831" s="9"/>
       <c r="F831" s="9"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:6" ht="13">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -7589,7 +7758,7 @@
       <c r="E832" s="9"/>
       <c r="F832" s="9"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:6" ht="13">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -7597,7 +7766,7 @@
       <c r="E833" s="9"/>
       <c r="F833" s="9"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:6" ht="13">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -7605,7 +7774,7 @@
       <c r="E834" s="9"/>
       <c r="F834" s="9"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:6" ht="13">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -7613,7 +7782,7 @@
       <c r="E835" s="9"/>
       <c r="F835" s="9"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:6" ht="13">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -7621,7 +7790,7 @@
       <c r="E836" s="9"/>
       <c r="F836" s="9"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:6" ht="13">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -7629,7 +7798,7 @@
       <c r="E837" s="9"/>
       <c r="F837" s="9"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:6" ht="13">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -7637,7 +7806,7 @@
       <c r="E838" s="9"/>
       <c r="F838" s="9"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:6" ht="13">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -7645,7 +7814,7 @@
       <c r="E839" s="9"/>
       <c r="F839" s="9"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:6" ht="13">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -7653,7 +7822,7 @@
       <c r="E840" s="9"/>
       <c r="F840" s="9"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:6" ht="13">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -7661,7 +7830,7 @@
       <c r="E841" s="9"/>
       <c r="F841" s="9"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:6" ht="13">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -7669,7 +7838,7 @@
       <c r="E842" s="9"/>
       <c r="F842" s="9"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:6" ht="13">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -7677,7 +7846,7 @@
       <c r="E843" s="9"/>
       <c r="F843" s="9"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:6" ht="13">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -7685,7 +7854,7 @@
       <c r="E844" s="9"/>
       <c r="F844" s="9"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:6" ht="13">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -7693,7 +7862,7 @@
       <c r="E845" s="9"/>
       <c r="F845" s="9"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:6" ht="13">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -7701,7 +7870,7 @@
       <c r="E846" s="9"/>
       <c r="F846" s="9"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:6" ht="13">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -7709,7 +7878,7 @@
       <c r="E847" s="9"/>
       <c r="F847" s="9"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:6" ht="13">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -7717,7 +7886,7 @@
       <c r="E848" s="9"/>
       <c r="F848" s="9"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:6" ht="13">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -7725,7 +7894,7 @@
       <c r="E849" s="9"/>
       <c r="F849" s="9"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:6" ht="13">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -7733,7 +7902,7 @@
       <c r="E850" s="9"/>
       <c r="F850" s="9"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:6" ht="13">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -7741,7 +7910,7 @@
       <c r="E851" s="9"/>
       <c r="F851" s="9"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:6" ht="13">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -7749,7 +7918,7 @@
       <c r="E852" s="9"/>
       <c r="F852" s="9"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:6" ht="13">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -7757,7 +7926,7 @@
       <c r="E853" s="9"/>
       <c r="F853" s="9"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:6" ht="13">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -7765,7 +7934,7 @@
       <c r="E854" s="9"/>
       <c r="F854" s="9"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:6" ht="13">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -7773,7 +7942,7 @@
       <c r="E855" s="9"/>
       <c r="F855" s="9"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:6" ht="13">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -7781,7 +7950,7 @@
       <c r="E856" s="9"/>
       <c r="F856" s="9"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:6" ht="13">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -7789,7 +7958,7 @@
       <c r="E857" s="9"/>
       <c r="F857" s="9"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:6" ht="13">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -7797,7 +7966,7 @@
       <c r="E858" s="9"/>
       <c r="F858" s="9"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:6" ht="13">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -7805,7 +7974,7 @@
       <c r="E859" s="9"/>
       <c r="F859" s="9"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:6" ht="13">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -7813,7 +7982,7 @@
       <c r="E860" s="9"/>
       <c r="F860" s="9"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:6" ht="13">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -7821,7 +7990,7 @@
       <c r="E861" s="9"/>
       <c r="F861" s="9"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:6" ht="13">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -7829,7 +7998,7 @@
       <c r="E862" s="9"/>
       <c r="F862" s="9"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:6" ht="13">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -7837,7 +8006,7 @@
       <c r="E863" s="9"/>
       <c r="F863" s="9"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:6" ht="13">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -7845,7 +8014,7 @@
       <c r="E864" s="9"/>
       <c r="F864" s="9"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:6" ht="13">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -7853,7 +8022,7 @@
       <c r="E865" s="9"/>
       <c r="F865" s="9"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:6" ht="13">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -7861,7 +8030,7 @@
       <c r="E866" s="9"/>
       <c r="F866" s="9"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:6" ht="13">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -7869,7 +8038,7 @@
       <c r="E867" s="9"/>
       <c r="F867" s="9"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:6" ht="13">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -7877,7 +8046,7 @@
       <c r="E868" s="9"/>
       <c r="F868" s="9"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:6" ht="13">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -7885,7 +8054,7 @@
       <c r="E869" s="9"/>
       <c r="F869" s="9"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:6" ht="13">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -7893,7 +8062,7 @@
       <c r="E870" s="9"/>
       <c r="F870" s="9"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:6" ht="13">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -7901,7 +8070,7 @@
       <c r="E871" s="9"/>
       <c r="F871" s="9"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:6" ht="13">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -7909,7 +8078,7 @@
       <c r="E872" s="9"/>
       <c r="F872" s="9"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:6" ht="13">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -7917,7 +8086,7 @@
       <c r="E873" s="9"/>
       <c r="F873" s="9"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:6" ht="13">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -7925,7 +8094,7 @@
       <c r="E874" s="9"/>
       <c r="F874" s="9"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:6" ht="13">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -7933,7 +8102,7 @@
       <c r="E875" s="9"/>
       <c r="F875" s="9"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:6" ht="13">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -7941,7 +8110,7 @@
       <c r="E876" s="9"/>
       <c r="F876" s="9"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:6" ht="13">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -7949,7 +8118,7 @@
       <c r="E877" s="9"/>
       <c r="F877" s="9"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:6" ht="13">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -7957,7 +8126,7 @@
       <c r="E878" s="9"/>
       <c r="F878" s="9"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:6" ht="13">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -7965,7 +8134,7 @@
       <c r="E879" s="9"/>
       <c r="F879" s="9"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:6" ht="13">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -7973,7 +8142,7 @@
       <c r="E880" s="9"/>
       <c r="F880" s="9"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:6" ht="13">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -7981,7 +8150,7 @@
       <c r="E881" s="9"/>
       <c r="F881" s="9"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:6" ht="13">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -7989,7 +8158,7 @@
       <c r="E882" s="9"/>
       <c r="F882" s="9"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:6" ht="13">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -7997,7 +8166,7 @@
       <c r="E883" s="9"/>
       <c r="F883" s="9"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:6" ht="13">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -8005,7 +8174,7 @@
       <c r="E884" s="9"/>
       <c r="F884" s="9"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:6" ht="13">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -8013,7 +8182,7 @@
       <c r="E885" s="9"/>
       <c r="F885" s="9"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:6" ht="13">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -8021,7 +8190,7 @@
       <c r="E886" s="9"/>
       <c r="F886" s="9"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:6" ht="13">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -8029,7 +8198,7 @@
       <c r="E887" s="9"/>
       <c r="F887" s="9"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:6" ht="13">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -8037,7 +8206,7 @@
       <c r="E888" s="9"/>
       <c r="F888" s="9"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:6" ht="13">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -8045,7 +8214,7 @@
       <c r="E889" s="9"/>
       <c r="F889" s="9"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:6" ht="13">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -8053,7 +8222,7 @@
       <c r="E890" s="9"/>
       <c r="F890" s="9"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:6" ht="13">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -8061,7 +8230,7 @@
       <c r="E891" s="9"/>
       <c r="F891" s="9"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:6" ht="13">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -8069,7 +8238,7 @@
       <c r="E892" s="9"/>
       <c r="F892" s="9"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:6" ht="13">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -8077,7 +8246,7 @@
       <c r="E893" s="9"/>
       <c r="F893" s="9"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:6" ht="13">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -8085,7 +8254,7 @@
       <c r="E894" s="9"/>
       <c r="F894" s="9"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:6" ht="13">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -8093,7 +8262,7 @@
       <c r="E895" s="9"/>
       <c r="F895" s="9"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:6" ht="13">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -8101,7 +8270,7 @@
       <c r="E896" s="9"/>
       <c r="F896" s="9"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:6" ht="13">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -8109,7 +8278,7 @@
       <c r="E897" s="9"/>
       <c r="F897" s="9"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:6" ht="13">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -8117,7 +8286,7 @@
       <c r="E898" s="9"/>
       <c r="F898" s="9"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:6" ht="13">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -8125,7 +8294,7 @@
       <c r="E899" s="9"/>
       <c r="F899" s="9"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:6" ht="13">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -8133,7 +8302,7 @@
       <c r="E900" s="9"/>
       <c r="F900" s="9"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:6" ht="13">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -8141,7 +8310,7 @@
       <c r="E901" s="9"/>
       <c r="F901" s="9"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:6" ht="13">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -8149,7 +8318,7 @@
       <c r="E902" s="9"/>
       <c r="F902" s="9"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:6" ht="13">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -8157,7 +8326,7 @@
       <c r="E903" s="9"/>
       <c r="F903" s="9"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:6" ht="13">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -8165,7 +8334,7 @@
       <c r="E904" s="9"/>
       <c r="F904" s="9"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:6" ht="13">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -8173,7 +8342,7 @@
       <c r="E905" s="9"/>
       <c r="F905" s="9"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:6" ht="13">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -8181,7 +8350,7 @@
       <c r="E906" s="9"/>
       <c r="F906" s="9"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:6" ht="13">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -8189,7 +8358,7 @@
       <c r="E907" s="9"/>
       <c r="F907" s="9"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:6" ht="13">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -8197,7 +8366,7 @@
       <c r="E908" s="9"/>
       <c r="F908" s="9"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:6" ht="13">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -8205,7 +8374,7 @@
       <c r="E909" s="9"/>
       <c r="F909" s="9"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:6" ht="13">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -8213,7 +8382,7 @@
       <c r="E910" s="9"/>
       <c r="F910" s="9"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:6" ht="13">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -8221,7 +8390,7 @@
       <c r="E911" s="9"/>
       <c r="F911" s="9"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:6" ht="13">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -8229,7 +8398,7 @@
       <c r="E912" s="9"/>
       <c r="F912" s="9"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:6" ht="13">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -8237,7 +8406,7 @@
       <c r="E913" s="9"/>
       <c r="F913" s="9"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:6" ht="13">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -8245,7 +8414,7 @@
       <c r="E914" s="9"/>
       <c r="F914" s="9"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:6" ht="13">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -8253,7 +8422,7 @@
       <c r="E915" s="9"/>
       <c r="F915" s="9"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:6" ht="13">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -8261,7 +8430,7 @@
       <c r="E916" s="9"/>
       <c r="F916" s="9"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:6" ht="13">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -8269,7 +8438,7 @@
       <c r="E917" s="9"/>
       <c r="F917" s="9"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:6" ht="13">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -8277,7 +8446,7 @@
       <c r="E918" s="9"/>
       <c r="F918" s="9"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:6" ht="13">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -8285,7 +8454,7 @@
       <c r="E919" s="9"/>
       <c r="F919" s="9"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:6" ht="13">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -8293,7 +8462,7 @@
       <c r="E920" s="9"/>
       <c r="F920" s="9"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:6" ht="13">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -8301,7 +8470,7 @@
       <c r="E921" s="9"/>
       <c r="F921" s="9"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:6" ht="13">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -8309,7 +8478,7 @@
       <c r="E922" s="9"/>
       <c r="F922" s="9"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:6" ht="13">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -8317,7 +8486,7 @@
       <c r="E923" s="9"/>
       <c r="F923" s="9"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:6" ht="13">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -8325,7 +8494,7 @@
       <c r="E924" s="9"/>
       <c r="F924" s="9"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:6" ht="13">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -8333,7 +8502,7 @@
       <c r="E925" s="9"/>
       <c r="F925" s="9"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:6" ht="13">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -8341,7 +8510,7 @@
       <c r="E926" s="9"/>
       <c r="F926" s="9"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:6" ht="13">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -8349,7 +8518,7 @@
       <c r="E927" s="9"/>
       <c r="F927" s="9"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:6" ht="13">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -8357,7 +8526,7 @@
       <c r="E928" s="9"/>
       <c r="F928" s="9"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:6" ht="13">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -8365,7 +8534,7 @@
       <c r="E929" s="9"/>
       <c r="F929" s="9"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:6" ht="13">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -8373,7 +8542,7 @@
       <c r="E930" s="9"/>
       <c r="F930" s="9"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:6" ht="13">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -8381,7 +8550,7 @@
       <c r="E931" s="9"/>
       <c r="F931" s="9"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:6" ht="13">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -8389,7 +8558,7 @@
       <c r="E932" s="9"/>
       <c r="F932" s="9"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:6" ht="13">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -8397,7 +8566,7 @@
       <c r="E933" s="9"/>
       <c r="F933" s="9"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:6" ht="13">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -8405,7 +8574,7 @@
       <c r="E934" s="9"/>
       <c r="F934" s="9"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:6" ht="13">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -8413,7 +8582,7 @@
       <c r="E935" s="9"/>
       <c r="F935" s="9"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:6" ht="13">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -8421,7 +8590,7 @@
       <c r="E936" s="9"/>
       <c r="F936" s="9"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:6" ht="13">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -8429,7 +8598,7 @@
       <c r="E937" s="9"/>
       <c r="F937" s="9"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:6" ht="13">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -8437,7 +8606,7 @@
       <c r="E938" s="9"/>
       <c r="F938" s="9"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:6" ht="13">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -8445,7 +8614,7 @@
       <c r="E939" s="9"/>
       <c r="F939" s="9"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:6" ht="13">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -8453,7 +8622,7 @@
       <c r="E940" s="9"/>
       <c r="F940" s="9"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:6" ht="13">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -8461,7 +8630,7 @@
       <c r="E941" s="9"/>
       <c r="F941" s="9"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:6" ht="13">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -8469,7 +8638,7 @@
       <c r="E942" s="9"/>
       <c r="F942" s="9"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:6" ht="13">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -8477,7 +8646,7 @@
       <c r="E943" s="9"/>
       <c r="F943" s="9"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:6" ht="13">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -8485,7 +8654,7 @@
       <c r="E944" s="9"/>
       <c r="F944" s="9"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:6" ht="13">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -8493,7 +8662,7 @@
       <c r="E945" s="9"/>
       <c r="F945" s="9"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:6" ht="13">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -8501,7 +8670,7 @@
       <c r="E946" s="9"/>
       <c r="F946" s="9"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:6" ht="13">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -8509,7 +8678,7 @@
       <c r="E947" s="9"/>
       <c r="F947" s="9"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:6" ht="13">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -8517,7 +8686,7 @@
       <c r="E948" s="9"/>
       <c r="F948" s="9"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:6" ht="13">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -8525,7 +8694,7 @@
       <c r="E949" s="9"/>
       <c r="F949" s="9"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:6" ht="13">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -8533,7 +8702,7 @@
       <c r="E950" s="9"/>
       <c r="F950" s="9"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:6" ht="13">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -8541,7 +8710,7 @@
       <c r="E951" s="9"/>
       <c r="F951" s="9"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:6" ht="13">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -8549,7 +8718,7 @@
       <c r="E952" s="9"/>
       <c r="F952" s="9"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:6" ht="13">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -8557,7 +8726,7 @@
       <c r="E953" s="9"/>
       <c r="F953" s="9"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:6" ht="13">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -8565,7 +8734,7 @@
       <c r="E954" s="9"/>
       <c r="F954" s="9"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:6" ht="13">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -8573,7 +8742,7 @@
       <c r="E955" s="9"/>
       <c r="F955" s="9"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:6" ht="13">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -8581,7 +8750,7 @@
       <c r="E956" s="9"/>
       <c r="F956" s="9"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:6" ht="13">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -8589,7 +8758,7 @@
       <c r="E957" s="9"/>
       <c r="F957" s="9"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:6" ht="13">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -8597,7 +8766,7 @@
       <c r="E958" s="9"/>
       <c r="F958" s="9"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:6" ht="13">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
@@ -8605,7 +8774,7 @@
       <c r="E959" s="9"/>
       <c r="F959" s="9"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:6" ht="13">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
@@ -8613,7 +8782,7 @@
       <c r="E960" s="9"/>
       <c r="F960" s="9"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:6" ht="13">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
@@ -8621,7 +8790,7 @@
       <c r="E961" s="9"/>
       <c r="F961" s="9"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:6" ht="13">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
@@ -8629,7 +8798,7 @@
       <c r="E962" s="9"/>
       <c r="F962" s="9"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:6" ht="13">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
@@ -8637,7 +8806,7 @@
       <c r="E963" s="9"/>
       <c r="F963" s="9"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:6" ht="13">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
@@ -8645,7 +8814,7 @@
       <c r="E964" s="9"/>
       <c r="F964" s="9"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:6" ht="13">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
@@ -8653,7 +8822,7 @@
       <c r="E965" s="9"/>
       <c r="F965" s="9"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:6" ht="13">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
@@ -8661,7 +8830,7 @@
       <c r="E966" s="9"/>
       <c r="F966" s="9"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:6" ht="13">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
@@ -8669,7 +8838,7 @@
       <c r="E967" s="9"/>
       <c r="F967" s="9"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:6" ht="13">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
@@ -8677,7 +8846,7 @@
       <c r="E968" s="9"/>
       <c r="F968" s="9"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:6" ht="13">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
@@ -8685,7 +8854,7 @@
       <c r="E969" s="9"/>
       <c r="F969" s="9"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:6" ht="13">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
@@ -8693,7 +8862,7 @@
       <c r="E970" s="9"/>
       <c r="F970" s="9"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:6" ht="13">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
@@ -8701,7 +8870,7 @@
       <c r="E971" s="9"/>
       <c r="F971" s="9"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:6" ht="13">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
@@ -8709,7 +8878,7 @@
       <c r="E972" s="9"/>
       <c r="F972" s="9"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:6" ht="13">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
@@ -8717,7 +8886,7 @@
       <c r="E973" s="9"/>
       <c r="F973" s="9"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:6" ht="13">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
@@ -8725,7 +8894,7 @@
       <c r="E974" s="9"/>
       <c r="F974" s="9"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:6" ht="13">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
@@ -8733,7 +8902,7 @@
       <c r="E975" s="9"/>
       <c r="F975" s="9"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:6" ht="13">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
@@ -8741,7 +8910,7 @@
       <c r="E976" s="9"/>
       <c r="F976" s="9"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:6" ht="13">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
@@ -8749,7 +8918,7 @@
       <c r="E977" s="9"/>
       <c r="F977" s="9"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:6" ht="13">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
@@ -8757,7 +8926,7 @@
       <c r="E978" s="9"/>
       <c r="F978" s="9"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:6" ht="13">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
@@ -8765,7 +8934,7 @@
       <c r="E979" s="9"/>
       <c r="F979" s="9"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:6" ht="13">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
@@ -8773,7 +8942,7 @@
       <c r="E980" s="9"/>
       <c r="F980" s="9"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:6" ht="13">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
@@ -8781,7 +8950,7 @@
       <c r="E981" s="9"/>
       <c r="F981" s="9"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:6" ht="13">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
@@ -8789,7 +8958,7 @@
       <c r="E982" s="9"/>
       <c r="F982" s="9"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:6" ht="13">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
@@ -8797,7 +8966,7 @@
       <c r="E983" s="9"/>
       <c r="F983" s="9"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:6" ht="13">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
@@ -8805,7 +8974,7 @@
       <c r="E984" s="9"/>
       <c r="F984" s="9"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:6" ht="13">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
@@ -8813,7 +8982,7 @@
       <c r="E985" s="9"/>
       <c r="F985" s="9"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:6" ht="13">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
@@ -8821,7 +8990,7 @@
       <c r="E986" s="9"/>
       <c r="F986" s="9"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:6" ht="13">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
@@ -8829,7 +8998,7 @@
       <c r="E987" s="9"/>
       <c r="F987" s="9"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:6" ht="13">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
@@ -8837,7 +9006,7 @@
       <c r="E988" s="9"/>
       <c r="F988" s="9"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:6" ht="13">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
@@ -8845,7 +9014,7 @@
       <c r="E989" s="9"/>
       <c r="F989" s="9"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:6" ht="13">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
@@ -8853,7 +9022,7 @@
       <c r="E990" s="9"/>
       <c r="F990" s="9"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:6" ht="13">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
@@ -8861,7 +9030,7 @@
       <c r="E991" s="9"/>
       <c r="F991" s="9"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:6" ht="13">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
@@ -8869,7 +9038,7 @@
       <c r="E992" s="9"/>
       <c r="F992" s="9"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:6" ht="13">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
@@ -8877,7 +9046,7 @@
       <c r="E993" s="9"/>
       <c r="F993" s="9"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:6" ht="13">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
@@ -8885,7 +9054,7 @@
       <c r="E994" s="9"/>
       <c r="F994" s="9"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:6" ht="13">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
@@ -8893,7 +9062,7 @@
       <c r="E995" s="9"/>
       <c r="F995" s="9"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:6" ht="13">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
@@ -8901,7 +9070,7 @@
       <c r="E996" s="9"/>
       <c r="F996" s="9"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:6" ht="13">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
@@ -8909,7 +9078,7 @@
       <c r="E997" s="9"/>
       <c r="F997" s="9"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:6" ht="13">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
@@ -8917,7 +9086,7 @@
       <c r="E998" s="9"/>
       <c r="F998" s="9"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:6" ht="13">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
@@ -8925,7 +9094,7 @@
       <c r="E999" s="9"/>
       <c r="F999" s="9"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:6" ht="13">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
@@ -8933,7 +9102,7 @@
       <c r="E1000" s="9"/>
       <c r="F1000" s="9"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:6" ht="13">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
@@ -8942,23 +9111,25 @@
       <c r="F1001" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J2"/>
-    <hyperlink r:id="rId2" ref="J3"/>
-    <hyperlink r:id="rId3" ref="J4"/>
-    <hyperlink r:id="rId4" ref="J5"/>
-    <hyperlink r:id="rId5" ref="J6"/>
-    <hyperlink r:id="rId6" ref="J7"/>
-    <hyperlink r:id="rId7" ref="J8"/>
-    <hyperlink r:id="rId8" ref="J9"/>
-    <hyperlink r:id="rId9" ref="J10"/>
-    <hyperlink r:id="rId10" ref="J11"/>
-    <hyperlink r:id="rId11" ref="J12"/>
-    <hyperlink r:id="rId12" ref="J13"/>
-    <hyperlink r:id="rId13" ref="J14"/>
-    <hyperlink r:id="rId14" ref="J15"/>
-    <hyperlink r:id="rId15" ref="J16"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{3DEAF1C3-7764-4E4F-B110-9C8E086E71A7}"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8E977-B97D-314B-A5A8-36819730EA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB4F4B-4369-C045-BB9F-ABC65DB42E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="2100" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,18 +281,6 @@
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200310-13.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">月2日　出勤　・通常通り勤務 ・倦怠感，関節痛あり 
-3月3日　勤務不要日
-3月4日　出勤 ・起床後，発熱なく，通常通り勤務 ・発熱(夜:38.0度) 
-3月5日　勤務不要日 
-3月6日　欠勤 　・体調不良のため出勤できず ・発熱あり
-3月7日　休日　・発熱あり
-3月8日　休日　・発熱あり
-3月9日　欠勤　・体調不良のため出勤できず
-3月10日　勤務不要日　・病院へ受診し，検体採取 
-3月11日　欠勤　・発熱(37.5度) ・陽性反応 ・本日入院措置 </t>
-  </si>
-  <si>
     <t>右京区役所に勤務する臨時的任用の職員
 ・ 本人は，週3回勤務
 ※主に証明書の照合確認でバックヤードにて勤務。一時的に来庁者に証明書を交付
@@ -377,6 +365,19 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t xml:space="preserve">3月2日　出勤　・通常通り勤務 ・倦怠感，関節痛あり 
+3月3日　勤務不要日
+3月4日　出勤 ・起床後，発熱なく，通常通り勤務 ・発熱(夜:38.0度) 
+3月5日　勤務不要日 
+3月6日　欠勤 　・体調不良のため出勤できず ・発熱あり
+3月7日　休日　・発熱あり
+3月8日　休日　・発熱あり
+3月9日　欠勤　・体調不良のため出勤できず
+3月10日　勤務不要日　・病院へ受診し，検体採取 
+3月11日　欠勤　・発熱(37.5度) ・陽性反応 ・本日入院措置 </t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -394,27 +395,32 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -445,6 +451,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -486,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +524,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,7 +751,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1160,14 +1170,14 @@
         <v>12</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -1178,7 +1188,7 @@
         <v>43901</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1" t="s">
@@ -1188,13 +1198,13 @@
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -1205,23 +1215,23 @@
         <v>43902</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="J17" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -1232,7 +1242,7 @@
         <v>43902</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1240,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB4F4B-4369-C045-BB9F-ABC65DB42E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A00B3-E530-A84A-A54F-B3473DAFC2F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>症例</t>
   </si>
@@ -751,7 +751,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1245,7 +1245,9 @@
         <v>69</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="F18" s="9">
         <v>15</v>
       </c>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/dev/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098871D6-E921-0E4E-B677-C21C7551B8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04239DE9-A9AD-234D-A91B-E9968C23303C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="520" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -401,8 +401,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="181" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -530,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,7 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -565,6 +565,8 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -883,10 +885,13 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="8" max="8" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -943,10 +948,10 @@
       <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="18">
         <v>43872</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -973,10 +978,10 @@
       <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="18">
         <v>43869</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1000,13 +1005,13 @@
       <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="18">
         <v>43901</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1033,10 +1038,10 @@
       <c r="H5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="18">
         <v>43899</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1063,8 +1068,8 @@
       <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1091,8 +1096,10 @@
       <c r="H7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="17">
+        <v>43904</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1119,8 +1126,8 @@
       <c r="H8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1147,8 +1154,8 @@
       <c r="H9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1174,9 +1181,9 @@
       <c r="G10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1202,9 +1209,9 @@
       <c r="G11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1230,9 +1237,9 @@
       <c r="G12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1256,11 +1263,13 @@
       <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10" t="s">
+      <c r="I13" s="17">
+        <v>43903</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1286,9 +1295,9 @@
       <c r="G14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1309,14 +1318,14 @@
         <v>12</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1330,7 +1339,7 @@
       <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1343,8 +1352,8 @@
       <c r="H16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="10" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1355,29 +1364,29 @@
       <c r="B17" s="5">
         <v>43902</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="16" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="343">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="5">
@@ -1386,19 +1395,19 @@
       <c r="C18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>15</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="17" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="16" t="s">
         <v>70</v>
       </c>
     </row>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04239DE9-A9AD-234D-A91B-E9968C23303C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D736D8F-F2AA-7242-A500-1ECA35D7557E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="520" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
-  <si>
-    <t>症例</t>
-  </si>
-  <si>
-    <t>発表日</t>
-  </si>
-  <si>
-    <t>年代</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>居住地</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>関連</t>
   </si>
@@ -67,12 +52,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>20代</t>
-  </si>
-  <si>
-    <t>女性</t>
   </si>
   <si>
     <t>京都市</t>
@@ -90,9 +69,6 @@
   </si>
   <si>
     <t>https://www.mhlw.go.jp/stf/newpage_09239.html</t>
-  </si>
-  <si>
-    <t>男性</t>
   </si>
   <si>
     <t>1月24日　夕方より体調不良。
@@ -109,9 +85,6 @@
   </si>
   <si>
     <t>https://www.mhlw.go.jp/stf/newpage_09336.html</t>
-  </si>
-  <si>
-    <t>50代</t>
   </si>
   <si>
     <t>2月21日　発熱(夕刻。37.6度) 2月24日　病院を受診(この間，体温は37-38.3度を推移)
@@ -182,9 +155,6 @@
     <t>https://www.mhlw.go.jp/content/10906000/000604038.docx</t>
   </si>
   <si>
-    <t>30代</t>
-  </si>
-  <si>
     <t>大阪府（実家が乙訓保健所管内）</t>
   </si>
   <si>
@@ -201,9 +171,6 @@
     <t>https://www.pref.kyoto.jp/kentai/news/documents/200305-6.pdf</t>
   </si>
   <si>
-    <t>60代</t>
-  </si>
-  <si>
     <t>乙訓保健所管内在住</t>
   </si>
   <si>
@@ -217,9 +184,6 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200306-7.pdf</t>
-  </si>
-  <si>
-    <t>40代</t>
   </si>
   <si>
     <t>中丹管内</t>
@@ -284,9 +248,6 @@
     <t>https://www.mhlw.go.jp/content/10906000/000606015.pdf</t>
   </si>
   <si>
-    <t>70代</t>
-  </si>
-  <si>
     <t>2月19日(水) 消化器疾患により入院(8例目の患者の勤務病棟) 2月27日(木) レントゲン検査で肺炎所見なし
 3月7日(土) 体温37.6度、咳等呼吸器症状なし(8例目の陽性が判明) 3月9日(月) 検体採取
 3月10日(火) 午後、陽性が判明(現在入院中)
@@ -341,20 +302,6 @@
     <t>https://www.mhlw.go.jp/content/10906000/000607081.pdf</t>
   </si>
   <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="1">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>京都市</t>
     <rPh sb="0" eb="1">
       <t>キョウ</t>
@@ -396,14 +343,196 @@
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000266/266787/200312oshirase.pdf</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>年代・性別</t>
+    <rPh sb="3" eb="5">
+      <t>セイベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>発表日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ビ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>short_data</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-01-30T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-02-05T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-03T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-04T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-05T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-06T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-07T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-09T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-10T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-11T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-12T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20代女性</t>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20代男性</t>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50代女性</t>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50代男性</t>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>30代男性</t>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>60代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>40代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>60代男性</t>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>60代女性</t>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>30代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>70代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>60代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>住居地</t>
+    <rPh sb="0" eb="3">
+      <t>１０キョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="181" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -531,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,8 +694,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -882,555 +1014,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="19">
         <v>43860</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="18">
+      <c r="D2" s="5">
+        <v>43860</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="18">
         <v>43872</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="19">
         <v>43866</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5">
+        <v>43866</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="18">
+      <c r="J3" s="18">
         <v>43869</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="19">
         <v>43893</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
+      <c r="D4" s="5">
+        <v>43893</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="I4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="18">
         <v>43901</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="19">
         <v>43894</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
+      <c r="D5" s="5">
+        <v>43894</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="18">
+        <v>75</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="18">
         <v>43899</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="19">
         <v>43894</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5">
+        <v>43894</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19">
         <v>43895</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
+      <c r="D7" s="5">
+        <v>43895</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="17">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="17">
         <v>43904</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="19">
         <v>43896</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
+      <c r="D8" s="5">
+        <v>43896</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="19">
         <v>43897</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="D9" s="5">
+        <v>43897</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="19">
         <v>43899</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="5">
+        <v>43899</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="19">
         <v>43899</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="5">
+        <v>43899</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="11"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="19">
         <v>43899</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="D12" s="5">
+        <v>43899</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4">
         <v>8</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="19">
         <v>43899</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
+      <c r="D13" s="5">
+        <v>43899</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="17">
+        <v>82</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="17">
         <v>43903</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="19">
         <v>43900</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5">
+        <v>43900</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="409.6">
+    </row>
+    <row r="15" spans="1:11" ht="409.6">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="19">
         <v>43901</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
+      <c r="D15" s="5">
+        <v>43901</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>74</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="19">
         <v>43901</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="5">
+        <v>43901</v>
+      </c>
       <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
         <v>12</v>
       </c>
-      <c r="F16" s="4">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="395">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="395">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="19">
         <v>43902</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>63</v>
+      <c r="D17" s="5">
+        <v>43902</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="343">
+        <v>84</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="343">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="19">
         <v>43902</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="D18" s="5">
+        <v>43902</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="13">
         <v>15</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="16" t="s">
-        <v>70</v>
+      <c r="J18" s="11"/>
+      <c r="K18" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{A7235153-F297-A345-A972-8712BCA67207}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{1C40E035-E153-DB45-9573-8247864BEBD6}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{88727C46-D445-2540-8174-355D2C644F15}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{5A81C88D-C2B3-7948-B2C0-72A5CFC389D5}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{738099BE-FE85-6C4D-8531-A572144D59F4}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{2B941835-556A-6B4B-BAB2-EC49F4756282}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{1D128518-E0E8-6A44-9547-C57A65B1D48C}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{7E3799AD-88D3-BD44-BFD4-1E110871DDDC}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{25EF3597-1DF0-DD42-B405-1A572024067C}"/>
-    <hyperlink ref="J11" r:id="rId10" xr:uid="{0BD2668B-D896-3A4D-95C3-5C1102F40BB0}"/>
-    <hyperlink ref="J12" r:id="rId11" xr:uid="{ABEE1481-D568-C049-B920-18AA56747A47}"/>
-    <hyperlink ref="J13" r:id="rId12" xr:uid="{E77D1D4D-1E0E-7044-82B8-4DEC2BFB9988}"/>
-    <hyperlink ref="J14" r:id="rId13" xr:uid="{363AEA0F-ED39-BB41-AF55-87F4C5A7AA09}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{90398164-702E-954D-9EA7-33E499BB8DF3}"/>
-    <hyperlink ref="J16" r:id="rId15" xr:uid="{597679F4-60CE-814A-A028-D11C0A357B25}"/>
-    <hyperlink ref="J17" r:id="rId16" xr:uid="{334B7BEB-5060-4245-ABA7-62FDC6DF9F7E}"/>
-    <hyperlink ref="J18" r:id="rId17" xr:uid="{B46D8C5E-740F-6842-8A65-2727B0C19277}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{A7235153-F297-A345-A972-8712BCA67207}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{1C40E035-E153-DB45-9573-8247864BEBD6}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{88727C46-D445-2540-8174-355D2C644F15}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{5A81C88D-C2B3-7948-B2C0-72A5CFC389D5}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{738099BE-FE85-6C4D-8531-A572144D59F4}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{2B941835-556A-6B4B-BAB2-EC49F4756282}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{1D128518-E0E8-6A44-9547-C57A65B1D48C}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{7E3799AD-88D3-BD44-BFD4-1E110871DDDC}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{25EF3597-1DF0-DD42-B405-1A572024067C}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{0BD2668B-D896-3A4D-95C3-5C1102F40BB0}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{ABEE1481-D568-C049-B920-18AA56747A47}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{E77D1D4D-1E0E-7044-82B8-4DEC2BFB9988}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{363AEA0F-ED39-BB41-AF55-87F4C5A7AA09}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{90398164-702E-954D-9EA7-33E499BB8DF3}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{597679F4-60CE-814A-A028-D11C0A357B25}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{334B7BEB-5060-4245-ABA7-62FDC6DF9F7E}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{B46D8C5E-740F-6842-8A65-2727B0C19277}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D736D8F-F2AA-7242-A500-1ECA35D7557E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F987E0D-C914-3B43-A6C7-6EC611F95EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27380" windowHeight="23020" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1407,7 +1407,9 @@
         <v>36</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="17">
+        <v>43906</v>
+      </c>
       <c r="K12" s="9" t="s">
         <v>34</v>
       </c>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F987E0D-C914-3B43-A6C7-6EC611F95EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF5388C-171C-1549-B679-BF1E5C59F900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27380" windowHeight="23020" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="-540" yWindow="-21140" windowWidth="27380" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>関連</t>
   </si>
@@ -522,6 +522,57 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-17T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>30代男性</t>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>京都市</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月11日 近医受診，咽頭炎の診断 3月16日 発熱(39.2°C)，倦怠感
+         近医受診，胸部X線検査実施(肺炎像あり)
+         他の医療機関受診，入院
+   3月17日 検査結果陽性を確認</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000609270.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本人には流行地域への渡航歴なし。 濃厚接触者のうち1名(同居の母)が2月18日~27日までエジ プトに渡航し，2月21日~23日にナイル川クルーズ船ツアーに 参加。帰国後，下痢，咳症状等があったが，現在は軽快。PCR検査 結果は陰性</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月12日 7例目患者の濃厚接触者のため自宅待機
+   3月14日 咳症状
+~16日
+3月16日 ナイル川クルーズ船ツアーに参加していたことが判明 3月17日 医療機関受診，検査結果陽性を確認</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000609271.pdf</t>
+  </si>
+  <si>
+    <t>・勤務内容　週４回勤務　主に郵送請求事務で一時的に来庁者対応
+・最終通勤日　3月11日（2月28日から出勤）
+・通勤経路　市バス，市営地下鉄
+・濃厚接触者　同居家族（子）
+・暴露歴　2月18日〜27日までエジプトに渡航し，2月21日〜23日にナイル川クルーズセンターに参加</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -660,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +749,15 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1602,6 +1662,68 @@
       <c r="J18" s="11"/>
       <c r="K18" s="16" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="336">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="19">
+        <v>43907</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="378">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="19">
+        <v>43907</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="22">
+        <v>14</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1624,6 +1746,7 @@
     <hyperlink ref="K16" r:id="rId15" xr:uid="{597679F4-60CE-814A-A028-D11C0A357B25}"/>
     <hyperlink ref="K17" r:id="rId16" xr:uid="{334B7BEB-5060-4245-ABA7-62FDC6DF9F7E}"/>
     <hyperlink ref="K18" r:id="rId17" xr:uid="{B46D8C5E-740F-6842-8A65-2727B0C19277}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{FCF544DD-8875-8245-B713-B6A9EA6CAC49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF5388C-171C-1549-B679-BF1E5C59F900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E947D747-E034-034E-AACA-7232DAC30AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-540" yWindow="-21140" windowWidth="27380" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>関連</t>
   </si>
@@ -575,6 +575,66 @@
 ・暴露歴　2月18日〜27日までエジプトに渡航し，2月21日〜23日にナイル川クルーズセンターに参加</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>2020-03-18T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>70代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>15例目（京都市8例目）の園児の保護者</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>乙訓管内</t>
+  </si>
+  <si>
+    <t>3月10日 咳、全身倦怠感 
+3月17日　38.5°Cの発熱、嘔気、食欲不振のため医療機関に救急受診 肺炎診断、入院、検体採取
+3月18日 本日夕方、陽性が判明
+感染症指定医療機関へ入院予定</t>
+    <rPh sb="15" eb="16">
+      <t>ガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・基礎疾患の治療のため、2月7日に入院し、26日に退院 ・医療機関への往復は自家用車
+・医療機関以外の外出なし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200318-20.pdf</t>
+  </si>
+  <si>
+    <t>17, 15</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000609974.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月8日　勤務不要日　15例目（園児）が発症
+3月9日　出勤　・最終勤務日，以降自宅待機
+　　　　　　　・発症（嘔吐・頭痛）
+3月10日〜11日　休み　・3月11日８例目（園児）の陽性反応
+3月12日　休み　・17例目（園児のもう一人の保護者）が陽性反応
+　　　　　　　　・15例目（園児），および，17例目（園児のもう一人）の保護者が入院
+　　　　　　　　・当該保護者も検体採取，検査結果は陰性
+3月13日〜16日　休み　・3月14日：発症（咳・発熱36.9℃）
+3月17日　休み　・検体採取（発熱37.1℃）
+3月18日　休み　・検体採取（発熱36.8℃）</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +645,7 @@
     <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,6 +739,18 @@
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック Regular"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック Regular"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -711,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,14 +822,23 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1074,16 +1155,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="21"/>
+    <col min="2" max="2" width="26.5703125" style="21" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" style="21"/>
+    <col min="8" max="8" width="22" style="21" customWidth="1"/>
+    <col min="9" max="9" width="32" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1538,7 +1623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="409.6">
+    <row r="15" spans="1:11" ht="306">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1602,7 +1687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="395">
+    <row r="17" spans="1:11" ht="181">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1633,7 +1718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="343">
+    <row r="18" spans="1:11" ht="199">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1664,7 +1749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="336">
+    <row r="19" spans="1:11" ht="189">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1680,21 +1765,21 @@
       <c r="E19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="21" t="s">
         <v>89</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="378">
+    <row r="20" spans="1:11" ht="189">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1710,20 +1795,78 @@
       <c r="E20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="21" t="s">
         <v>89</v>
       </c>
       <c r="G20" s="22">
         <v>14</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="21" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="189">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="19">
+        <v>43908</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43908</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="409.6">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="19">
+        <v>43908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43908</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1747,6 +1890,7 @@
     <hyperlink ref="K17" r:id="rId16" xr:uid="{334B7BEB-5060-4245-ABA7-62FDC6DF9F7E}"/>
     <hyperlink ref="K18" r:id="rId17" xr:uid="{B46D8C5E-740F-6842-8A65-2727B0C19277}"/>
     <hyperlink ref="K19" r:id="rId18" xr:uid="{FCF544DD-8875-8245-B713-B6A9EA6CAC49}"/>
+    <hyperlink ref="K22" r:id="rId19" xr:uid="{157EA8EE-17DE-8347-9D4E-54B044CB3724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E947D747-E034-034E-AACA-7232DAC30AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE5641-4963-4E42-81AC-18491FE78CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-540" yWindow="-21140" windowWidth="27380" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1459,7 +1459,9 @@
       <c r="I9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="17">
+        <v>43910</v>
+      </c>
       <c r="K9" s="9" t="s">
         <v>32</v>
       </c>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE5641-4963-4E42-81AC-18491FE78CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9157CE5-516C-F548-ACC1-A162A1BF763F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-540" yWindow="-21140" windowWidth="27380" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
   <si>
     <t>関連</t>
   </si>
@@ -633,6 +633,53 @@
 3月13日〜16日　休み　・3月14日：発症（咳・発熱36.9℃）
 3月17日　休み　・検体採取（発熱37.1℃）
 3月18日　休み　・検体採取（発熱36.8℃）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/191085</t>
+  </si>
+  <si>
+    <t>2020-03-20T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>70代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/191315</t>
+  </si>
+  <si>
+    <t>2020-03-21T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月16日　オランダから帰国</t>
+    <rPh sb="1" eb="2">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キコク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1155,15 +1202,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="10.7109375" style="22"/>
     <col min="2" max="2" width="26.5703125" style="21" customWidth="1"/>
     <col min="3" max="7" width="10.7109375" style="21"/>
     <col min="8" max="8" width="22" style="21" customWidth="1"/>
@@ -1869,6 +1916,55 @@
       </c>
       <c r="K22" s="20" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="19">
+        <v>43910</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43910</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="19">
+        <v>43911</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43911</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1893,6 +1989,8 @@
     <hyperlink ref="K18" r:id="rId17" xr:uid="{B46D8C5E-740F-6842-8A65-2727B0C19277}"/>
     <hyperlink ref="K19" r:id="rId18" xr:uid="{FCF544DD-8875-8245-B713-B6A9EA6CAC49}"/>
     <hyperlink ref="K22" r:id="rId19" xr:uid="{157EA8EE-17DE-8347-9D4E-54B044CB3724}"/>
+    <hyperlink ref="K23" r:id="rId20" xr:uid="{3685D0A3-736F-8542-BD16-8047E05173B2}"/>
+    <hyperlink ref="K24" r:id="rId21" xr:uid="{C7F8BB15-B863-3D49-9112-ABE45745F468}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9157CE5-516C-F548-ACC1-A162A1BF763F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13ABE9-EC91-5945-B56D-BC7A3C27F8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-540" yWindow="-21140" windowWidth="27380" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>関連</t>
   </si>
@@ -49,9 +49,6 @@
       <t>b</t>
     </rPh>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
   <si>
     <t>京都市</t>
@@ -680,6 +677,14 @@
     <rPh sb="12" eb="14">
       <t>キコク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>URL2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>URL</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1202,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1218,24 +1223,24 @@
     <col min="10" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1250,15 +1255,18 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>113</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="19">
         <v>43860</v>
@@ -1267,31 +1275,31 @@
         <v>43860</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="J2" s="18">
         <v>43872</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="19">
         <v>43866</v>
@@ -1300,31 +1308,31 @@
         <v>43866</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="J3" s="18">
         <v>43869</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="19">
         <v>43893</v>
@@ -1333,31 +1341,31 @@
         <v>43893</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="J4" s="18">
         <v>43901</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="19">
         <v>43894</v>
@@ -1366,31 +1374,31 @@
         <v>43894</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="J5" s="18">
         <v>43899</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="19">
         <v>43894</v>
@@ -1399,29 +1407,29 @@
         <v>43894</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="19">
         <v>43895</v>
@@ -1430,31 +1438,31 @@
         <v>43895</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="J7" s="17">
         <v>43904</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="19">
         <v>43896</v>
@@ -1463,29 +1471,29 @@
         <v>43896</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="19">
         <v>43897</v>
@@ -1494,31 +1502,31 @@
         <v>43897</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="J9" s="17">
         <v>43910</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="19">
         <v>43899</v>
@@ -1527,29 +1535,29 @@
         <v>43899</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4">
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="17"/>
       <c r="K10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="19">
         <v>43899</v>
@@ -1558,29 +1566,29 @@
         <v>43899</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4">
         <v>8</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="17"/>
       <c r="K11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="19">
         <v>43899</v>
@@ -1589,31 +1597,31 @@
         <v>43899</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4">
         <v>8</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="17">
         <v>43906</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="19">
         <v>43899</v>
@@ -1622,31 +1630,31 @@
         <v>43899</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="J13" s="17">
         <v>43903</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="19">
         <v>43900</v>
@@ -1655,29 +1663,29 @@
         <v>43900</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4">
         <v>8</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="17"/>
       <c r="K14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="306">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="306">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="19">
         <v>43901</v>
@@ -1686,29 +1694,29 @@
         <v>43901</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="19">
         <v>43901</v>
@@ -1717,31 +1725,31 @@
         <v>43901</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="4">
         <v>12</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="181">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="181">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="19">
         <v>43902</v>
@@ -1750,29 +1758,29 @@
         <v>43902</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="199">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="199">
       <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="19">
         <v>43902</v>
@@ -1781,29 +1789,29 @@
         <v>43902</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="13">
         <v>15</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="189">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="189">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="19">
         <v>43907</v>
@@ -1812,28 +1820,28 @@
         <v>43907</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="189">
+    </row>
+    <row r="20" spans="1:12" ht="189">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="19">
         <v>43907</v>
@@ -1842,30 +1850,30 @@
         <v>43907</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="22">
         <v>14</v>
       </c>
       <c r="H20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="189">
+    </row>
+    <row r="21" spans="1:12" ht="189">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="19">
         <v>43908</v>
@@ -1874,27 +1882,27 @@
         <v>43908</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="K21" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="409.6">
+    </row>
+    <row r="22" spans="1:12" ht="409.6">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="19">
         <v>43908</v>
@@ -1903,27 +1911,27 @@
         <v>43908</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="19">
         <v>43910</v>
@@ -1932,21 +1940,22 @@
         <v>43910</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>88</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="22">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="19">
         <v>43911</v>
@@ -1955,16 +1964,17 @@
         <v>43911</v>
       </c>
       <c r="E24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>109</v>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1989,8 +1999,8 @@
     <hyperlink ref="K18" r:id="rId17" xr:uid="{B46D8C5E-740F-6842-8A65-2727B0C19277}"/>
     <hyperlink ref="K19" r:id="rId18" xr:uid="{FCF544DD-8875-8245-B713-B6A9EA6CAC49}"/>
     <hyperlink ref="K22" r:id="rId19" xr:uid="{157EA8EE-17DE-8347-9D4E-54B044CB3724}"/>
-    <hyperlink ref="K23" r:id="rId20" xr:uid="{3685D0A3-736F-8542-BD16-8047E05173B2}"/>
-    <hyperlink ref="K24" r:id="rId21" xr:uid="{C7F8BB15-B863-3D49-9112-ABE45745F468}"/>
+    <hyperlink ref="L23" r:id="rId20" xr:uid="{7B89D39D-B3A3-BF40-9C1A-4B1FFB392F59}"/>
+    <hyperlink ref="L24" r:id="rId21" xr:uid="{ACC4A30A-1549-5148-8A3E-26FB59636611}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13ABE9-EC91-5945-B56D-BC7A3C27F8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5AE969-0A25-B848-BA1A-BC35C737E1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-540" yWindow="-21140" windowWidth="27380" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="13340" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>関連</t>
   </si>
@@ -686,6 +686,12 @@
   <si>
     <t>URL</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000610745.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000610680.pdf</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1216,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1945,7 +1951,9 @@
       <c r="F23" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="L23" s="20" t="s">
         <v>105</v>
       </c>
@@ -1972,7 +1980,9 @@
       <c r="H24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="L24" s="20" t="s">
         <v>108</v>
       </c>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5AE969-0A25-B848-BA1A-BC35C737E1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A73153-FFF7-3F41-9780-D8AE730F7641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="13240" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
   <si>
     <t>関連</t>
   </si>
@@ -692,6 +692,36 @@
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000610680.pdf</t>
+  </si>
+  <si>
+    <t>2020-03-22T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月17日に発熱，3月19日に医療機関受診，肺炎と診断</t>
+    <rPh sb="6" eb="8">
+      <t>ハツネテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイエンテ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/191514</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1985,6 +2015,32 @@
       </c>
       <c r="L24" s="20" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="19">
+        <v>43912</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43912</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A73153-FFF7-3F41-9780-D8AE730F7641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8542CC-B59C-8C43-BA41-FAEA95C68097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="1560" yWindow="-18820" windowWidth="40960" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>関連</t>
   </si>
@@ -721,7 +721,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267131/200322oshirase(15).pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>https://www.kyoto-np.co.jp/articles/-/191514</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1246,7 +1251,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2039,8 +2044,11 @@
       <c r="H25" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>119</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2067,6 +2075,8 @@
     <hyperlink ref="K22" r:id="rId19" xr:uid="{157EA8EE-17DE-8347-9D4E-54B044CB3724}"/>
     <hyperlink ref="L23" r:id="rId20" xr:uid="{7B89D39D-B3A3-BF40-9C1A-4B1FFB392F59}"/>
     <hyperlink ref="L24" r:id="rId21" xr:uid="{ACC4A30A-1549-5148-8A3E-26FB59636611}"/>
+    <hyperlink ref="K25" r:id="rId22" xr:uid="{F6DF2248-D9B0-7946-957D-08E3A831B54C}"/>
+    <hyperlink ref="L25" r:id="rId23" xr:uid="{C208DAD8-C357-A74C-9216-F4A909597FE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8542CC-B59C-8C43-BA41-FAEA95C68097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39572943-89AA-EA47-9D6E-B3A8F039DB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-18820" windowWidth="40960" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="-1480" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>関連</t>
   </si>
@@ -726,6 +726,44 @@
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/191514</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-23T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>70代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月22日に発熱（39.０℃），医療機関で肺炎確認</t>
+    <rPh sb="6" eb="8">
+      <t>ハツネテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイエn</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/192876</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/stf/newpage_10399.html</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -876,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +969,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1905,6 +1946,9 @@
       <c r="I20" s="23" t="s">
         <v>94</v>
       </c>
+      <c r="J20" s="26">
+        <v>43912</v>
+      </c>
       <c r="K20" s="21" t="s">
         <v>93</v>
       </c>
@@ -2049,6 +2093,35 @@
       </c>
       <c r="L25" s="20" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="19">
+        <v>43913</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43913</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2077,6 +2150,8 @@
     <hyperlink ref="L24" r:id="rId21" xr:uid="{ACC4A30A-1549-5148-8A3E-26FB59636611}"/>
     <hyperlink ref="K25" r:id="rId22" xr:uid="{F6DF2248-D9B0-7946-957D-08E3A831B54C}"/>
     <hyperlink ref="L25" r:id="rId23" xr:uid="{C208DAD8-C357-A74C-9216-F4A909597FE9}"/>
+    <hyperlink ref="L26" r:id="rId24" xr:uid="{AE9884DE-312D-1A4D-826B-F6E67643C9DF}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{AD52196C-5010-2945-BF5F-FBD2419388C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39572943-89AA-EA47-9D6E-B3A8F039DB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31295B-4202-C445-B37C-8D4E408B1D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1480" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="9640" yWindow="460" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
   <si>
     <t>関連</t>
   </si>
@@ -764,6 +764,70 @@
   </si>
   <si>
     <t>https://www.mhlw.go.jp/stf/newpage_10399.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-24T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20代男性・フランス国籍</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/196468</t>
+  </si>
+  <si>
+    <t>3月21日　頭痛，悪寒．2月29日〜3月15日の期間，フランス，ルクセンブルグに滞在．3月25日に入院．</t>
+    <rPh sb="4" eb="5">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ズツウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">オカン </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キカn</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニュウイn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月19日に発熱，23日に医療機関にて肺炎が確認．外国人観光客を案内する業務を3月19日，20日，22日に行った．3月25日に入院．</t>
+    <rPh sb="6" eb="8">
+      <t>ハツネテゥ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイエn</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニn</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ガイコクジn</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オコナッタ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1289,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2037,7 +2101,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="42">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -2056,7 +2120,7 @@
       <c r="F24" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="23" t="s">
         <v>111</v>
       </c>
       <c r="K24" s="20" t="s">
@@ -2066,7 +2130,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="63">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -2085,7 +2149,7 @@
       <c r="F25" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="23" t="s">
         <v>118</v>
       </c>
       <c r="K25" s="20" t="s">
@@ -2095,7 +2159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" ht="63">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -2114,7 +2178,7 @@
       <c r="F26" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="23" t="s">
         <v>123</v>
       </c>
       <c r="K26" s="20" t="s">
@@ -2122,6 +2186,58 @@
       </c>
       <c r="L26" s="20" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="84">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="19">
+        <v>43914</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43914</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="105">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="19">
+        <v>43914</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43914</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31295B-4202-C445-B37C-8D4E408B1D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC6010B-A1E6-8B45-A383-13BC41308D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="460" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="133">
   <si>
     <t>関連</t>
   </si>
@@ -830,15 +830,22 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000612170.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000612169.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -978,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,21 +993,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1012,9 +1013,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
@@ -1032,11 +1031,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1355,18 +1377,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="22"/>
-    <col min="2" max="2" width="26.5703125" style="21" customWidth="1"/>
-    <col min="3" max="7" width="10.7109375" style="21"/>
-    <col min="8" max="8" width="22" style="21" customWidth="1"/>
-    <col min="9" max="9" width="32" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="10.7109375" style="16"/>
+    <col min="2" max="2" width="26.5703125" style="15" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" style="15"/>
+    <col min="6" max="6" width="10.7109375" style="17"/>
+    <col min="7" max="7" width="10.7109375" style="15"/>
+    <col min="8" max="8" width="22" style="15" customWidth="1"/>
+    <col min="9" max="9" width="32" style="17" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1385,7 +1410,7 @@
       <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="25" t="s">
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1394,7 +1419,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1407,836 +1432,853 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" ht="90">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="13">
         <v>43860</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>43860</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="19">
         <v>43872</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4">
+    <row r="3" spans="1:12" ht="90">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="13">
         <v>43866</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>43866</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="19">
         <v>43869</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4">
+    <row r="4" spans="1:12" ht="273">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <v>43893</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>43893</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="19">
         <v>43901</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12" ht="126">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <v>43894</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>43894</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="19">
         <v>43899</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" ht="252">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <v>43894</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>43894</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="20">
+        <v>43914</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12" ht="54">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <v>43895</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>43895</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="20">
         <v>43904</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12" ht="54">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <v>43896</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>43896</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="20"/>
+      <c r="K8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12" ht="144">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="13">
         <v>43897</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>43897</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="20">
         <v>43910</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <v>43899</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>43899</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <v>43899</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>43899</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>8</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="9" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>43899</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>43899</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>8</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="17">
+      <c r="I12" s="10"/>
+      <c r="J12" s="20">
         <v>43906</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4">
+    <row r="13" spans="1:12" ht="126">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="13">
         <v>43899</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>43899</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="20">
         <v>43903</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>43900</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>43900</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>8</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="9" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="306">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="13">
         <v>43901</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>43901</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="4">
+    <row r="16" spans="1:12" ht="108">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <v>43901</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>43901</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>12</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="9" t="s">
+      <c r="J16" s="20"/>
+      <c r="K16" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="181">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="13">
         <v>43902</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>43902</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="20"/>
+      <c r="K17" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="199">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="13">
         <v>43902</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>43902</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>15</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="189">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="13">
         <v>43907</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>43907</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="21"/>
+      <c r="K19" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="189">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="13">
         <v>43907</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>43907</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="16">
         <v>14</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="21">
         <v>43912</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="189">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="13">
         <v>43908</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>43908</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="21"/>
+      <c r="K21" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="409.6">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="13">
         <v>43908</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>43908</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="J22" s="21"/>
+      <c r="K22" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="22">
+    <row r="23" spans="1:12" ht="21">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <v>43910</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>43910</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="J23" s="21"/>
+      <c r="K23" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="42">
-      <c r="A24" s="22">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="13">
         <v>43911</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>43911</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="63">
-      <c r="A25" s="22">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="13">
         <v>43912</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>43912</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="J25" s="21"/>
+      <c r="K25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63">
-      <c r="A26" s="22">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="13">
         <v>43913</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>43913</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="J26" s="21"/>
+      <c r="K26" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="84">
-      <c r="A27" s="22">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="13">
         <v>43914</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>43914</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="J27" s="21"/>
+      <c r="K27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="105">
-      <c r="A28" s="22">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="13">
         <v>43914</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>43914</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="J28" s="21"/>
+      <c r="K28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2268,6 +2310,8 @@
     <hyperlink ref="L25" r:id="rId23" xr:uid="{C208DAD8-C357-A74C-9216-F4A909597FE9}"/>
     <hyperlink ref="L26" r:id="rId24" xr:uid="{AE9884DE-312D-1A4D-826B-F6E67643C9DF}"/>
     <hyperlink ref="K26" r:id="rId25" xr:uid="{AD52196C-5010-2945-BF5F-FBD2419388C2}"/>
+    <hyperlink ref="K28" r:id="rId26" xr:uid="{79E15565-B783-8C4B-B3BE-7804E239100B}"/>
+    <hyperlink ref="K27" r:id="rId27" xr:uid="{9E915317-1DCD-2C44-8C53-E296A1481BDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC6010B-A1E6-8B45-A383-13BC41308D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AA1A4-F902-DE45-987B-D0B8FBEB55E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="460" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1656,7 +1656,9 @@
       <c r="I8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="20">
+        <v>43915</v>
+      </c>
       <c r="K8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1751,7 +1753,9 @@
         <v>34</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="20">
+        <v>43915</v>
+      </c>
       <c r="K11" s="7" t="s">
         <v>33</v>
       </c>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AA1A4-F902-DE45-987B-D0B8FBEB55E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE3C73-B6D6-194B-9E93-08B31E10F875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="460" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
   <si>
     <t>関連</t>
   </si>
@@ -836,6 +836,63 @@
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000612169.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-25T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>乗務員</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウムイn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/197694</t>
+  </si>
+  <si>
+    <t>飲食店従業員　軽症</t>
+    <rPh sb="0" eb="3">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>陽性患者の家族　軽症</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>陽性患者の家族　軽症</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/197694</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1375,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2284,6 +2341,104 @@
       </c>
       <c r="L28" s="15" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="13">
+        <v>43915</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43915</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="13">
+        <v>43915</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43915</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="13">
+        <v>43915</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43915</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="21">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="13">
+        <v>43915</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43915</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2316,6 +2471,7 @@
     <hyperlink ref="K26" r:id="rId25" xr:uid="{AD52196C-5010-2945-BF5F-FBD2419388C2}"/>
     <hyperlink ref="K28" r:id="rId26" xr:uid="{79E15565-B783-8C4B-B3BE-7804E239100B}"/>
     <hyperlink ref="K27" r:id="rId27" xr:uid="{9E915317-1DCD-2C44-8C53-E296A1481BDA}"/>
+    <hyperlink ref="L29" r:id="rId28" xr:uid="{91E14EB9-CD9F-3F48-98C9-4113ADB6DB43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE3C73-B6D6-194B-9E93-08B31E10F875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED4697-5072-BA4C-8295-FAA7E56E9EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
   <si>
     <t>関連</t>
   </si>
@@ -843,13 +843,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>乗務員</t>
-    <rPh sb="0" eb="3">
-      <t>ジョウムイn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>https://www.kyoto-np.co.jp/articles/-/197694</t>
   </si>
   <si>
@@ -866,33 +859,77 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>陽性患者の家族　軽症</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウセイ</t>
+    <t>https://www.kyoto-np.co.jp/articles/-/197694</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000613041.pdf</t>
+  </si>
+  <si>
+    <t>ハイヤー乗務員．3月25日入院</t>
+    <rPh sb="4" eb="7">
+      <t>ジョウムイn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウイn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000613042.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000613043.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000613044.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　50代女性</t>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>京都府２６例目（京都市17例目）と共にフランス，ルクセンブルクに渡航</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>陽性患者の家族　軽症</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウセイ</t>
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">トモニ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>京都府２７例目（京都市18例目）の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウテ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>https://www.kyoto-np.co.jp/articles/-/197694</t>
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セッショク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1434,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2363,10 +2400,13 @@
         <v>88</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21">
@@ -2389,10 +2429,13 @@
         <v>88</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21">
@@ -2408,14 +2451,24 @@
       <c r="D31" s="4">
         <v>43915</v>
       </c>
+      <c r="E31" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="F31" s="17" t="s">
         <v>88</v>
       </c>
+      <c r="G31" s="15">
+        <v>26</v>
+      </c>
       <c r="H31" s="15" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="K31" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21">
@@ -2431,14 +2484,24 @@
       <c r="D32" s="4">
         <v>43915</v>
       </c>
+      <c r="E32" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="F32" s="17" t="s">
         <v>88</v>
       </c>
+      <c r="G32" s="15">
+        <v>27</v>
+      </c>
       <c r="H32" s="15" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="K32" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2472,6 +2535,9 @@
     <hyperlink ref="K28" r:id="rId26" xr:uid="{79E15565-B783-8C4B-B3BE-7804E239100B}"/>
     <hyperlink ref="K27" r:id="rId27" xr:uid="{9E915317-1DCD-2C44-8C53-E296A1481BDA}"/>
     <hyperlink ref="L29" r:id="rId28" xr:uid="{91E14EB9-CD9F-3F48-98C9-4113ADB6DB43}"/>
+    <hyperlink ref="K30" r:id="rId29" xr:uid="{6CE5015F-883A-DF48-9CAC-C9181FE58411}"/>
+    <hyperlink ref="K31" r:id="rId30" xr:uid="{1EEC90F7-7D4A-0344-9D7A-7822CFDCEA08}"/>
+    <hyperlink ref="K32" r:id="rId31" xr:uid="{10B7CC18-3F5F-5E4B-BFD2-5FCDD739CC13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED4697-5072-BA4C-8295-FAA7E56E9EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF48DD-72D0-1B46-9C3D-85E166750775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
   <si>
     <t>関連</t>
   </si>
@@ -168,9 +168,6 @@
     <t>https://www.pref.kyoto.jp/kentai/news/documents/200305-6.pdf</t>
   </si>
   <si>
-    <t>乙訓保健所管内在住</t>
-  </si>
-  <si>
     <t>3月4日(水) 発熱(38°C)、咳症状で医療機関受診
 3月5日(木) 抗生剤処方 府内6例目の濃厚接触者として受診調整
 3月6日(金) 夕方、陽性が判明、症状軽快(発熱なし)</t>
@@ -932,14 +929,80 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>2020-03-26T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>30代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>乙訓保健所管内</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月20日に海外留学から帰国．3月24日発熱，3月25日帰国者・接触者相談センターに相談，3月26日に陽性判明</t>
+    <rPh sb="1" eb="2">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キコク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハツネ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>キコクシャ・セ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウダn</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウダn</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハンメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200326-32.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/200361</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1079,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,6 +1216,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1490,22 +1556,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1520,10 +1586,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90">
@@ -1531,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="13">
         <v>43860</v>
@@ -1540,7 +1606,7 @@
         <v>43860</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>4</v>
@@ -1564,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="13">
         <v>43866</v>
@@ -1573,7 +1639,7 @@
         <v>43866</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>4</v>
@@ -1597,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="13">
         <v>43893</v>
@@ -1606,7 +1672,7 @@
         <v>43893</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>4</v>
@@ -1630,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="13">
         <v>43894</v>
@@ -1639,7 +1705,7 @@
         <v>43894</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>4</v>
@@ -1663,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13">
         <v>43894</v>
@@ -1672,7 +1738,7 @@
         <v>43894</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>4</v>
@@ -1696,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="13">
         <v>43895</v>
@@ -1705,7 +1771,7 @@
         <v>43895</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>20</v>
@@ -1729,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="13">
         <v>43896</v>
@@ -1738,23 +1804,23 @@
         <v>43896</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="J8" s="20">
         <v>43915</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="144">
@@ -1762,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="13">
         <v>43897</v>
@@ -1771,23 +1837,23 @@
         <v>43897</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>30</v>
       </c>
       <c r="J9" s="20">
         <v>43910</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1795,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="13">
         <v>43899</v>
@@ -1804,21 +1870,21 @@
         <v>43899</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3">
         <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="20"/>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1826,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13">
         <v>43899</v>
@@ -1835,23 +1901,23 @@
         <v>43899</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3">
         <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="20">
         <v>43915</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1859,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="13">
         <v>43899</v>
@@ -1868,23 +1934,23 @@
         <v>43899</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="3">
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="20">
         <v>43906</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="126">
@@ -1892,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="13">
         <v>43899</v>
@@ -1901,23 +1967,23 @@
         <v>43899</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="J13" s="20">
         <v>43903</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1925,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="13">
         <v>43900</v>
@@ -1934,21 +2000,23 @@
         <v>43900</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="3">
         <v>8</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="20">
+        <v>43916</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="306">
@@ -1956,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="13">
         <v>43901</v>
@@ -1965,21 +2033,21 @@
         <v>43901</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="108">
@@ -1987,7 +2055,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="13">
         <v>43901</v>
@@ -1996,7 +2064,7 @@
         <v>43901</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>4</v>
@@ -2005,14 +2073,14 @@
         <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="181">
@@ -2020,7 +2088,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="13">
         <v>43902</v>
@@ -2029,21 +2097,21 @@
         <v>43902</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="199">
@@ -2051,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="13">
         <v>43902</v>
@@ -2060,21 +2128,21 @@
         <v>43902</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="9">
         <v>15</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="20"/>
       <c r="K18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="189">
@@ -2082,7 +2150,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="13">
         <v>43907</v>
@@ -2091,21 +2159,21 @@
         <v>43907</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="189">
@@ -2113,7 +2181,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="13">
         <v>43907</v>
@@ -2122,25 +2190,25 @@
         <v>43907</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="16">
         <v>14</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="21">
         <v>43912</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="189">
@@ -2148,7 +2216,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="13">
         <v>43908</v>
@@ -2157,20 +2225,20 @@
         <v>43908</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="409.6">
@@ -2178,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="13">
         <v>43908</v>
@@ -2187,20 +2255,20 @@
         <v>43908</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21">
@@ -2208,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="13">
         <v>43910</v>
@@ -2217,17 +2285,17 @@
         <v>43910</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="42">
@@ -2235,7 +2303,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="13">
         <v>43911</v>
@@ -2244,20 +2312,20 @@
         <v>43911</v>
       </c>
       <c r="E24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="63">
@@ -2265,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="13">
         <v>43912</v>
@@ -2274,20 +2342,20 @@
         <v>43912</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63">
@@ -2295,7 +2363,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="13">
         <v>43913</v>
@@ -2304,20 +2372,20 @@
         <v>43913</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="84">
@@ -2325,7 +2393,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="13">
         <v>43914</v>
@@ -2334,20 +2402,20 @@
         <v>43914</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="105">
@@ -2355,7 +2423,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="13">
         <v>43914</v>
@@ -2364,20 +2432,20 @@
         <v>43914</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21">
@@ -2385,7 +2453,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="13">
         <v>43915</v>
@@ -2394,19 +2462,19 @@
         <v>43915</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21">
@@ -2414,7 +2482,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="13">
         <v>43915</v>
@@ -2423,19 +2491,19 @@
         <v>43915</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21">
@@ -2443,7 +2511,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="13">
         <v>43915</v>
@@ -2452,23 +2520,23 @@
         <v>43915</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="15">
         <v>26</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I31" s="15"/>
       <c r="K31" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21">
@@ -2476,7 +2544,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="13">
         <v>43915</v>
@@ -2485,23 +2553,52 @@
         <v>43915</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="15">
         <v>27</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I32" s="15"/>
       <c r="K32" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="105">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="13">
+        <v>43916</v>
+      </c>
+      <c r="D33" s="30">
+        <v>43916</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2538,6 +2635,7 @@
     <hyperlink ref="K30" r:id="rId29" xr:uid="{6CE5015F-883A-DF48-9CAC-C9181FE58411}"/>
     <hyperlink ref="K31" r:id="rId30" xr:uid="{1EEC90F7-7D4A-0344-9D7A-7822CFDCEA08}"/>
     <hyperlink ref="K32" r:id="rId31" xr:uid="{10B7CC18-3F5F-5E4B-BFD2-5FCDD739CC13}"/>
+    <hyperlink ref="K33" r:id="rId32" xr:uid="{289D44B0-32A2-7647-A339-7EABCCFE1FEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF48DD-72D0-1B46-9C3D-85E166750775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D19A99-D828-2942-8F90-1E5AECEB5CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>関連</t>
   </si>
@@ -993,6 +993,46 @@
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/200361</t>
+  </si>
+  <si>
+    <t>20代女性・外国籍</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガイコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>京都府２３例目（京都市14例目）とともに海外出張</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267473/200326oshirase(23).pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/200839</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267471/200326oshirase(24).pdf</t>
+  </si>
+  <si>
+    <t>3月13日から発熱症状</t>
+    <rPh sb="7" eb="11">
+      <t>ハツネテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1535,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2599,6 +2639,67 @@
       </c>
       <c r="L33" s="15" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="13">
+        <v>43916</v>
+      </c>
+      <c r="D34" s="30">
+        <v>43916</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="15">
+        <v>23</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="13">
+        <v>43916</v>
+      </c>
+      <c r="D35" s="30">
+        <v>43916</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2636,6 +2737,7 @@
     <hyperlink ref="K31" r:id="rId30" xr:uid="{1EEC90F7-7D4A-0344-9D7A-7822CFDCEA08}"/>
     <hyperlink ref="K32" r:id="rId31" xr:uid="{10B7CC18-3F5F-5E4B-BFD2-5FCDD739CC13}"/>
     <hyperlink ref="K33" r:id="rId32" xr:uid="{289D44B0-32A2-7647-A339-7EABCCFE1FEF}"/>
+    <hyperlink ref="K34" r:id="rId33" xr:uid="{65EEB4BB-76B6-0846-B5CF-040B7EDB4AF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D19A99-D828-2942-8F90-1E5AECEB5CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F3ECDF-05FB-4F4E-874B-63C0828EF99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>関連</t>
   </si>
@@ -1031,6 +1031,58 @@
     <t>3月13日から発熱症状</t>
     <rPh sb="7" eb="11">
       <t>ハツネテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-27T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>40代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大阪府（実家が山城北保健所管内）</t>
+    <rPh sb="0" eb="1">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>（ジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200327-35.pdf</t>
+  </si>
+  <si>
+    <t>3月21日から左耳痛あり，腫脹あり．23日，24日は実家から通勤</t>
+    <rPh sb="0" eb="1">
+      <t>３ガツ２1</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イタミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュチョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツウキn</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1575,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2700,6 +2752,32 @@
       </c>
       <c r="L35" s="15" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="84">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="13">
+        <v>43917</v>
+      </c>
+      <c r="D36" s="30">
+        <v>43917</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F3ECDF-05FB-4F4E-874B-63C0828EF99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7B2E7-EDA3-0740-A3C7-8D5D9E4B6B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2472,7 +2472,9 @@
       <c r="H26" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="21">
+        <v>43916</v>
+      </c>
       <c r="K26" s="14" t="s">
         <v>124</v>
       </c>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7B2E7-EDA3-0740-A3C7-8D5D9E4B6B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0ED3EA-A8EB-F24E-85AB-F2AC6944A721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="166">
   <si>
     <t>関連</t>
   </si>
@@ -1085,6 +1085,37 @@
       <t>ツウキn</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-28T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50代女性</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>30代女性</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月21日に，家族で，イギリスから帰国</t>
+    <rPh sb="7" eb="9">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/203281</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,9 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1262,9 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -1309,8 +1334,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1627,23 +1661,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="16"/>
-    <col min="2" max="2" width="26.5703125" style="15" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" style="15"/>
-    <col min="6" max="6" width="10.7109375" style="17"/>
-    <col min="7" max="7" width="10.7109375" style="15"/>
-    <col min="8" max="8" width="22" style="15" customWidth="1"/>
-    <col min="9" max="9" width="32" style="17" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="15"/>
+    <col min="1" max="1" width="10.7109375" style="14"/>
+    <col min="2" max="2" width="26.5703125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="14"/>
+    <col min="5" max="5" width="10.7109375" style="13"/>
+    <col min="6" max="6" width="10.7109375" style="15"/>
+    <col min="7" max="7" width="10.7109375" style="13"/>
+    <col min="8" max="8" width="22" style="13" customWidth="1"/>
+    <col min="9" max="9" width="32" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1653,16 +1688,16 @@
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1671,7 +1706,7 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1691,29 +1726,29 @@
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="29">
         <v>43860</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="30">
         <v>43860</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="17">
         <v>43872</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1724,29 +1759,29 @@
       <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="29">
         <v>43866</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="30">
         <v>43866</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>43869</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1757,29 +1792,29 @@
       <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="29">
         <v>43893</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="30">
         <v>43893</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>43901</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1790,29 +1825,29 @@
       <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="29">
         <v>43894</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="30">
         <v>43894</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>43899</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1823,29 +1858,29 @@
       <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="29">
         <v>43894</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="30">
         <v>43894</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>43914</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1856,29 +1891,29 @@
       <c r="B7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="29">
         <v>43895</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="30">
         <v>43895</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>43904</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1889,29 +1924,29 @@
       <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="29">
         <v>43896</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="30">
         <v>43896</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>146</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>43915</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1922,29 +1957,29 @@
       <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="29">
         <v>43897</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="30">
         <v>43897</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>43910</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1955,27 +1990,27 @@
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="29">
         <v>43899</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="30">
         <v>43899</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="7" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1986,29 +2021,29 @@
       <c r="B11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="29">
         <v>43899</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="30">
         <v>43899</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="3">
         <v>8</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="20">
+      <c r="I11" s="9"/>
+      <c r="J11" s="18">
         <v>43915</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2019,29 +2054,29 @@
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="29">
         <v>43899</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="30">
         <v>43899</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="3">
         <v>8</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="20">
+      <c r="I12" s="9"/>
+      <c r="J12" s="18">
         <v>43906</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2052,29 +2087,29 @@
       <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="29">
         <v>43899</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="30">
         <v>43899</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <v>43903</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2085,29 +2120,29 @@
       <c r="B14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="29">
         <v>43900</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="30">
         <v>43900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="3">
         <v>8</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="20">
+      <c r="I14" s="9"/>
+      <c r="J14" s="18">
         <v>43916</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2118,27 +2153,27 @@
       <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="29">
         <v>43901</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="30">
         <v>43901</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="7" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2149,29 +2184,29 @@
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="29">
         <v>43901</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="30">
         <v>43901</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="3">
         <v>12</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="7" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2182,58 +2217,58 @@
       <c r="B17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="29">
         <v>43902</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="30">
         <v>43902</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="199">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="29">
         <v>43902</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="30">
         <v>43902</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>15</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="12" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2244,27 +2279,27 @@
       <c r="B19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="29">
         <v>43907</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="30">
         <v>43907</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="18" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2275,31 +2310,31 @@
       <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="29">
         <v>43907</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="30">
         <v>43907</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="14">
         <v>14</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="19">
         <v>43912</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2310,26 +2345,26 @@
       <c r="B21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="29">
         <v>43908</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="30">
         <v>43908</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="15" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2340,446 +2375,495 @@
       <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="29">
         <v>43908</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="30">
         <v>43908</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="14" t="s">
+      <c r="J22" s="19"/>
+      <c r="K22" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="29">
         <v>43910</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="30">
         <v>43910</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="14" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="42">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="29">
         <v>43911</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="30">
         <v>43911</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="14" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="63">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="29">
         <v>43912</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="30">
         <v>43912</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="14" t="s">
+      <c r="J25" s="19"/>
+      <c r="K25" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="29">
         <v>43913</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="30">
         <v>43913</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="19">
         <v>43916</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="84">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="29">
         <v>43914</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="30">
         <v>43914</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="14" t="s">
+      <c r="J27" s="19"/>
+      <c r="K27" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="105">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="29">
         <v>43914</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="30">
         <v>43914</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="14" t="s">
+      <c r="J28" s="19"/>
+      <c r="K28" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="29">
         <v>43915</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="30">
         <v>43915</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="29">
         <v>43915</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="30">
         <v>43915</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="29">
         <v>43915</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="30">
         <v>43915</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <v>26</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="K31" s="14" t="s">
+      <c r="I31" s="13"/>
+      <c r="K31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="29">
         <v>43915</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="30">
         <v>43915</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <v>27</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="K32" s="14" t="s">
+      <c r="I32" s="13"/>
+      <c r="K32" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="105">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="29">
         <v>43916</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="31">
         <v>43916</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="29">
         <v>43916</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="31">
         <v>43916</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <v>23</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="21">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="29">
         <v>43916</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="31">
         <v>43916</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="84">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="29">
         <v>43917</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="31">
         <v>43917</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="13" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="29">
+        <v>43918</v>
+      </c>
+      <c r="D37" s="31">
+        <v>43918</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="29">
+        <v>43918</v>
+      </c>
+      <c r="D38" s="31">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0ED3EA-A8EB-F24E-85AB-F2AC6944A721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1624B4AC-CFF7-644A-871A-0C85E9B6175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="980" windowWidth="27520" windowHeight="21400" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="-200" yWindow="460" windowWidth="22620" windowHeight="22740" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>関連</t>
   </si>
@@ -1117,6 +1117,99 @@
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203281</t>
   </si>
+  <si>
+    <t>20代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>40代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>山城北保健所管内</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">キタ </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホケンジヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンナイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月22日　鼻づまり，嗅覚・味覚異常．3月24日咳，痰，頭痛あり．3月27日友人が陽性と分かったので相談</t>
+    <rPh sb="6" eb="7">
+      <t>ハナヅマリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キュウカク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ズツウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>セキ、</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ズツウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ユウジn</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ワカッタ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ソウダn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>京都府35例目の母親</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受診医療機関の看護師．現在は症状なし</t>
+    <rPh sb="0" eb="6">
+      <t>ジュシn</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウジヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200328-38-39-40.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -1127,7 +1220,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1233,6 +1326,13 @@
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1265,7 +1365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1445,9 @@
     </xf>
     <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1661,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2417,7 +2520,9 @@
       <c r="F23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="19">
+        <v>43917</v>
+      </c>
       <c r="K23" s="12" t="s">
         <v>114</v>
       </c>
@@ -2864,6 +2969,90 @@
       </c>
       <c r="L38" s="13" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="29">
+        <v>43918</v>
+      </c>
+      <c r="D39" s="31">
+        <v>43918</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="29">
+        <v>43918</v>
+      </c>
+      <c r="D40" s="31">
+        <v>43918</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="13">
+        <v>35</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="29">
+        <v>43918</v>
+      </c>
+      <c r="D41" s="31">
+        <v>43918</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="13">
+        <v>35</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1624B4AC-CFF7-644A-871A-0C85E9B6175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70D4A4-916A-F94E-806A-804EB9F5A2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="460" windowWidth="22620" windowHeight="22740" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="22640" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="183">
   <si>
     <t>関連</t>
   </si>
@@ -1209,6 +1209,61 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200328-38-39-40.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267632/200328oshirase(25).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267633/200328oshirase(26).pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月19日より発熱</t>
+    <rPh sb="0" eb="1">
+      <t>３ガツ1</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハツネテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/203415</t>
+  </si>
+  <si>
+    <t>2020-03-29T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267637/200329oshirase(27-30).pdf</t>
+  </si>
+  <si>
+    <t>欧州旅行に参加</t>
+    <rPh sb="0" eb="4">
+      <t>オウシュウリョコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゼミ祝賀会に参加</t>
+    <rPh sb="6" eb="8">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>41,42,43,44</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1764,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2941,6 +2996,12 @@
       <c r="F37" s="15" t="s">
         <v>87</v>
       </c>
+      <c r="H37" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="L37" s="13" t="s">
         <v>165</v>
       </c>
@@ -2967,6 +3028,9 @@
       <c r="H38" s="13" t="s">
         <v>164</v>
       </c>
+      <c r="K38" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="L38" s="13" t="s">
         <v>165</v>
       </c>
@@ -3053,6 +3117,134 @@
       </c>
       <c r="K41" s="13" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="29">
+        <v>43919</v>
+      </c>
+      <c r="D42" s="31">
+        <v>43919</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="29">
+        <v>43919</v>
+      </c>
+      <c r="D43" s="31">
+        <v>43919</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="29">
+        <v>43919</v>
+      </c>
+      <c r="D44" s="31">
+        <v>43919</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="21">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="29">
+        <v>43919</v>
+      </c>
+      <c r="D45" s="31">
+        <v>43919</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3091,6 +3283,7 @@
     <hyperlink ref="K32" r:id="rId31" xr:uid="{10B7CC18-3F5F-5E4B-BFD2-5FCDD739CC13}"/>
     <hyperlink ref="K33" r:id="rId32" xr:uid="{289D44B0-32A2-7647-A339-7EABCCFE1FEF}"/>
     <hyperlink ref="K34" r:id="rId33" xr:uid="{65EEB4BB-76B6-0846-B5CF-040B7EDB4AF2}"/>
+    <hyperlink ref="K38" r:id="rId34" xr:uid="{CB930D2A-DBD7-6C47-B9E0-0D6E9079800C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70D4A4-916A-F94E-806A-804EB9F5A2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E11E75-FD34-F247-91E9-AFB26A22FDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="22640" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="188">
   <si>
     <t>関連</t>
   </si>
@@ -1263,6 +1263,25 @@
   </si>
   <si>
     <t>41,42,43,44</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200329-45.pdf</t>
+  </si>
+  <si>
+    <t>42,43,44,45</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>41,43,44,45</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>41,42,44,45</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>41,42,43,45</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1819,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3139,7 +3158,7 @@
         <v>87</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>180</v>
@@ -3171,7 +3190,7 @@
         <v>87</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>181</v>
@@ -3203,7 +3222,7 @@
         <v>87</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>181</v>
@@ -3235,7 +3254,7 @@
         <v>87</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>181</v>
@@ -3244,6 +3263,38 @@
         <v>179</v>
       </c>
       <c r="L45" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="29">
+        <v>43919</v>
+      </c>
+      <c r="D46" s="31">
+        <v>43919</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L46" s="13" t="s">
         <v>176</v>
       </c>
     </row>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E11E75-FD34-F247-91E9-AFB26A22FDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E6D611-05D6-ED4C-BF57-7EF1ADBE1ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="22640" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="11680" yWindow="-21140" windowWidth="25260" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="194">
   <si>
     <t>関連</t>
   </si>
@@ -1282,6 +1282,50 @@
   </si>
   <si>
     <t>41,42,43,45</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200328-38-39-40.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000615144.pdf</t>
+  </si>
+  <si>
+    <t>60代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3月26日　喉の違和感，3月27日　発熱</t>
+    <rPh sb="6" eb="7">
+      <t>ノドノ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イワカn</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツネテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000615143.pdf</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1838,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3076,8 +3120,8 @@
       <c r="H39" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>172</v>
+      <c r="K39" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3295,6 +3339,67 @@
         <v>183</v>
       </c>
       <c r="L46" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="29">
+        <v>43919</v>
+      </c>
+      <c r="D47" s="31">
+        <v>43919</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="13">
+        <v>27</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="29">
+        <v>43919</v>
+      </c>
+      <c r="D48" s="31">
+        <v>43919</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L48" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3335,6 +3440,9 @@
     <hyperlink ref="K33" r:id="rId32" xr:uid="{289D44B0-32A2-7647-A339-7EABCCFE1FEF}"/>
     <hyperlink ref="K34" r:id="rId33" xr:uid="{65EEB4BB-76B6-0846-B5CF-040B7EDB4AF2}"/>
     <hyperlink ref="K38" r:id="rId34" xr:uid="{CB930D2A-DBD7-6C47-B9E0-0D6E9079800C}"/>
+    <hyperlink ref="K39" r:id="rId35" xr:uid="{DC4F1BB8-857E-264B-9895-81AF8BC024FD}"/>
+    <hyperlink ref="K47" r:id="rId36" xr:uid="{7A0F23D0-8D63-F340-B910-10CCAA2C4A96}"/>
+    <hyperlink ref="K48" r:id="rId37" xr:uid="{79380ABC-DBFF-9E44-B3DC-C15C41692FF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E6D611-05D6-ED4C-BF57-7EF1ADBE1ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1655BC-AAF2-A34B-A89B-8ED380368812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="-21140" windowWidth="25260" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="4140" yWindow="-21140" windowWidth="25260" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
   <si>
     <t>関連</t>
   </si>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>short_data</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2020-01-30T08:00:00.000Z</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1262,27 +1258,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>41,42,43,44</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200329-45.pdf</t>
-  </si>
-  <si>
-    <t>42,43,44,45</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>41,43,44,45</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>41,42,44,45</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>41,42,43,45</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200328-38-39-40.pdf</t>
@@ -1327,6 +1303,41 @@
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000615143.pdf</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020-03-30T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/203720</t>
+  </si>
+  <si>
+    <t>大学生</t>
+    <rPh sb="0" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大学生</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>short_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>南丹保健所管内</t>
+    <rPh sb="5" eb="7">
+      <t>カンナイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/203730</t>
   </si>
 </sst>
 </file>
@@ -1483,35 +1494,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1519,35 +1506,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1564,7 +1522,73 @@
     <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,151 +1906,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="14"/>
-    <col min="2" max="2" width="26.5703125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="14"/>
-    <col min="5" max="5" width="10.7109375" style="13"/>
-    <col min="6" max="6" width="10.7109375" style="15"/>
-    <col min="7" max="7" width="10.7109375" style="13"/>
-    <col min="8" max="8" width="22" style="13" customWidth="1"/>
-    <col min="9" max="9" width="32" style="15" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="13"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="26.5703125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2"/>
+    <col min="5" max="5" width="10.7109375" style="12"/>
+    <col min="6" max="6" width="10.7109375" style="3"/>
+    <col min="7" max="7" width="10.7109375" style="12"/>
+    <col min="8" max="8" width="22" style="12" customWidth="1"/>
+    <col min="9" max="9" width="32" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="90">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="90">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="29">
+      <c r="C2" s="6">
         <v>43860</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="7">
         <v>43860</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="17">
         <v>43872</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90">
-      <c r="A3" s="3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6">
         <v>43866</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="7">
         <v>43866</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="17">
         <v>43869</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="273">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6">
         <v>43893</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="7">
         <v>43893</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -2035,1372 +2059,1473 @@
       <c r="J4" s="17">
         <v>43901</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="126">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6">
         <v>43894</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="7">
         <v>43894</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="17">
         <v>43899</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="252">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6">
         <v>43894</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="7">
         <v>43894</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="23">
+        <v>43914</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="54">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43895</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43895</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="23">
+        <v>43904</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="54">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43896</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43896</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="23">
+        <v>43915</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="144">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43897</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43897</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="23">
+        <v>43910</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43899</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43899</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="13">
+        <v>8</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43899</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43899</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="13">
+        <v>8</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="23">
+        <v>43915</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43899</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43899</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13">
+        <v>8</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="23">
+        <v>43906</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="126">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43899</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43899</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="18">
-        <v>43914</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="54">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="29">
-        <v>43895</v>
-      </c>
-      <c r="D7" s="30">
-        <v>43895</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="18">
-        <v>43904</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="54">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="29">
-        <v>43896</v>
-      </c>
-      <c r="D8" s="30">
-        <v>43896</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="18">
-        <v>43915</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="144">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="29">
-        <v>43897</v>
-      </c>
-      <c r="D9" s="30">
-        <v>43897</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="18">
-        <v>43910</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="29">
-        <v>43899</v>
-      </c>
-      <c r="D10" s="30">
-        <v>43899</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="29">
-        <v>43899</v>
-      </c>
-      <c r="D11" s="30">
-        <v>43899</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="18">
-        <v>43915</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="29">
-        <v>43899</v>
-      </c>
-      <c r="D12" s="30">
-        <v>43899</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="18">
-        <v>43906</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="126">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="29">
-        <v>43899</v>
-      </c>
-      <c r="D13" s="30">
-        <v>43899</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="23">
         <v>43903</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43900</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43900</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="13">
+        <v>8</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="23">
+        <v>43916</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="306">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="29">
-        <v>43900</v>
-      </c>
-      <c r="D14" s="30">
-        <v>43900</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C15" s="6">
+        <v>43901</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43901</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="108">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43901</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43901</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13">
+        <v>12</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="180">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43902</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43902</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3">
-        <v>8</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="18">
-        <v>43916</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="306">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="29">
-        <v>43901</v>
-      </c>
-      <c r="D15" s="30">
-        <v>43901</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="108">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="29">
-        <v>43901</v>
-      </c>
-      <c r="D16" s="30">
-        <v>43901</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="181">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="29">
-        <v>43902</v>
-      </c>
-      <c r="D17" s="30">
-        <v>43902</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="24" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="199">
-      <c r="A18" s="8">
+    <row r="18" spans="1:12" ht="198">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="29">
+      <c r="B18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6">
         <v>43902</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="7">
         <v>43902</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="25">
         <v>15</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="11" t="s">
+      <c r="I18" s="24"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="189">
-      <c r="A19" s="3">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43907</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43907</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="29">
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="189">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="6">
         <v>43907</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D20" s="7">
         <v>43907</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="G20" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="189">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="29">
-        <v>43907</v>
-      </c>
-      <c r="D20" s="30">
-        <v>43907</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="14">
-        <v>14</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="29">
+        <v>43912</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="15" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="189">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="19">
+      <c r="C21" s="6">
+        <v>43908</v>
+      </c>
+      <c r="D21" s="7">
+        <v>43908</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="409.6">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43908</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43908</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43910</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43910</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="29">
+        <v>43917</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="42">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43911</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43911</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="63">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="6">
         <v>43912</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="189">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="29">
-        <v>43908</v>
-      </c>
-      <c r="D21" s="30">
-        <v>43908</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="409.6">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="29">
-        <v>43908</v>
-      </c>
-      <c r="D22" s="30">
-        <v>43908</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="21">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="D25" s="7">
+        <v>43912</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="63">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="6">
+        <v>43913</v>
+      </c>
+      <c r="D26" s="7">
+        <v>43913</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="29">
+        <v>43916</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="84">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43914</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43914</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="105">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43914</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43914</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43915</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43915</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="6">
+        <v>43915</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43915</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="6">
+        <v>43915</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43915</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="12">
+        <v>26</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="K31" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="21">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43915</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43915</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="12">
+        <v>27</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="K32" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="105">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43916</v>
+      </c>
+      <c r="D33" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="6">
+        <v>43916</v>
+      </c>
+      <c r="D34" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="12">
+        <v>23</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="6">
+        <v>43916</v>
+      </c>
+      <c r="D35" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="29">
-        <v>43910</v>
-      </c>
-      <c r="D23" s="30">
-        <v>43910</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="F35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="84">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="6">
         <v>43917</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="42">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="29">
-        <v>43911</v>
-      </c>
-      <c r="D24" s="30">
-        <v>43911</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="63">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="29">
-        <v>43912</v>
-      </c>
-      <c r="D25" s="30">
-        <v>43912</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="63">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="29">
-        <v>43913</v>
-      </c>
-      <c r="D26" s="30">
-        <v>43913</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="19">
-        <v>43916</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="84">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="29">
-        <v>43914</v>
-      </c>
-      <c r="D27" s="30">
-        <v>43914</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="105">
-      <c r="A28" s="14">
+      <c r="D36" s="8">
+        <v>43917</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43918</v>
+      </c>
+      <c r="D37" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="6">
+        <v>43918</v>
+      </c>
+      <c r="D38" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="6">
+        <v>43918</v>
+      </c>
+      <c r="D39" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="6">
+        <v>43918</v>
+      </c>
+      <c r="D40" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="12">
+        <v>35</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="6">
+        <v>43918</v>
+      </c>
+      <c r="D41" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="12">
+        <v>35</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="6">
+        <v>43919</v>
+      </c>
+      <c r="D42" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="6">
+        <v>43919</v>
+      </c>
+      <c r="D43" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="12">
+        <v>41</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="6">
+        <v>43919</v>
+      </c>
+      <c r="D44" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="12">
+        <v>41</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="21">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="6">
+        <v>43919</v>
+      </c>
+      <c r="D45" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="12">
+        <v>41</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="6">
+        <v>43919</v>
+      </c>
+      <c r="D46" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="12">
+        <v>41</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="6">
+        <v>43919</v>
+      </c>
+      <c r="D47" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="29">
-        <v>43914</v>
-      </c>
-      <c r="D28" s="30">
-        <v>43914</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="21">
-      <c r="A29" s="14">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="29">
-        <v>43915</v>
-      </c>
-      <c r="D29" s="30">
-        <v>43915</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="21">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="29">
-        <v>43915</v>
-      </c>
-      <c r="D30" s="30">
-        <v>43915</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="21">
-      <c r="A31" s="14">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="29">
-        <v>43915</v>
-      </c>
-      <c r="D31" s="30">
-        <v>43915</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="13">
-        <v>26</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="H47" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="K31" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="21">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="29">
-        <v>43915</v>
-      </c>
-      <c r="D32" s="30">
-        <v>43915</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="13">
-        <v>27</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="K32" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="105">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="29">
-        <v>43916</v>
-      </c>
-      <c r="D33" s="31">
-        <v>43916</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="K47" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="6">
+        <v>43919</v>
+      </c>
+      <c r="D48" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="42">
+      <c r="B49" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D49" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="21">
-      <c r="A34" s="14">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="29">
-        <v>43916</v>
-      </c>
-      <c r="D34" s="31">
-        <v>43916</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="13">
-        <v>23</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="21">
-      <c r="A35" s="14">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="29">
-        <v>43916</v>
-      </c>
-      <c r="D35" s="31">
-        <v>43916</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="84">
-      <c r="A36" s="14">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="29">
-        <v>43917</v>
-      </c>
-      <c r="D36" s="31">
-        <v>43917</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="21">
-      <c r="A37" s="14">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="29">
-        <v>43918</v>
-      </c>
-      <c r="D37" s="31">
-        <v>43918</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="21">
-      <c r="A38" s="14">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="29">
-        <v>43918</v>
-      </c>
-      <c r="D38" s="31">
-        <v>43918</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="14">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="29">
-        <v>43918</v>
-      </c>
-      <c r="D39" s="31">
-        <v>43918</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="G49" s="12">
+        <v>41</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="42">
+      <c r="B50" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="14">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="29">
-        <v>43918</v>
-      </c>
-      <c r="D40" s="31">
-        <v>43918</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" s="13">
-        <v>35</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="14">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="29">
-        <v>43918</v>
-      </c>
-      <c r="D41" s="31">
-        <v>43918</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="13">
-        <v>35</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="21">
-      <c r="A42" s="14">
+      <c r="C50" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D50" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="29">
-        <v>43919</v>
-      </c>
-      <c r="D42" s="31">
-        <v>43919</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="21">
-      <c r="A43" s="14">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="29">
-        <v>43919</v>
-      </c>
-      <c r="D43" s="31">
-        <v>43919</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="21">
-      <c r="A44" s="14">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="29">
-        <v>43919</v>
-      </c>
-      <c r="D44" s="31">
-        <v>43919</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="21">
-      <c r="A45" s="14">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="29">
-        <v>43919</v>
-      </c>
-      <c r="D45" s="31">
-        <v>43919</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="14">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="29">
-        <v>43919</v>
-      </c>
-      <c r="D46" s="31">
-        <v>43919</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K46" s="13" t="s">
+      <c r="H50" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="21">
+      <c r="B51" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D51" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="L46" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="21">
-      <c r="A47" s="14">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="29">
-        <v>43919</v>
-      </c>
-      <c r="D47" s="31">
-        <v>43919</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="13">
-        <v>27</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="21">
-      <c r="A48" s="14">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="29">
-        <v>43919</v>
-      </c>
-      <c r="D48" s="31">
-        <v>43919</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="F51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="12">
+        <v>41</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>176</v>
+      <c r="L51" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="21">
+      <c r="B52" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D52" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="12">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3443,6 +3568,10 @@
     <hyperlink ref="K39" r:id="rId35" xr:uid="{DC4F1BB8-857E-264B-9895-81AF8BC024FD}"/>
     <hyperlink ref="K47" r:id="rId36" xr:uid="{7A0F23D0-8D63-F340-B910-10CCAA2C4A96}"/>
     <hyperlink ref="K48" r:id="rId37" xr:uid="{79380ABC-DBFF-9E44-B3DC-C15C41692FF9}"/>
+    <hyperlink ref="L49" r:id="rId38" xr:uid="{275B5EC3-F3CE-CF4A-AD9D-2440665D1054}"/>
+    <hyperlink ref="L50" r:id="rId39" xr:uid="{886D37E5-365D-1740-B18D-0985A5D9780A}"/>
+    <hyperlink ref="L51" r:id="rId40" xr:uid="{ED0C40F6-8F20-0047-990E-BCBF6AC0917D}"/>
+    <hyperlink ref="L52" r:id="rId41" xr:uid="{9B091292-F2DD-1642-A635-CEAB6A40C81A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1655BC-AAF2-A34B-A89B-8ED380368812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A86D5-60D6-124B-B826-53CF5E876FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="-21140" windowWidth="25260" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="13700" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
   <si>
     <t>関連</t>
   </si>
@@ -1312,20 +1312,6 @@
     <t>https://www.kyoto-np.co.jp/articles/-/203720</t>
   </si>
   <si>
-    <t>大学生</t>
-    <rPh sb="0" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>大学生</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>short_date</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1338,6 +1324,38 @@
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203730</t>
+  </si>
+  <si>
+    <t>30代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200330-48-49.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267699/200330oshirase(33-34).pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200330-52-53-54.pdf</t>
+  </si>
+  <si>
+    <t>京都府45例目と交流会で接触</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/203918</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1367,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1462,6 +1480,14 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1494,7 +1520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1589,6 +1615,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1937,7 +1966,7 @@
         <v>83</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>55</v>
@@ -3424,7 +3453,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="42">
+    <row r="49" spans="1:12" ht="42">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
       <c r="B49" s="13" t="s">
         <v>188</v>
       </c>
@@ -3444,13 +3476,19 @@
         <v>41</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="L49" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="42">
+    <row r="50" spans="1:12" ht="42">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
       <c r="B50" s="13" t="s">
         <v>188</v>
       </c>
@@ -3464,19 +3502,25 @@
         <v>177</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G50" s="12">
         <v>41</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="L50" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="21">
+    <row r="51" spans="1:12" ht="21">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
       <c r="B51" s="13" t="s">
         <v>188</v>
       </c>
@@ -3496,13 +3540,19 @@
         <v>41</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="21">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="21">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
       <c r="B52" s="13" t="s">
         <v>188</v>
       </c>
@@ -3522,10 +3572,109 @@
         <v>41</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D53" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" s="12">
+        <v>45</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D54" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="12">
+        <v>45</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D55" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" s="12">
+        <v>45</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A86D5-60D6-124B-B826-53CF5E876FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DEF47-4E18-DE4A-BA70-C1F16DFE1699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34540" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
   <si>
     <t>関連</t>
   </si>
@@ -272,9 +272,6 @@
 勤務先へは，京福電車を利用</t>
   </si>
   <si>
-    <t>https://www.mhlw.go.jp/content/10906000/000607080.pdf</t>
-  </si>
-  <si>
     <t>市内保育所の園児</t>
   </si>
   <si>
@@ -1333,9 +1330,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200330-48-49.pdf</t>
-  </si>
-  <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267699/200330oshirase(33-34).pdf</t>
   </si>
   <si>
@@ -1356,6 +1350,66 @@
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203918</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267700/200330oshirase(35).pdf</t>
+  </si>
+  <si>
+    <t>沖縄県において発生した患者と接触</t>
+    <rPh sb="0" eb="3">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンジヤ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267701/200330oshirase(36).pdf</t>
+  </si>
+  <si>
+    <t>2020-03-31T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000607080.pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>40代男性</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200331-59-65.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267768/200331oshirase(37-38).pdf</t>
+  </si>
+  <si>
+    <t>愛媛</t>
+    <rPh sb="0" eb="2">
+      <t>エヒメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267699/200330oshirase(33-34).pdf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://www.pref.kyoto.jp/kentai/corona/documents/20200330-48-49.pdf</t>
   </si>
 </sst>
 </file>
@@ -1935,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1957,22 +2011,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -1987,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90">
@@ -1998,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6">
         <v>43860</v>
@@ -2007,7 +2061,7 @@
         <v>43860</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>4</v>
@@ -2031,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="6">
         <v>43866</v>
@@ -2040,7 +2094,7 @@
         <v>43866</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>4</v>
@@ -2064,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6">
         <v>43893</v>
@@ -2073,7 +2127,7 @@
         <v>43893</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>4</v>
@@ -2097,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6">
         <v>43894</v>
@@ -2106,7 +2160,7 @@
         <v>43894</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>4</v>
@@ -2130,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6">
         <v>43894</v>
@@ -2139,7 +2193,7 @@
         <v>43894</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>4</v>
@@ -2163,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6">
         <v>43895</v>
@@ -2172,7 +2226,7 @@
         <v>43895</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>20</v>
@@ -2196,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6">
         <v>43896</v>
@@ -2205,10 +2259,10 @@
         <v>43896</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="21" t="s">
@@ -2229,7 +2283,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6">
         <v>43897</v>
@@ -2238,7 +2292,7 @@
         <v>43897</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>27</v>
@@ -2262,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6">
         <v>43899</v>
@@ -2271,7 +2325,7 @@
         <v>43899</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>27</v>
@@ -2293,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6">
         <v>43899</v>
@@ -2302,7 +2356,7 @@
         <v>43899</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>27</v>
@@ -2326,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="6">
         <v>43899</v>
@@ -2335,7 +2389,7 @@
         <v>43899</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>27</v>
@@ -2359,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6">
         <v>43899</v>
@@ -2368,7 +2422,7 @@
         <v>43899</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>4</v>
@@ -2392,7 +2446,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="6">
         <v>43900</v>
@@ -2401,7 +2455,7 @@
         <v>43900</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>27</v>
@@ -2425,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="6">
         <v>43901</v>
@@ -2434,7 +2488,7 @@
         <v>43901</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>4</v>
@@ -2446,9 +2500,11 @@
       <c r="I15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="18" t="s">
-        <v>42</v>
+      <c r="J15" s="23">
+        <v>43919</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="108">
@@ -2456,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="6">
         <v>43901</v>
@@ -2465,7 +2521,7 @@
         <v>43901</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>4</v>
@@ -2474,14 +2530,14 @@
         <v>12</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="180">
@@ -2489,7 +2545,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6">
         <v>43902</v>
@@ -2498,21 +2554,21 @@
         <v>43902</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="198">
@@ -2520,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6">
         <v>43902</v>
@@ -2529,21 +2585,21 @@
         <v>43902</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="25">
         <v>15</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="23"/>
       <c r="K18" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="189">
@@ -2551,7 +2607,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6">
         <v>43907</v>
@@ -2560,21 +2616,21 @@
         <v>43907</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="189">
@@ -2582,7 +2638,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6">
         <v>43907</v>
@@ -2591,25 +2647,25 @@
         <v>43907</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" s="2">
         <v>14</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="29">
         <v>43912</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="189">
@@ -2617,7 +2673,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6">
         <v>43908</v>
@@ -2626,20 +2682,20 @@
         <v>43908</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="409.6">
@@ -2647,7 +2703,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6">
         <v>43908</v>
@@ -2656,20 +2712,20 @@
         <v>43908</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21">
@@ -2677,7 +2733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="6">
         <v>43910</v>
@@ -2686,19 +2742,19 @@
         <v>43910</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="29">
         <v>43917</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="42">
@@ -2706,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="6">
         <v>43911</v>
@@ -2715,20 +2771,20 @@
         <v>43911</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="63">
@@ -2736,7 +2792,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="6">
         <v>43912</v>
@@ -2745,20 +2801,20 @@
         <v>43912</v>
       </c>
       <c r="E25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63">
@@ -2766,7 +2822,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="6">
         <v>43913</v>
@@ -2775,22 +2831,22 @@
         <v>43913</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="J26" s="29">
         <v>43916</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="84">
@@ -2798,7 +2854,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="6">
         <v>43914</v>
@@ -2807,20 +2863,20 @@
         <v>43914</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="105">
@@ -2828,7 +2884,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="6">
         <v>43914</v>
@@ -2837,20 +2893,20 @@
         <v>43914</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21">
@@ -2858,7 +2914,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="6">
         <v>43915</v>
@@ -2867,19 +2923,19 @@
         <v>43915</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21">
@@ -2887,7 +2943,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="6">
         <v>43915</v>
@@ -2896,19 +2952,19 @@
         <v>43915</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21">
@@ -2916,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="6">
         <v>43915</v>
@@ -2925,23 +2981,23 @@
         <v>43915</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="12">
         <v>26</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I31" s="12"/>
       <c r="K31" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21">
@@ -2949,7 +3005,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="6">
         <v>43915</v>
@@ -2958,23 +3014,23 @@
         <v>43915</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="12">
         <v>27</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I32" s="12"/>
       <c r="K32" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="105">
@@ -2982,7 +3038,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="6">
         <v>43916</v>
@@ -2991,19 +3047,19 @@
         <v>43916</v>
       </c>
       <c r="E33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="K33" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="L33" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21">
@@ -3011,7 +3067,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="6">
         <v>43916</v>
@@ -3020,22 +3076,22 @@
         <v>43916</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" s="12">
         <v>23</v>
       </c>
       <c r="H34" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="L34" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="21">
@@ -3043,7 +3099,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="6">
         <v>43916</v>
@@ -3052,19 +3108,19 @@
         <v>43916</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="84">
@@ -3072,7 +3128,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="6">
         <v>43917</v>
@@ -3081,16 +3137,16 @@
         <v>43917</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="H36" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="21">
@@ -3098,7 +3154,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="6">
         <v>43918</v>
@@ -3107,19 +3163,19 @@
         <v>43918</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="21">
@@ -3127,7 +3183,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="6">
         <v>43918</v>
@@ -3136,19 +3192,19 @@
         <v>43918</v>
       </c>
       <c r="E38" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="K38" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3156,7 +3212,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="6">
         <v>43918</v>
@@ -3165,16 +3221,16 @@
         <v>43918</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="K39" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3182,7 +3238,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="6">
         <v>43918</v>
@@ -3191,19 +3247,19 @@
         <v>43918</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G40" s="12">
         <v>35</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3211,7 +3267,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="6">
         <v>43918</v>
@@ -3220,19 +3276,19 @@
         <v>43918</v>
       </c>
       <c r="E41" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>166</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>167</v>
       </c>
       <c r="G41" s="12">
         <v>35</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="21">
@@ -3240,7 +3296,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="6">
         <v>43919</v>
@@ -3249,19 +3305,19 @@
         <v>43919</v>
       </c>
       <c r="E42" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="L42" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="21">
@@ -3269,7 +3325,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="6">
         <v>43919</v>
@@ -3278,22 +3334,22 @@
         <v>43919</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" s="12">
         <v>41</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="21">
@@ -3301,7 +3357,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="6">
         <v>43919</v>
@@ -3310,22 +3366,22 @@
         <v>43919</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" s="12">
         <v>41</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="21">
@@ -3333,7 +3389,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="6">
         <v>43919</v>
@@ -3342,22 +3398,22 @@
         <v>43919</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45" s="12">
         <v>41</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3365,7 +3421,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="6">
         <v>43919</v>
@@ -3374,22 +3430,22 @@
         <v>43919</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G46" s="12">
         <v>41</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="K46" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="L46" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="21">
@@ -3397,7 +3453,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="6">
         <v>43919</v>
@@ -3406,22 +3462,22 @@
         <v>43919</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="12">
         <v>27</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="21">
@@ -3429,7 +3485,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C48" s="6">
         <v>43919</v>
@@ -3438,19 +3494,19 @@
         <v>43919</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="K48" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="42">
@@ -3458,7 +3514,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C49" s="6">
         <v>43920</v>
@@ -3467,22 +3523,22 @@
         <v>43920</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G49" s="12">
         <v>41</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="42">
@@ -3490,7 +3546,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C50" s="6">
         <v>43920</v>
@@ -3499,22 +3555,22 @@
         <v>43920</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="12">
         <v>41</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="21">
@@ -3522,7 +3578,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51" s="6">
         <v>43920</v>
@@ -3531,22 +3587,22 @@
         <v>43920</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" s="12">
         <v>41</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>195</v>
+        <v>179</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="21">
@@ -3554,7 +3610,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" s="6">
         <v>43920</v>
@@ -3563,22 +3619,22 @@
         <v>43920</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" s="12">
         <v>41</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3586,7 +3642,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C53" s="6">
         <v>43920</v>
@@ -3595,22 +3651,22 @@
         <v>43920</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G53" s="12">
         <v>45</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K53" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3618,7 +3674,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C54" s="6">
         <v>43920</v>
@@ -3627,22 +3683,22 @@
         <v>43920</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G54" s="12">
         <v>45</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K54" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L54" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3650,7 +3706,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C55" s="6">
         <v>43920</v>
@@ -3659,22 +3715,333 @@
         <v>43920</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G55" s="12">
         <v>45</v>
       </c>
       <c r="H55" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="21">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D56" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="K55" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>198</v>
+    </row>
+    <row r="57" spans="1:12" ht="21">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D57" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="21">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D58" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="12">
+        <v>41</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="21">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D59" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="42">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D60" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="12">
+        <v>41</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60" s="30"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D61" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="12">
+        <v>41</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D62" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="12">
+        <v>45</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D63" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="12">
+        <v>45</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D64" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="12">
+        <v>45</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D65" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="12">
+        <v>45</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D66" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="12">
+        <v>45</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3721,6 +4088,7 @@
     <hyperlink ref="L50" r:id="rId39" xr:uid="{886D37E5-365D-1740-B18D-0985A5D9780A}"/>
     <hyperlink ref="L51" r:id="rId40" xr:uid="{ED0C40F6-8F20-0047-990E-BCBF6AC0917D}"/>
     <hyperlink ref="L52" r:id="rId41" xr:uid="{9B091292-F2DD-1642-A635-CEAB6A40C81A}"/>
+    <hyperlink ref="K51" r:id="rId42" xr:uid="{17B75667-2165-6D4F-9D05-D31F3E20E2BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DEF47-4E18-DE4A-BA70-C1F16DFE1699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068AE669-2702-8646-B3CB-604381DF0388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34540" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="214">
   <si>
     <t>関連</t>
   </si>
@@ -1410,6 +1410,36 @@
   </si>
   <si>
     <t>http://www.pref.kyoto.jp/kentai/corona/documents/20200330-48-49.pdf</t>
+  </si>
+  <si>
+    <t>70代男性</t>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>30代女性</t>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>60代男性</t>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267702/200331oshirase(39-40).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267769/200331oshirase(41).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267770/200331oshirase(42).pdf</t>
   </si>
 </sst>
 </file>
@@ -1989,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4042,6 +4072,98 @@
       </c>
       <c r="K66" s="12" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="21">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D67" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="21">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D68" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="21">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D69" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="21">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D70" s="8">
+        <v>43921</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068AE669-2702-8646-B3CB-604381DF0388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C446F3A2-CB85-D641-9886-5FE6BFB89594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34540" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="216">
   <si>
     <t>関連</t>
   </si>
@@ -1440,6 +1440,13 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267770/200331oshirase(42).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-01T08:00:00.000Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.kyoto-np.co.jp/articles/-/205369</t>
   </si>
 </sst>
 </file>
@@ -2019,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4016,7 +4023,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4045,7 +4052,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4074,7 +4081,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="21">
+    <row r="67" spans="1:12" ht="21">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21">
+    <row r="68" spans="1:12" ht="21">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4120,7 +4127,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21">
+    <row r="69" spans="1:12" ht="21">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4143,7 +4150,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21">
+    <row r="70" spans="1:12" ht="21">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4164,6 +4171,57 @@
       </c>
       <c r="K70" s="12" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="6">
+        <v>43922</v>
+      </c>
+      <c r="D71" s="8">
+        <v>43922</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="6">
+        <v>43922</v>
+      </c>
+      <c r="D72" s="8">
+        <v>43922</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="6">
+        <v>43922</v>
+      </c>
+      <c r="D73" s="8">
+        <v>43922</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C446F3A2-CB85-D641-9886-5FE6BFB89594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F85EC-0B84-2E4C-A03B-F9481958F100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34540" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="224">
   <si>
     <t>関連</t>
   </si>
@@ -48,7 +48,7 @@
     <rPh sb="2" eb="3">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>京都市</t>
@@ -263,7 +263,7 @@
 3月9日　欠勤　・体調不良のため出勤できず
 3月10日　勤務不要日　・病院へ受診し，検体採取 
 3月11日　欠勤　・発熱(37.5度) ・陽性反応 ・本日入院措置 </t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>右京区役所に勤務する臨時的任用の職員
@@ -297,28 +297,28 @@
     <rPh sb="0" eb="1">
       <t>キョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>3月6日 発症(38.5°Cの発熱、咳、倦怠感、筋肉痛)、現在も症状が続いている 
 3月7、8日 自宅療養_x000B_3月9日 かかりつけ医を受診 
 3月10日  自宅療養 _x000B_3月11日  かかりつけ医を再受診、紹介先医療機関に入院。検体採取 _x000B_
 3月12日  本日夕方、陽性が判明 _x000B_感染症指定医療機関へ入院</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">・当該理髪店は3月9日から休業中 ・通勤に公共交通機関の利用なし </t>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200312-16.pdf</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>市内保育所の園児の保護者</t>
     <rPh sb="9" eb="12">
       <t>ホゴ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>3月6日　出勤　・最終出勤日
@@ -328,22 +328,22 @@
 3月10日　休暇
 3月11日　休暇　・園児の陽性反応が判明
 3月12日　休暇　・検体を採取　・陽性反応</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000266/266787/200312oshirase.pdf</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>年代・性別</t>
     <rPh sb="3" eb="5">
       <t>セイベテゥ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発表日</t>
@@ -353,142 +353,142 @@
     <rPh sb="2" eb="3">
       <t xml:space="preserve">ビ </t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-01-30T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-02-05T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-03T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-04T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-05T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-06T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-07T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-09T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-10T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-11T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-12T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20代女性</t>
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20代女性</t>
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20代男性</t>
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50代女性</t>
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50代女性</t>
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50代男性</t>
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30代男性</t>
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>60代女性</t>
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>40代女性</t>
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>60代男性</t>
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>60代女性</t>
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30代女性</t>
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>70代女性</t>
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>60代男性</t>
@@ -498,58 +498,58 @@
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>住居地</t>
     <rPh sb="0" eb="3">
       <t>１０キョ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-17T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30代男性</t>
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>京都市</t>
     <rPh sb="0" eb="1">
       <t>キョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月11日 近医受診，咽頭炎の診断 3月16日 発熱(39.2°C)，倦怠感
          近医受診，胸部X線検査実施(肺炎像あり)
          他の医療機関受診，入院
    3月17日 検査結果陽性を確認</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000609270.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本人には流行地域への渡航歴なし。 濃厚接触者のうち1名(同居の母)が2月18日~27日までエジ プトに渡航し，2月21日~23日にナイル川クルーズ船ツアーに 参加。帰国後，下痢，咳症状等があったが，現在は軽快。PCR検査 結果は陰性</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月12日 7例目患者の濃厚接触者のため自宅待機
    3月14日 咳症状
 ~16日
 3月16日 ナイル川クルーズ船ツアーに参加していたことが判明 3月17日 医療機関受診，検査結果陽性を確認</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000609271.pdf</t>
@@ -560,11 +560,11 @@
 ・通勤経路　市バス，市営地下鉄
 ・濃厚接触者　同居家族（子）
 ・暴露歴　2月18日〜27日までエジプトに渡航し，2月21日〜23日にナイル川クルーズセンターに参加</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-18T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>70代男性</t>
@@ -574,11 +574,11 @@
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>15例目（京都市8例目）の園児の保護者</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>乙訓管内</t>
@@ -591,23 +591,23 @@
     <rPh sb="15" eb="16">
       <t>ガテゥ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・基礎疾患の治療のため、2月7日に入院し、26日に退院 ・医療機関への往復は自家用車
 ・医療機関以外の外出なし</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200318-20.pdf</t>
   </si>
   <si>
     <t>17, 15</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000609974.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月8日　勤務不要日　15例目（園児）が発症
@@ -620,14 +620,14 @@
 3月13日〜16日　休み　・3月14日：発症（咳・発熱36.9℃）
 3月17日　休み　・検体採取（発熱37.1℃）
 3月18日　休み　・検体採取（発熱36.8℃）</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/191085</t>
   </si>
   <si>
     <t>2020-03-20T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>70代女性</t>
@@ -637,14 +637,14 @@
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/191315</t>
   </si>
   <si>
     <t>2020-03-21T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50代女性</t>
@@ -654,7 +654,7 @@
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月16日　オランダから帰国</t>
@@ -667,15 +667,15 @@
     <rPh sb="12" eb="14">
       <t>キコク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>URL2</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000610745.pdf</t>
@@ -685,7 +685,7 @@
   </si>
   <si>
     <t>2020-03-22T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50代男性</t>
@@ -695,7 +695,7 @@
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月17日に発熱，3月19日に医療機関受診，肺炎と診断</t>
@@ -708,19 +708,19 @@
     <rPh sb="22" eb="24">
       <t>ハイエンテ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267131/200322oshirase(15).pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/191514</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-23T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>70代男性</t>
@@ -730,7 +730,7 @@
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月22日に発熱（39.０℃），医療機関で肺炎確認</t>
@@ -746,19 +746,19 @@
     <rPh sb="23" eb="25">
       <t>カクニn</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/192876</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/stf/newpage_10399.html</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-24T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20代男性・フランス国籍</t>
@@ -768,7 +768,7 @@
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/196468</t>
@@ -793,7 +793,7 @@
     <rPh sb="49" eb="51">
       <t>ニュウイn</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月19日に発熱，23日に医療機関にて肺炎が確認．外国人観光客を案内する業務を3月19日，20日，22日に行った．3月25日に入院．</t>
@@ -818,19 +818,19 @@
     <rPh sb="53" eb="54">
       <t>オコナッタ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000612170.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000612169.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-25T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/197694</t>
@@ -846,11 +846,11 @@
     <rPh sb="7" eb="9">
       <t>ケイショウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/197694</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000613041.pdf</t>
@@ -863,19 +863,19 @@
     <rPh sb="13" eb="15">
       <t>ニュウイn</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000613042.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000613043.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000613044.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　50代女性</t>
@@ -885,7 +885,7 @@
     <rPh sb="4" eb="6">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>京都府２６例目（京都市17例目）と共にフランス，ルクセンブルクに渡航</t>
@@ -907,7 +907,7 @@
     <rPh sb="32" eb="34">
       <t>トコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>京都府２７例目（京都市18例目）の接触者</t>
@@ -920,11 +920,11 @@
     <rPh sb="17" eb="20">
       <t>セッショク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-26T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30代男性</t>
@@ -934,11 +934,11 @@
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>乙訓保健所管内</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月20日に海外留学から帰国．3月24日発熱，3月25日帰国者・接触者相談センターに相談，3月26日に陽性判明</t>
@@ -978,11 +978,11 @@
     <rPh sb="53" eb="55">
       <t>ハンメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200326-32.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/200361</t>
@@ -995,7 +995,7 @@
     <rPh sb="6" eb="9">
       <t>ガイコク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>京都府２３例目（京都市14例目）とともに海外出張</t>
@@ -1008,11 +1008,11 @@
     <rPh sb="20" eb="24">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267473/200326oshirase(23).pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/200839</t>
@@ -1025,11 +1025,11 @@
     <rPh sb="7" eb="11">
       <t>ハツネテゥ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-27T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>40代男性</t>
@@ -1039,7 +1039,7 @@
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大阪府（実家が山城北保健所管内）</t>
@@ -1052,7 +1052,7 @@
     <rPh sb="7" eb="10">
       <t>ヤマ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200327-35.pdf</t>
@@ -1077,11 +1077,11 @@
     <rPh sb="30" eb="32">
       <t>ツウキn</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-28T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50代女性</t>
@@ -1091,11 +1091,11 @@
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30代女性</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月21日に，家族で，イギリスから帰国</t>
@@ -1105,7 +1105,7 @@
     <rPh sb="17" eb="19">
       <t>キコク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203281</t>
@@ -1118,7 +1118,7 @@
     <rPh sb="3" eb="5">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>40代女性</t>
@@ -1128,7 +1128,7 @@
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>山城北保健所管内</t>
@@ -1141,7 +1141,7 @@
     <rPh sb="6" eb="8">
       <t>カンナイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月22日　鼻づまり，嗅覚・味覚異常．3月24日咳，痰，頭痛あり．3月27日友人が陽性と分かったので相談</t>
@@ -1172,7 +1172,7 @@
     <rPh sb="50" eb="52">
       <t>ソウダn</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>京都府35例目の母親</t>
@@ -1182,7 +1182,7 @@
     <rPh sb="8" eb="10">
       <t>ハハ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>受診医療機関の看護師．現在は症状なし</t>
@@ -1198,7 +1198,7 @@
     <rPh sb="14" eb="16">
       <t>ショウジヨ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200328-38-39-40.pdf</t>
@@ -1208,7 +1208,7 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267633/200328oshirase(26).pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月19日より発熱</t>
@@ -1218,21 +1218,21 @@
     <rPh sb="7" eb="9">
       <t>ハツネテゥ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203415</t>
   </si>
   <si>
     <t>2020-03-29T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20代男性</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267637/200329oshirase(27-30).pdf</t>
@@ -1245,21 +1245,21 @@
     <rPh sb="5" eb="7">
       <t>サンカ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ゼミ祝賀会に参加</t>
     <rPh sb="6" eb="8">
       <t>サンカ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200329-45.pdf</t>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200328-38-39-40.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20代女性</t>
@@ -1269,7 +1269,7 @@
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000615144.pdf</t>
@@ -1282,7 +1282,7 @@
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3月26日　喉の違和感，3月27日　発熱</t>
@@ -1295,29 +1295,29 @@
     <rPh sb="18" eb="20">
       <t>ハツネテゥ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000615143.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020-03-30T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203720</t>
   </si>
   <si>
     <t>short_date</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>南丹保健所管内</t>
     <rPh sb="5" eb="7">
       <t>カンナイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203730</t>
@@ -1327,7 +1327,7 @@
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267699/200330oshirase(33-34).pdf</t>
@@ -1346,7 +1346,7 @@
     <rPh sb="12" eb="14">
       <t>セッショク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.kyoto-np.co.jp/articles/-/203918</t>
@@ -1368,18 +1368,18 @@
     <rPh sb="14" eb="16">
       <t>セッショク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267701/200330oshirase(36).pdf</t>
   </si>
   <si>
     <t>2020-03-31T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000607080.pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>40代男性</t>
@@ -1389,7 +1389,7 @@
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200331-59-65.pdf</t>
@@ -1398,15 +1398,8 @@
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267768/200331oshirase(37-38).pdf</t>
   </si>
   <si>
-    <t>愛媛</t>
-    <rPh sb="0" eb="2">
-      <t>エヒメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267699/200330oshirase(33-34).pdf</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>http://www.pref.kyoto.jp/kentai/corona/documents/20200330-48-49.pdf</t>
@@ -1416,21 +1409,21 @@
     <rPh sb="3" eb="5">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>30代女性</t>
     <rPh sb="3" eb="4">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>60代男性</t>
     <rPh sb="3" eb="4">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267702/200331oshirase(39-40).pdf</t>
@@ -1443,10 +1436,90 @@
   </si>
   <si>
     <t>2020-04-01T08:00:00.000Z</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>https://www.kyoto-np.co.jp/articles/-/205369</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府52例目，53例目，54例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>52, 53, 54</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200401-73.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200401-70-72.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200401-70-72.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>53, 54</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府53例目，54例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゼミ祝賀会に参加．愛媛県の罹患者に接触</t>
+    <rPh sb="6" eb="8">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エヒメ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>リカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他府県の罹患者に接触</t>
+    <rPh sb="0" eb="3">
+      <t>タフケn</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>リカn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1458,7 +1531,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1477,12 +1550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="游ゴシック Regular"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -1490,21 +1557,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック Regular"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="A-OTF Midashi Go MB31 Pr6N MB31"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1514,70 +1569,48 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック Regular"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック Regular"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック Regular"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック Regular"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="游ゴシック Regular"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック Regular"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="游ゴシック Regular"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1611,104 +1644,86 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2026,2206 +2041,2265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="26.5703125" style="12" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2"/>
-    <col min="5" max="5" width="10.7109375" style="12"/>
-    <col min="6" max="6" width="10.7109375" style="3"/>
-    <col min="7" max="7" width="10.7109375" style="12"/>
-    <col min="8" max="8" width="22" style="12" customWidth="1"/>
-    <col min="9" max="9" width="32" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="12"/>
+    <col min="1" max="1" width="10.7109375" style="20"/>
+    <col min="2" max="2" width="26.5703125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="20"/>
+    <col min="5" max="5" width="10.7109375" style="7"/>
+    <col min="6" max="6" width="10.7109375" style="14"/>
+    <col min="7" max="7" width="10.7109375" style="7"/>
+    <col min="8" max="8" width="22" style="7" customWidth="1"/>
+    <col min="9" max="9" width="32" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="19">
+      <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
-      <c r="A2" s="13">
+    <row r="2" spans="1:12" ht="114">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>43860</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>43860</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <v>43872</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90">
-      <c r="A3" s="13">
+    <row r="3" spans="1:12" ht="95">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>43866</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>43866</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <v>43869</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="273">
-      <c r="A4" s="13">
+    <row r="4" spans="1:12" ht="228">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>43893</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>43893</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <v>43901</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="126">
-      <c r="A5" s="13">
+    <row r="5" spans="1:12" ht="152">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>43894</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>43894</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <v>43899</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="252">
-      <c r="A6" s="13">
+    <row r="6" spans="1:12" ht="323">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>43894</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>43894</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="18">
         <v>43914</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54">
-      <c r="A7" s="13">
+    <row r="7" spans="1:12" ht="57">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>43895</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>43895</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="18">
         <v>43904</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="54">
-      <c r="A8" s="13">
+    <row r="8" spans="1:12" ht="76">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>43896</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>43896</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="18">
         <v>43915</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="144">
-      <c r="A9" s="13">
+    <row r="9" spans="1:12" ht="152">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>43897</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>43897</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="18">
         <v>43910</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="13">
+    <row r="10" spans="1:12" ht="19">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>43899</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>43899</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <v>8</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="18" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="13">
+    <row r="11" spans="1:12" ht="19">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>43899</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>43899</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="8">
         <v>8</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="23">
+      <c r="I11" s="17"/>
+      <c r="J11" s="18">
         <v>43915</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13">
+    <row r="12" spans="1:12" ht="19">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>43899</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>43899</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <v>8</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23">
+      <c r="I12" s="17"/>
+      <c r="J12" s="18">
         <v>43906</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="126">
-      <c r="A13" s="13">
+    <row r="13" spans="1:12" ht="114">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>43899</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>43899</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="18">
         <v>43903</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13">
+    <row r="14" spans="1:12" ht="19">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>43900</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="10">
         <v>43900</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="8">
         <v>8</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23">
+      <c r="I14" s="17"/>
+      <c r="J14" s="18">
         <v>43916</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="306">
-      <c r="A15" s="13">
+    <row r="15" spans="1:12" ht="342">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="9">
         <v>43901</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="10">
         <v>43901</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="18">
         <v>43919</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="108">
-      <c r="A16" s="13">
+    <row r="16" spans="1:12" ht="114">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <v>43901</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="10">
         <v>43901</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="8">
         <v>12</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="180">
-      <c r="A17" s="13">
+    <row r="17" spans="1:12" ht="228">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="9">
         <v>43902</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="10">
         <v>43902</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="27" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="198">
-      <c r="A18" s="25">
+    <row r="18" spans="1:12" ht="228">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="9">
         <v>43902</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="10">
         <v>43902</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="20">
         <v>15</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="28" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="189">
-      <c r="A19" s="13">
+    <row r="19" spans="1:12" ht="152">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>43907</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="10">
         <v>43907</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="189">
-      <c r="A20" s="13">
+    <row r="20" spans="1:12" ht="171">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <v>43907</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="10">
         <v>43907</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="20">
         <v>14</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="12">
         <v>43912</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="189">
-      <c r="A21" s="13">
+    <row r="21" spans="1:12" ht="171">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
         <v>43908</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="10">
         <v>43908</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="12" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="409.6">
-      <c r="A22" s="13">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="9">
         <v>43908</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="10">
         <v>43908</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21">
-      <c r="A23" s="2">
+    <row r="23" spans="1:12" ht="19">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <v>43910</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="10">
         <v>43910</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="12">
         <v>43917</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="42">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" ht="19">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="9">
         <v>43911</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="10">
         <v>43911</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="63">
-      <c r="A25" s="2">
+    <row r="25" spans="1:12" ht="38">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="9">
         <v>43912</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="10">
         <v>43912</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="63">
-      <c r="A26" s="2">
+    <row r="26" spans="1:12" ht="38">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="9">
         <v>43913</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="10">
         <v>43913</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="12">
         <v>43916</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="84">
-      <c r="A27" s="2">
+    <row r="27" spans="1:12" ht="76">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>43914</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="10">
         <v>43914</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="105">
-      <c r="A28" s="2">
+    <row r="28" spans="1:12" ht="95">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="9">
         <v>43914</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="10">
         <v>43914</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="21">
-      <c r="A29" s="2">
+    <row r="29" spans="1:12" ht="19">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>43915</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="10">
         <v>43915</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="21">
-      <c r="A30" s="2">
+    <row r="30" spans="1:12" ht="19">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="9">
         <v>43915</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="10">
         <v>43915</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K30" s="30" t="s">
+      <c r="K30" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="21">
-      <c r="A31" s="2">
+    <row r="31" spans="1:12" ht="19">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="9">
         <v>43915</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="10">
         <v>43915</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="7">
         <v>26</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="K31" s="30" t="s">
+      <c r="I31" s="7"/>
+      <c r="K31" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="21">
-      <c r="A32" s="2">
+    <row r="32" spans="1:12" ht="19">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="9">
         <v>43915</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="10">
         <v>43915</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="7">
         <v>27</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="K32" s="30" t="s">
+      <c r="I32" s="7"/>
+      <c r="K32" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="105">
-      <c r="A33" s="2">
+    <row r="33" spans="1:12" ht="76">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="9">
         <v>43916</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="23">
         <v>43916</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="21">
-      <c r="A34" s="2">
+    <row r="34" spans="1:12" ht="19">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <v>43916</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="23">
         <v>43916</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="7">
         <v>23</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="21">
-      <c r="A35" s="2">
+    <row r="35" spans="1:12" ht="19">
+      <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <v>43916</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="23">
         <v>43916</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="84">
-      <c r="A36" s="2">
+    <row r="36" spans="1:12" ht="57">
+      <c r="A36" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="9">
         <v>43917</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="23">
         <v>43917</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="21">
-      <c r="A37" s="2">
+    <row r="37" spans="1:12" ht="19">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="9">
         <v>43918</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="23">
         <v>43918</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="21">
-      <c r="A38" s="2">
+    <row r="38" spans="1:12" ht="19">
+      <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="9">
         <v>43918</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="23">
         <v>43918</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="2">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="9">
         <v>43918</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="23">
         <v>43918</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="2">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="9">
         <v>43918</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="23">
         <v>43918</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="7">
         <v>35</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="2">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="9">
         <v>43918</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="23">
         <v>43918</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="7">
         <v>35</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="21">
-      <c r="A42" s="2">
+    <row r="42" spans="1:12" ht="19">
+      <c r="A42" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="9">
         <v>43919</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="23">
         <v>43919</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="21">
-      <c r="A43" s="2">
+    <row r="43" spans="1:12" ht="19">
+      <c r="A43" s="20">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="9">
         <v>43919</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="23">
         <v>43919</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="7">
         <v>41</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="21">
-      <c r="A44" s="2">
+    <row r="44" spans="1:12" ht="19">
+      <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="9">
         <v>43919</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="23">
         <v>43919</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="7">
         <v>41</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="21">
-      <c r="A45" s="2">
+    <row r="45" spans="1:12" ht="19">
+      <c r="A45" s="20">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="9">
         <v>43919</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="23">
         <v>43919</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="7">
         <v>41</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="2">
+      <c r="A46" s="20">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="9">
         <v>43919</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="23">
         <v>43919</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="7">
         <v>41</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="21">
-      <c r="A47" s="2">
+    <row r="47" spans="1:12" ht="19">
+      <c r="A47" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="9">
         <v>43919</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="23">
         <v>43919</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="7">
         <v>27</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K47" s="30" t="s">
+      <c r="K47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="21">
-      <c r="A48" s="2">
+    <row r="48" spans="1:12" ht="19">
+      <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="9">
         <v>43919</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="23">
         <v>43919</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="42">
-      <c r="A49" s="2">
+    <row r="49" spans="1:12" ht="38">
+      <c r="A49" s="20">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="9">
         <v>43920</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="23">
         <v>43920</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="7">
         <v>41</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="K49" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="38">
+      <c r="A50" s="20">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D50" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" s="7">
+        <v>41</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19">
+      <c r="A51" s="20">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D51" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="7">
+        <v>41</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="19">
+      <c r="A52" s="20">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D52" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="7">
+        <v>41</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="20">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D53" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="7">
+        <v>45</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="20">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D54" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="7">
+        <v>45</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="20">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D55" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="7">
+        <v>45</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="19">
+      <c r="A56" s="20">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D56" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="19">
+      <c r="A57" s="20">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D57" s="23">
+        <v>43920</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="19">
+      <c r="A58" s="20">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D58" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="7">
+        <v>41</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="19">
+      <c r="A59" s="20">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D59" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="38">
+      <c r="A60" s="20">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D60" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="7">
+        <v>41</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60" s="19"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="20">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D61" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="7">
+        <v>41</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="20">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D62" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="7">
+        <v>45</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="20">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D63" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="7">
+        <v>45</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="20">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D64" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="7">
+        <v>45</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="20">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D65" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="7">
+        <v>45</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="20">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D66" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="7">
+        <v>45</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="19">
+      <c r="A67" s="20">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D67" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L49" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="42">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D50" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G50" s="12">
-        <v>41</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="21">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D51" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="F67" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="12">
-        <v>41</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="21">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D52" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="K67" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="19">
+      <c r="A68" s="20">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D68" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="12">
-        <v>41</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D53" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="31" t="s">
+      <c r="K68" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="19">
+      <c r="A69" s="20">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D69" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="19">
+      <c r="A70" s="20">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D70" s="23">
+        <v>43921</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="20">
+      <c r="A71" s="20">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D71" s="23">
+        <v>43922</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G71" s="7">
         <v>45</v>
       </c>
-      <c r="H53" s="32" t="s">
+      <c r="H71" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="K53" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D54" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" s="31" t="s">
+      <c r="K71" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="20">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D72" s="23">
+        <v>43922</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="12">
-        <v>45</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D55" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="31" t="s">
+      <c r="G72" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="20">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D73" s="23">
+        <v>43922</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="12">
-        <v>45</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="21">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D56" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="21">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" s="6">
-        <v>43920</v>
-      </c>
-      <c r="D57" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="H73" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="20">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D74" s="23">
+        <v>43922</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="21">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D58" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="12">
-        <v>41</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="21">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D59" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="42">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D60" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G60" s="12">
-        <v>41</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="L60" s="30"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D61" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F61" s="31" t="s">
+      <c r="F74" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G61" s="12">
-        <v>41</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D62" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" s="12">
-        <v>45</v>
-      </c>
-      <c r="H62" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D63" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" s="12">
-        <v>45</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D64" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G64" s="12">
-        <v>45</v>
-      </c>
-      <c r="H64" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D65" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="12">
-        <v>45</v>
-      </c>
-      <c r="H65" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D66" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="12">
-        <v>45</v>
-      </c>
-      <c r="H66" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="21">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D67" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="21">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D68" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="21">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D69" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="21">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="6">
-        <v>43921</v>
-      </c>
-      <c r="D70" s="8">
-        <v>43921</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="6">
-        <v>43922</v>
-      </c>
-      <c r="D71" s="8">
-        <v>43922</v>
-      </c>
-      <c r="L71" s="12" t="s">
+      <c r="G74" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="6">
-        <v>43922</v>
-      </c>
-      <c r="D72" s="8">
-        <v>43922</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="6">
-        <v>43922</v>
-      </c>
-      <c r="D73" s="8">
-        <v>43922</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>215</v>
+      <c r="K74" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{A7235153-F297-A345-A972-8712BCA67207}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{1C40E035-E153-DB45-9573-8247864BEBD6}"/>
@@ -4269,6 +4343,7 @@
     <hyperlink ref="L51" r:id="rId40" xr:uid="{ED0C40F6-8F20-0047-990E-BCBF6AC0917D}"/>
     <hyperlink ref="L52" r:id="rId41" xr:uid="{9B091292-F2DD-1642-A635-CEAB6A40C81A}"/>
     <hyperlink ref="K51" r:id="rId42" xr:uid="{17B75667-2165-6D4F-9D05-D31F3E20E2BD}"/>
+    <hyperlink ref="K71" r:id="rId43" xr:uid="{63F9F859-B264-7446-BACA-0671F748045F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F85EC-0B84-2E4C-A03B-F9481958F100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E537CE98-9462-AD40-9DEF-666C83DDA6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="9340" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="228">
   <si>
     <t>関連</t>
   </si>
@@ -1517,6 +1517,31 @@
       <t>リカn</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000618092.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000618093.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000618094.pdf</t>
+  </si>
+  <si>
+    <t>京都府69例目（京都市42例目）との接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
       <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2041,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2680,7 +2705,9 @@
       <c r="I19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="12">
+        <v>43922</v>
+      </c>
       <c r="K19" s="19" t="s">
         <v>87</v>
       </c>
@@ -2831,7 +2858,9 @@
       <c r="H24" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="12">
+        <v>43922</v>
+      </c>
       <c r="K24" s="19" t="s">
         <v>111</v>
       </c>
@@ -4296,6 +4325,78 @@
       </c>
       <c r="K74" s="7" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="19">
+      <c r="A75" s="20">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D75" s="23">
+        <v>43922</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="19">
+      <c r="A76" s="20">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D76" s="23">
+        <v>43922</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="19">
+      <c r="A77" s="20">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D77" s="23">
+        <v>43922</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E537CE98-9462-AD40-9DEF-666C83DDA6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44505F8E-4FAB-5C48-83A1-AA002BCF012D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="8000" yWindow="-21140" windowWidth="28200" windowHeight="12460" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="246">
   <si>
     <t>関連</t>
   </si>
@@ -1545,6 +1545,131 @@
       <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.000Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.001Z</t>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.002Z</t>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.003Z</t>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.004Z</t>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.005Z</t>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.006Z</t>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.007Z</t>
+  </si>
+  <si>
+    <t>2020-04-02T08:00:00.008Z</t>
+  </si>
+  <si>
+    <t>山城北保健所管内</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府52例目（3月23日交流会参加者）の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200402-77.pdf</t>
+  </si>
+  <si>
+    <t>10歳未満男児</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ダンジ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府63例目（3月23日交流会参加者）の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府65例目（3月23日交流会参加者）の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府61例目（3月23日交流会参加者）の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200402-82-85.pdf</t>
   </si>
 </sst>
 </file>
@@ -2066,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4392,12 +4517,245 @@
       <c r="F77" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="G77" s="7">
+        <v>69</v>
+      </c>
       <c r="H77" s="7" t="s">
         <v>227</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>226</v>
       </c>
+    </row>
+    <row r="78" spans="1:11" ht="38">
+      <c r="A78" s="20">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D78" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="7">
+        <v>52</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="19">
+      <c r="A79" s="20">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D79" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="19">
+      <c r="A80" s="20">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D80" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="19">
+      <c r="A81" s="20">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D81" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="19">
+      <c r="A82" s="20">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D82" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="38">
+      <c r="A83" s="20">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D83" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G83" s="7">
+        <v>63</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="38">
+      <c r="A84" s="20">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D84" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" s="7">
+        <v>65</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="38">
+      <c r="A85" s="20">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D85" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G85" s="7">
+        <v>61</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="38">
+      <c r="A86" s="20">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D86" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G86" s="7">
+        <v>61</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44505F8E-4FAB-5C48-83A1-AA002BCF012D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147F7ED6-5114-FF40-A271-FF5ECCA224C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="-21140" windowWidth="28200" windowHeight="12460" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="360" yWindow="-21140" windowWidth="22160" windowHeight="18240" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'covid-19-kyoto'!$A$1:$L$89</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="253">
   <si>
     <t>関連</t>
   </si>
@@ -1670,6 +1673,79 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200402-82-85.pdf</t>
+  </si>
+  <si>
+    <t>80代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267904/200402oshirase46-50.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267905/200402oshirase51.pdf</t>
+  </si>
+  <si>
+    <t>京都府44例目（京都市30例目患者）の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンジヤ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府69例目（京都市42例目患者）の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>（キョウトシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000267/267907/200402oshirase52.pdf</t>
+  </si>
+  <si>
+    <t>京都府75目（京都市44例目患者）の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">レイメ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>（キョウトシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2191,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2208,7 +2284,8 @@
     <col min="8" max="8" width="22" style="7" customWidth="1"/>
     <col min="9" max="9" width="32" style="14" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="7"/>
+    <col min="11" max="11" width="16.28515625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19">
@@ -4575,6 +4652,9 @@
       <c r="F79" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="K79" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="19">
       <c r="A80" s="20">
@@ -4595,6 +4675,9 @@
       <c r="F80" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="K80" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="19">
       <c r="A81" s="20">
@@ -4615,6 +4698,9 @@
       <c r="F81" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="K81" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="19">
       <c r="A82" s="20">
@@ -4635,6 +4721,9 @@
       <c r="F82" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="K82" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="38">
       <c r="A83" s="20">
@@ -4752,12 +4841,95 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="23"/>
+    <row r="87" spans="1:11" ht="19">
+      <c r="A87" s="20">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D87" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G87" s="7">
+        <v>44</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="19">
+      <c r="A88" s="20">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D88" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G88" s="7">
+        <v>69</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="19">
+      <c r="A89" s="20">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D89" s="23">
+        <v>43923</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G89" s="7">
+        <v>75</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L89" xr:uid="{409130CB-F764-2748-A6B8-E1F2B13D3B3A}"/>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{A7235153-F297-A345-A972-8712BCA67207}"/>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147F7ED6-5114-FF40-A271-FF5ECCA224C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066316CE-C80B-9A44-831B-4E13C70A34B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="-21140" windowWidth="22160" windowHeight="18240" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="257">
   <si>
     <t>関連</t>
   </si>
@@ -1744,6 +1744,42 @@
     </rPh>
     <rPh sb="18" eb="21">
       <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-03T08:00:00.008Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/2020403-89-95.pdf</t>
+  </si>
+  <si>
+    <t>京都府60例目（3月14日ゼミ祝賀会参加者）の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シュク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sy</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1870,7 +1906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,9 +1978,6 @@
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2267,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2280,7 +2313,7 @@
     <col min="3" max="4" width="10.7109375" style="20"/>
     <col min="5" max="5" width="10.7109375" style="7"/>
     <col min="6" max="6" width="10.7109375" style="14"/>
-    <col min="7" max="7" width="10.7109375" style="7"/>
+    <col min="7" max="7" width="10.7109375" style="20"/>
     <col min="8" max="8" width="22" style="7" customWidth="1"/>
     <col min="9" max="9" width="32" style="14" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="7" bestFit="1" customWidth="1"/>
@@ -2838,7 +2871,6 @@
       <c r="F17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="20"/>
       <c r="H17" s="17" t="s">
         <v>47</v>
       </c>
@@ -2900,7 +2932,6 @@
       <c r="F19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="20"/>
       <c r="H19" s="14" t="s">
         <v>86</v>
       </c>
@@ -2998,7 +3029,7 @@
       <c r="F22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -3269,7 +3300,7 @@
       <c r="F31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="20">
         <v>26</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -3302,7 +3333,7 @@
       <c r="F32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="20">
         <v>27</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -3364,7 +3395,7 @@
       <c r="F34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="20">
         <v>23</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -3490,7 +3521,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" ht="38">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -3506,7 +3537,7 @@
       <c r="E39" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="22" t="s">
         <v>166</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -3516,7 +3547,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="38">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -3532,10 +3563,10 @@
       <c r="E40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="20">
         <v>35</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -3545,7 +3576,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="38">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -3561,10 +3592,10 @@
       <c r="E41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="20">
         <v>35</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -3622,7 +3653,7 @@
       <c r="F43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="20">
         <v>41</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -3654,7 +3685,7 @@
       <c r="F44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="20">
         <v>41</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -3686,7 +3717,7 @@
       <c r="F45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="20">
         <v>41</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -3699,7 +3730,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="38">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -3715,10 +3746,10 @@
       <c r="E46" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="20">
         <v>41</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -3750,7 +3781,7 @@
       <c r="F47" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="20">
         <v>27</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -3811,7 +3842,7 @@
       <c r="F49" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="20">
         <v>41</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -3843,7 +3874,7 @@
       <c r="F50" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="20">
         <v>41</v>
       </c>
       <c r="H50" s="7" t="s">
@@ -3875,7 +3906,7 @@
       <c r="F51" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="20">
         <v>41</v>
       </c>
       <c r="H51" s="7" t="s">
@@ -3884,7 +3915,7 @@
       <c r="K51" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="L51" s="25" t="s">
+      <c r="L51" s="24" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3907,7 +3938,7 @@
       <c r="F52" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="20">
         <v>41</v>
       </c>
       <c r="H52" s="7" t="s">
@@ -3916,11 +3947,11 @@
       <c r="K52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L52" s="25" t="s">
+      <c r="L52" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="38">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -3936,13 +3967,13 @@
       <c r="E53" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="20">
         <v>45</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K53" s="7" t="s">
@@ -3952,7 +3983,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="38">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -3968,13 +3999,13 @@
       <c r="E54" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="20">
         <v>45</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K54" s="7" t="s">
@@ -3984,7 +4015,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" ht="38">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -4000,13 +4031,13 @@
       <c r="E55" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="20">
         <v>45</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K55" s="7" t="s">
@@ -4084,7 +4115,7 @@
       <c r="F58" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="20">
         <v>41</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -4139,7 +4170,7 @@
       <c r="F60" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="20">
         <v>41</v>
       </c>
       <c r="H60" s="7" t="s">
@@ -4150,7 +4181,7 @@
       </c>
       <c r="L60" s="19"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" ht="38">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -4166,10 +4197,10 @@
       <c r="E61" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="20">
         <v>41</v>
       </c>
       <c r="H61" s="7" t="s">
@@ -4179,7 +4210,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" ht="38">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -4195,20 +4226,20 @@
       <c r="E62" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="20">
         <v>45</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" ht="38">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -4224,20 +4255,20 @@
       <c r="E63" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="20">
         <v>45</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" ht="38">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -4253,20 +4284,20 @@
       <c r="E64" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="20">
         <v>45</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="38">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -4282,20 +4313,20 @@
       <c r="E65" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="20">
         <v>45</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="38">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -4311,13 +4342,13 @@
       <c r="E66" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="20">
         <v>45</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K66" s="7" t="s">
@@ -4416,7 +4447,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="20">
+    <row r="71" spans="1:11" ht="38">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -4432,20 +4463,20 @@
       <c r="E71" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="20">
         <v>45</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="25" t="s">
         <v>195</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" ht="38">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -4461,10 +4492,10 @@
       <c r="E72" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="20" t="s">
         <v>220</v>
       </c>
       <c r="H72" s="7" t="s">
@@ -4474,7 +4505,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" ht="38">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -4490,7 +4521,7 @@
       <c r="E73" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="22" t="s">
         <v>166</v>
       </c>
       <c r="H73" s="7" t="s">
@@ -4500,7 +4531,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" ht="38">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -4516,10 +4547,10 @@
       <c r="E74" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="20" t="s">
         <v>216</v>
       </c>
       <c r="H74" s="7" t="s">
@@ -4594,7 +4625,7 @@
       <c r="F77" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="20">
         <v>69</v>
       </c>
       <c r="H77" s="7" t="s">
@@ -4623,7 +4654,7 @@
       <c r="F78" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="20">
         <v>52</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -4744,7 +4775,7 @@
       <c r="F83" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="20">
         <v>63</v>
       </c>
       <c r="H83" s="7" t="s">
@@ -4773,7 +4804,7 @@
       <c r="F84" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="20">
         <v>65</v>
       </c>
       <c r="H84" s="7" t="s">
@@ -4802,7 +4833,7 @@
       <c r="F85" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="20">
         <v>61</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -4831,7 +4862,7 @@
       <c r="F86" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="20">
         <v>61</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -4860,7 +4891,7 @@
       <c r="F87" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="20">
         <v>44</v>
       </c>
       <c r="H87" s="7" t="s">
@@ -4889,7 +4920,7 @@
       <c r="F88" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="20">
         <v>69</v>
       </c>
       <c r="H88" s="7" t="s">
@@ -4918,7 +4949,7 @@
       <c r="F89" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="20">
         <v>75</v>
       </c>
       <c r="H89" s="7" t="s">
@@ -4926,6 +4957,203 @@
       </c>
       <c r="K89" s="7" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="38">
+      <c r="A90" s="20">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D90" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G90" s="20">
+        <v>65</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="38">
+      <c r="A91" s="20">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D91" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G91" s="20">
+        <v>65</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="38">
+      <c r="A92" s="20">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D92" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G92" s="20">
+        <v>65</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="38">
+      <c r="A93" s="20">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D93" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" s="20">
+        <v>60</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="38">
+      <c r="A94" s="20">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D94" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G94" s="20">
+        <v>60</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="38">
+      <c r="A95" s="20">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D95" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G95" s="20">
+        <v>60</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="38">
+      <c r="A96" s="20">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D96" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066316CE-C80B-9A44-831B-4E13C70A34B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA79F77-E6A3-4A43-BC07-DC4510F6051B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-21140" windowWidth="22160" windowHeight="18240" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="12360" yWindow="-21140" windowWidth="22160" windowHeight="18240" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="268">
   <si>
     <t>関連</t>
   </si>
@@ -1780,6 +1780,110 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代女性</t>
+  </si>
+  <si>
+    <t>60代女性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268006/200403oshirase(53-54).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268007/200403oshirase(55).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268008/200403oshirase(56-57).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268009/200403oshirase(58).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268010/200403oshirase(59-63).pdf</t>
+  </si>
+  <si>
+    <t>愛媛県罹患者の所属する3月21日ゼミ懇親会参加者</t>
+    <rPh sb="0" eb="3">
+      <t>エヒメ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リカn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>コンシンカイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海外渡航していた同居，京都府68例目（京都市41例目）の接触者</t>
+    <rPh sb="0" eb="4">
+      <t>カイガイトコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府87例目（京都市51例目）患者の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1906,7 +2010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,6 +2087,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2300,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5154,6 +5261,283 @@
       </c>
       <c r="K96" s="7" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="19">
+      <c r="A97" s="20">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D97" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="19">
+      <c r="A98" s="20">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D98" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="19">
+      <c r="A99" s="20">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D99" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" s="20">
+        <v>68</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="19">
+      <c r="A100" s="20">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D100" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="20">
+        <v>68</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="19">
+      <c r="A101" s="20">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D101" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="20">
+        <v>87</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="19">
+      <c r="A102" s="20">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D102" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="19">
+      <c r="A103" s="20">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D103" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="19">
+      <c r="A104" s="20">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D104" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="19">
+      <c r="A105" s="20">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D105" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="19">
+      <c r="A106" s="20">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D106" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="19">
+      <c r="A107" s="20">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D107" s="23">
+        <v>43924</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA79F77-E6A3-4A43-BC07-DC4510F6051B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3924559-581D-3745-8A72-1A5ECBFB4A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="-21140" windowWidth="22160" windowHeight="18240" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="18600" yWindow="1960" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -1312,10 +1312,6 @@
     <t>https://www.kyoto-np.co.jp/articles/-/203720</t>
   </si>
   <si>
-    <t>short_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>南丹保健所管内</t>
     <rPh sb="5" eb="7">
       <t>カンナイ</t>
@@ -1885,6 +1881,10 @@
     <rPh sb="19" eb="22">
       <t>セッショク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>short_data</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2439,7 +2439,7 @@
         <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>54</v>
@@ -2923,7 +2923,7 @@
         <v>43919</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="114">
@@ -3956,7 +3956,7 @@
         <v>179</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L49" s="19" t="s">
         <v>188</v>
@@ -3979,7 +3979,7 @@
         <v>176</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G50" s="20">
         <v>41</v>
@@ -3988,7 +3988,7 @@
         <v>179</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L50" s="19" t="s">
         <v>188</v>
@@ -4020,10 +4020,10 @@
         <v>179</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19">
@@ -4052,10 +4052,10 @@
         <v>179</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="38">
@@ -4081,13 +4081,13 @@
         <v>45</v>
       </c>
       <c r="H53" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="38">
@@ -4104,7 +4104,7 @@
         <v>43920</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>166</v>
@@ -4113,13 +4113,13 @@
         <v>45</v>
       </c>
       <c r="H54" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="38">
@@ -4145,13 +4145,13 @@
         <v>45</v>
       </c>
       <c r="H55" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="19">
@@ -4174,10 +4174,10 @@
         <v>85</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="19">
@@ -4200,7 +4200,7 @@
         <v>85</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="19">
@@ -4208,7 +4208,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58" s="9">
         <v>43921</v>
@@ -4229,7 +4229,7 @@
         <v>179</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="19">
@@ -4237,7 +4237,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C59" s="9">
         <v>43921</v>
@@ -4252,10 +4252,10 @@
         <v>85</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="38">
@@ -4263,7 +4263,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C60" s="9">
         <v>43921</v>
@@ -4275,7 +4275,7 @@
         <v>182</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G60" s="20">
         <v>41</v>
@@ -4284,7 +4284,7 @@
         <v>179</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L60" s="19"/>
     </row>
@@ -4293,7 +4293,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" s="9">
         <v>43921</v>
@@ -4314,7 +4314,7 @@
         <v>179</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="38">
@@ -4322,7 +4322,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C62" s="9">
         <v>43921</v>
@@ -4331,7 +4331,7 @@
         <v>43921</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>166</v>
@@ -4340,10 +4340,10 @@
         <v>45</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="38">
@@ -4351,7 +4351,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="9">
         <v>43921</v>
@@ -4369,10 +4369,10 @@
         <v>45</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="38">
@@ -4380,7 +4380,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C64" s="9">
         <v>43921</v>
@@ -4389,7 +4389,7 @@
         <v>43921</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>166</v>
@@ -4398,10 +4398,10 @@
         <v>45</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="38">
@@ -4409,7 +4409,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="9">
         <v>43921</v>
@@ -4427,10 +4427,10 @@
         <v>45</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="38">
@@ -4438,7 +4438,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="9">
         <v>43921</v>
@@ -4447,7 +4447,7 @@
         <v>43921</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>166</v>
@@ -4456,10 +4456,10 @@
         <v>45</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="19">
@@ -4467,7 +4467,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="9">
         <v>43921</v>
@@ -4476,13 +4476,13 @@
         <v>43921</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>85</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="19">
@@ -4490,7 +4490,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="9">
         <v>43921</v>
@@ -4505,7 +4505,7 @@
         <v>85</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="19">
@@ -4513,7 +4513,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="9">
         <v>43921</v>
@@ -4522,13 +4522,13 @@
         <v>43921</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>85</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="19">
@@ -4536,7 +4536,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="9">
         <v>43921</v>
@@ -4545,13 +4545,13 @@
         <v>43921</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>85</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="38">
@@ -4559,7 +4559,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="9">
         <v>43922</v>
@@ -4577,10 +4577,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="38">
@@ -4588,7 +4588,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="9">
         <v>43922</v>
@@ -4603,13 +4603,13 @@
         <v>166</v>
       </c>
       <c r="G72" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="K72" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="38">
@@ -4617,7 +4617,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="9">
         <v>43922</v>
@@ -4626,16 +4626,16 @@
         <v>43922</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F73" s="22" t="s">
         <v>166</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="38">
@@ -4643,7 +4643,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C74" s="9">
         <v>43922</v>
@@ -4658,13 +4658,13 @@
         <v>166</v>
       </c>
       <c r="G74" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="19">
@@ -4672,7 +4672,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75" s="9">
         <v>43922</v>
@@ -4687,7 +4687,7 @@
         <v>85</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="19">
@@ -4695,7 +4695,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" s="9">
         <v>43922</v>
@@ -4710,7 +4710,7 @@
         <v>85</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="19">
@@ -4718,7 +4718,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" s="9">
         <v>43922</v>
@@ -4736,10 +4736,10 @@
         <v>69</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="38">
@@ -4747,7 +4747,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78" s="9">
         <v>43923</v>
@@ -4759,16 +4759,16 @@
         <v>184</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G78" s="20">
         <v>52</v>
       </c>
       <c r="H78" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="19">
@@ -4776,7 +4776,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" s="9">
         <v>43923</v>
@@ -4791,7 +4791,7 @@
         <v>85</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="19">
@@ -4799,7 +4799,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C80" s="9">
         <v>43923</v>
@@ -4814,7 +4814,7 @@
         <v>85</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="19">
@@ -4822,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81" s="9">
         <v>43923</v>
@@ -4837,7 +4837,7 @@
         <v>85</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="19">
@@ -4845,7 +4845,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="9">
         <v>43923</v>
@@ -4860,7 +4860,7 @@
         <v>85</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="38">
@@ -4868,7 +4868,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C83" s="9">
         <v>43923</v>
@@ -4877,19 +4877,19 @@
         <v>43923</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G83" s="20">
         <v>63</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="38">
@@ -4897,7 +4897,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C84" s="9">
         <v>43923</v>
@@ -4906,19 +4906,19 @@
         <v>43923</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G84" s="20">
         <v>65</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="38">
@@ -4926,7 +4926,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C85" s="9">
         <v>43923</v>
@@ -4938,16 +4938,16 @@
         <v>165</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G85" s="20">
         <v>61</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="38">
@@ -4955,7 +4955,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="9">
         <v>43923</v>
@@ -4967,16 +4967,16 @@
         <v>104</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G86" s="20">
         <v>61</v>
       </c>
       <c r="H86" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K86" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="19">
@@ -4984,7 +4984,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="9">
         <v>43923</v>
@@ -4993,7 +4993,7 @@
         <v>43923</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>85</v>
@@ -5002,10 +5002,10 @@
         <v>44</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="19">
@@ -5013,7 +5013,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C88" s="9">
         <v>43923</v>
@@ -5031,10 +5031,10 @@
         <v>69</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="19">
@@ -5042,7 +5042,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C89" s="9">
         <v>43923</v>
@@ -5051,7 +5051,7 @@
         <v>43923</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>85</v>
@@ -5060,10 +5060,10 @@
         <v>75</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="38">
@@ -5071,7 +5071,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C90" s="9">
         <v>43924</v>
@@ -5083,16 +5083,16 @@
         <v>165</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G90" s="20">
         <v>65</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="38">
@@ -5100,7 +5100,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C91" s="9">
         <v>43924</v>
@@ -5112,16 +5112,16 @@
         <v>165</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G91" s="20">
         <v>65</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="38">
@@ -5129,7 +5129,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" s="9">
         <v>43924</v>
@@ -5141,16 +5141,16 @@
         <v>165</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G92" s="20">
         <v>65</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="38">
@@ -5158,7 +5158,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" s="9">
         <v>43924</v>
@@ -5167,19 +5167,19 @@
         <v>43924</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G93" s="20">
         <v>60</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="38">
@@ -5187,7 +5187,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C94" s="9">
         <v>43924</v>
@@ -5199,16 +5199,16 @@
         <v>164</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G94" s="20">
         <v>60</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="38">
@@ -5216,7 +5216,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" s="9">
         <v>43924</v>
@@ -5228,16 +5228,16 @@
         <v>164</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G95" s="20">
         <v>60</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="38">
@@ -5245,7 +5245,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C96" s="9">
         <v>43924</v>
@@ -5254,13 +5254,13 @@
         <v>43924</v>
       </c>
       <c r="E96" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="K96" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="19">
@@ -5268,7 +5268,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" s="9">
         <v>43924</v>
@@ -5283,10 +5283,10 @@
         <v>85</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="19">
@@ -5294,7 +5294,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C98" s="9">
         <v>43924</v>
@@ -5309,10 +5309,10 @@
         <v>85</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="19">
@@ -5320,7 +5320,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C99" s="9">
         <v>43924</v>
@@ -5338,10 +5338,10 @@
         <v>68</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="19">
@@ -5349,7 +5349,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C100" s="9">
         <v>43924</v>
@@ -5358,7 +5358,7 @@
         <v>43924</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>85</v>
@@ -5367,10 +5367,10 @@
         <v>68</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="19">
@@ -5378,7 +5378,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" s="9">
         <v>43924</v>
@@ -5396,10 +5396,10 @@
         <v>87</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="19">
@@ -5407,7 +5407,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C102" s="9">
         <v>43924</v>
@@ -5422,7 +5422,7 @@
         <v>85</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="19">
@@ -5430,7 +5430,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C103" s="9">
         <v>43924</v>
@@ -5439,13 +5439,13 @@
         <v>43924</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>85</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="19">
@@ -5453,7 +5453,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104" s="9">
         <v>43924</v>
@@ -5462,13 +5462,13 @@
         <v>43924</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>85</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="19">
@@ -5476,7 +5476,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C105" s="9">
         <v>43924</v>
@@ -5485,13 +5485,13 @@
         <v>43924</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>85</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="19">
@@ -5499,7 +5499,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C106" s="9">
         <v>43924</v>
@@ -5514,7 +5514,7 @@
         <v>85</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="19">
@@ -5522,7 +5522,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C107" s="9">
         <v>43924</v>
@@ -5537,7 +5537,7 @@
         <v>85</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3924559-581D-3745-8A72-1A5ECBFB4A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFCF4C-BE02-EA48-92D9-C6737D80284C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="1960" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="13320" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="274">
   <si>
     <t>関連</t>
   </si>
@@ -1886,6 +1886,53 @@
   <si>
     <t>short_data</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-04T08:00:00.008Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代男性</t>
+    <rPh sb="2" eb="4">
+      <t>ダイダンセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山城南保健所管内</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府71例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他府県から接触者として調査依頼あり</t>
+    <rPh sb="0" eb="1">
+      <t>タフケn</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200404-107-108.pdf</t>
   </si>
 </sst>
 </file>
@@ -2407,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5538,6 +5585,90 @@
       </c>
       <c r="K107" s="7" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="38">
+      <c r="A108" s="20">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D108" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G108" s="20">
+        <v>71</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="38">
+      <c r="A109" s="20">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D109" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G109" s="20">
+        <v>71</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="38">
+      <c r="A110" s="20">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D110" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFCF4C-BE02-EA48-92D9-C6737D80284C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF808EC8-03FE-6A47-A75A-3A9AA5B6AA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="12440" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="278">
   <si>
     <t>関連</t>
   </si>
@@ -1933,6 +1933,42 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200404-107-108.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268014/200404oshirase(64-70).pdf</t>
+  </si>
+  <si>
+    <t>60代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市15例目（京都府24例目）の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2454,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3159,7 +3195,9 @@
       <c r="I21" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="12">
+        <v>43924</v>
+      </c>
       <c r="K21" s="7" t="s">
         <v>98</v>
       </c>
@@ -5669,6 +5707,173 @@
       </c>
       <c r="K110" s="7" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="19">
+      <c r="A111" s="20">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D111" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="19">
+      <c r="A112" s="20">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D112" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="19">
+      <c r="A113" s="20">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D113" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="19">
+      <c r="A114" s="20">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D114" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="19">
+      <c r="A115" s="20">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D115" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="19">
+      <c r="A116" s="20">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D116" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="19">
+      <c r="A117" s="20">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" s="9">
+        <v>43925</v>
+      </c>
+      <c r="D117" s="23">
+        <v>43925</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G117" s="20">
+        <v>24</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF808EC8-03FE-6A47-A75A-3A9AA5B6AA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C3DE5-9E59-E54B-A2F7-8E98DAB85E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="19100" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="284">
   <si>
     <t>関連</t>
   </si>
@@ -1966,6 +1966,40 @@
       <t>レイ</t>
     </rPh>
     <rPh sb="17" eb="20">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-05T08:00:00.008Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大阪府</t>
+    <rPh sb="0" eb="1">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200405-117-119.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/200405oshirase-all.pdf</t>
+  </si>
+  <si>
+    <t>滋賀県</t>
+    <rPh sb="0" eb="3">
+      <t>シガケn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市54例目患者の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
       <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2490,10 +2524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5874,6 +5908,225 @@
       </c>
       <c r="K117" s="7" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="38">
+      <c r="A118" s="20">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D118" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="38">
+      <c r="A119" s="20">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D119" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" s="20">
+        <v>119</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="38">
+      <c r="A120" s="20">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D120" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G120" s="20">
+        <v>118</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="19">
+      <c r="A121" s="20">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D121" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="19">
+      <c r="A122" s="20">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D122" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="19">
+      <c r="A123" s="20">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D123" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="19">
+      <c r="A124" s="20">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D124" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="19">
+      <c r="A125" s="20">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D125" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G125" s="20">
+        <v>97</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="19">
+      <c r="A126" s="20">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D126" s="23">
+        <v>43926</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C3DE5-9E59-E54B-A2F7-8E98DAB85E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C34B3C-2365-2D48-B805-B6248F01C41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="19100" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="5120" yWindow="580" windowWidth="35840" windowHeight="21940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="292">
   <si>
     <t>関連</t>
   </si>
@@ -2003,6 +2003,66 @@
       <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-06T08:00:00.008Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乙訓保健所管内</t>
+    <rPh sb="0" eb="3">
+      <t>オトク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200406-126.pdf</t>
+  </si>
+  <si>
+    <t>80代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市68例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>千葉県罹患者の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>千葉県</t>
+    <rPh sb="0" eb="3">
+      <t>チバク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268096/200406oshirase(77-83).pdf</t>
   </si>
 </sst>
 </file>
@@ -2524,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6127,6 +6187,214 @@
       </c>
       <c r="K126" s="7" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="38">
+      <c r="A127" s="20">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D127" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="19">
+      <c r="A128" s="20">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D128" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="19">
+      <c r="A129" s="20">
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D129" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G129" s="20">
+        <v>114</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="19">
+      <c r="A130" s="20">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D130" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G130" s="20">
+        <v>114</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="19">
+      <c r="A131" s="20">
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D131" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="19">
+      <c r="A132" s="20">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C132" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D132" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="19">
+      <c r="A133" s="20">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D133" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="19">
+      <c r="A134" s="20">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" s="9">
+        <v>43927</v>
+      </c>
+      <c r="D134" s="23">
+        <v>43927</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C34B3C-2365-2D48-B805-B6248F01C41B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D692931E-DB39-D740-969D-0FA40537E341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="580" windowWidth="35840" windowHeight="21940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="1100" yWindow="-21140" windowWidth="35840" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'covid-19-kyoto'!$A$1:$L$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'covid-19-kyoto'!$A$1:$L$146</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="308">
   <si>
     <t>関連</t>
   </si>
@@ -2064,6 +2064,129 @@
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268096/200406oshirase(77-83).pdf</t>
   </si>
+  <si>
+    <t>2020-04-07T08:00:00.008Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乙訓管内</t>
+    <rPh sb="0" eb="4">
+      <t>オトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丹後管内</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タンゴ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200407-134-136.pdf</t>
+  </si>
+  <si>
+    <t>山城北管内</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代男性</t>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府52例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">５２レイメ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府126例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市内</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代男性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市内</t>
+    <rPh sb="0" eb="4">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代女性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20代男性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>滋賀県からの調査依頼（接触者）</t>
+    <rPh sb="0" eb="3">
+      <t>シガケn</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市72例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府117例目の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2074,7 +2197,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2155,6 +2278,11 @@
       <name val="游ゴシック Regular"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="-webkit-standard"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2187,7 +2315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2267,6 +2395,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2584,10 +2718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L134"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2600,7 +2735,7 @@
     <col min="7" max="7" width="10.7109375" style="20"/>
     <col min="8" max="8" width="22" style="7" customWidth="1"/>
     <col min="9" max="9" width="32" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="7" customWidth="1"/>
     <col min="12" max="16384" width="10.7109375" style="7"/>
   </cols>
@@ -2633,7 +2768,7 @@
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -2907,7 +3042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19">
+    <row r="10" spans="1:12" ht="19" hidden="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3131,12 +3266,14 @@
       <c r="I16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="J16" s="18">
+        <v>43924</v>
+      </c>
       <c r="K16" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="228">
+    <row r="17" spans="1:12" ht="228" hidden="1">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3192,7 +3329,9 @@
         <v>51</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="J18" s="18">
+        <v>43924</v>
+      </c>
       <c r="K18" s="19" t="s">
         <v>52</v>
       </c>
@@ -3321,7 +3460,9 @@
       <c r="H22" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="12">
+        <v>43925</v>
+      </c>
       <c r="K22" s="19" t="s">
         <v>100</v>
       </c>
@@ -3387,7 +3528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="38">
+    <row r="25" spans="1:12" ht="38" hidden="1">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -3409,7 +3550,6 @@
       <c r="H25" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="12"/>
       <c r="K25" s="19" t="s">
         <v>116</v>
       </c>
@@ -3449,7 +3589,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="76">
+    <row r="27" spans="1:12" ht="76" hidden="1">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -3471,7 +3611,6 @@
       <c r="H27" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="12"/>
       <c r="K27" s="19" t="s">
         <v>129</v>
       </c>
@@ -3501,7 +3640,9 @@
       <c r="H28" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="27">
+        <v>43925</v>
+      </c>
       <c r="K28" s="19" t="s">
         <v>128</v>
       </c>
@@ -3509,7 +3650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="19">
+    <row r="29" spans="1:12" ht="19" hidden="1">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -3538,7 +3679,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19">
+    <row r="30" spans="1:12" ht="19" hidden="1">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -3567,7 +3708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19">
+    <row r="31" spans="1:12" ht="19" hidden="1">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -3600,7 +3741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19">
+    <row r="32" spans="1:12" ht="19" hidden="1">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -3633,7 +3774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="76">
+    <row r="33" spans="1:12" ht="76" hidden="1">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -3687,6 +3828,9 @@
       <c r="H34" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="J34" s="12">
+        <v>43923</v>
+      </c>
       <c r="K34" s="19" t="s">
         <v>150</v>
       </c>
@@ -3694,7 +3838,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19">
+    <row r="35" spans="1:12" ht="19" hidden="1">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -3723,7 +3867,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="57">
+    <row r="36" spans="1:12" ht="57" hidden="1">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -3749,7 +3893,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19">
+    <row r="37" spans="1:12" ht="19" hidden="1">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -3778,7 +3922,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19">
+    <row r="38" spans="1:12" ht="19" hidden="1">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -3807,7 +3951,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="38">
+    <row r="39" spans="1:12" ht="38" hidden="1">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -3833,7 +3977,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="38">
+    <row r="40" spans="1:12" ht="38" hidden="1">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -3862,7 +4006,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="38">
+    <row r="41" spans="1:12" ht="38" hidden="1">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -3891,7 +4035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19">
+    <row r="42" spans="1:12" ht="19" hidden="1">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -3920,7 +4064,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19">
+    <row r="43" spans="1:12" ht="19" hidden="1">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -3952,7 +4096,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19">
+    <row r="44" spans="1:12" ht="19" hidden="1">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -3984,7 +4128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19">
+    <row r="45" spans="1:12" ht="19" hidden="1">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -4016,7 +4160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="38">
+    <row r="46" spans="1:12" ht="38" hidden="1">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -4048,7 +4192,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19">
+    <row r="47" spans="1:12" ht="19" hidden="1">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -4080,7 +4224,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19">
+    <row r="48" spans="1:12" ht="19" hidden="1">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -4109,7 +4253,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="38">
+    <row r="49" spans="1:12" ht="38" hidden="1">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -4141,7 +4285,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="38">
+    <row r="50" spans="1:12" ht="38" hidden="1">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -4173,7 +4317,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19">
+    <row r="51" spans="1:12" ht="19" hidden="1">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -4205,7 +4349,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19">
+    <row r="52" spans="1:12" ht="19" hidden="1">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -4237,7 +4381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="38">
+    <row r="53" spans="1:12" ht="38" hidden="1">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -4269,7 +4413,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="38">
+    <row r="54" spans="1:12" ht="38" hidden="1">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -4301,7 +4445,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="38">
+    <row r="55" spans="1:12" ht="38" hidden="1">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -4333,7 +4477,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19">
+    <row r="56" spans="1:12" ht="19" hidden="1">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -4378,11 +4522,14 @@
       <c r="F57" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="J57" s="12">
+        <v>43928</v>
+      </c>
       <c r="K57" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19">
+    <row r="58" spans="1:12" ht="19" hidden="1">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -4411,7 +4558,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="19">
+    <row r="59" spans="1:12" ht="19" hidden="1">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -4437,7 +4584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="38">
+    <row r="60" spans="1:12" ht="38" hidden="1">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -4467,7 +4614,7 @@
       </c>
       <c r="L60" s="19"/>
     </row>
-    <row r="61" spans="1:12" ht="38">
+    <row r="61" spans="1:12" ht="38" hidden="1">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -4496,7 +4643,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="38">
+    <row r="62" spans="1:12" ht="38" hidden="1">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -4525,7 +4672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="38">
+    <row r="63" spans="1:12" ht="38" hidden="1">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -4554,7 +4701,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="38">
+    <row r="64" spans="1:12" ht="38" hidden="1">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -4583,7 +4730,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="38">
+    <row r="65" spans="1:11" ht="38" hidden="1">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -4612,7 +4759,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="38">
+    <row r="66" spans="1:11" ht="38" hidden="1">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -4641,7 +4788,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="19">
+    <row r="67" spans="1:11" ht="19" hidden="1">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -4664,7 +4811,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="19">
+    <row r="68" spans="1:11" ht="19" hidden="1">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -4687,7 +4834,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="19">
+    <row r="69" spans="1:11" ht="19" hidden="1">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -4710,7 +4857,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="19">
+    <row r="70" spans="1:11" ht="19" hidden="1">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -4733,7 +4880,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="38">
+    <row r="71" spans="1:11" ht="38" hidden="1">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -4762,7 +4909,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="38">
+    <row r="72" spans="1:11" ht="38" hidden="1">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -4791,7 +4938,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="38">
+    <row r="73" spans="1:11" ht="38" hidden="1">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -4817,7 +4964,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="38">
+    <row r="74" spans="1:11" ht="38" hidden="1">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -4846,7 +4993,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19">
+    <row r="75" spans="1:11" ht="19" hidden="1">
       <c r="A75" s="20">
         <v>74</v>
       </c>
@@ -4869,7 +5016,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="19">
+    <row r="76" spans="1:11" ht="19" hidden="1">
       <c r="A76" s="20">
         <v>75</v>
       </c>
@@ -4892,7 +5039,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="19">
+    <row r="77" spans="1:11" ht="19" hidden="1">
       <c r="A77" s="20">
         <v>76</v>
       </c>
@@ -4921,7 +5068,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="38">
+    <row r="78" spans="1:11" ht="38" hidden="1">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -4950,7 +5097,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="19">
+    <row r="79" spans="1:11" ht="19" hidden="1">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -4973,7 +5120,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19">
+    <row r="80" spans="1:11" ht="19" hidden="1">
       <c r="A80" s="20">
         <v>79</v>
       </c>
@@ -4996,7 +5143,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="19">
+    <row r="81" spans="1:11" ht="19" hidden="1">
       <c r="A81" s="20">
         <v>80</v>
       </c>
@@ -5019,7 +5166,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="19">
+    <row r="82" spans="1:11" ht="19" hidden="1">
       <c r="A82" s="20">
         <v>81</v>
       </c>
@@ -5042,7 +5189,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="38">
+    <row r="83" spans="1:11" ht="38" hidden="1">
       <c r="A83" s="20">
         <v>82</v>
       </c>
@@ -5071,7 +5218,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="38">
+    <row r="84" spans="1:11" ht="38" hidden="1">
       <c r="A84" s="20">
         <v>83</v>
       </c>
@@ -5100,7 +5247,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="38">
+    <row r="85" spans="1:11" ht="38" hidden="1">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -5129,7 +5276,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="38">
+    <row r="86" spans="1:11" ht="38" hidden="1">
       <c r="A86" s="20">
         <v>85</v>
       </c>
@@ -5158,7 +5305,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="19">
+    <row r="87" spans="1:11" ht="19" hidden="1">
       <c r="A87" s="20">
         <v>86</v>
       </c>
@@ -5187,7 +5334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="19">
+    <row r="88" spans="1:11" ht="19" hidden="1">
       <c r="A88" s="20">
         <v>87</v>
       </c>
@@ -5216,7 +5363,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="19">
+    <row r="89" spans="1:11" ht="19" hidden="1">
       <c r="A89" s="20">
         <v>88</v>
       </c>
@@ -5245,7 +5392,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="38">
+    <row r="90" spans="1:11" ht="38" hidden="1">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -5274,7 +5421,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="38">
+    <row r="91" spans="1:11" ht="38" hidden="1">
       <c r="A91" s="20">
         <v>90</v>
       </c>
@@ -5303,7 +5450,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="38">
+    <row r="92" spans="1:11" ht="38" hidden="1">
       <c r="A92" s="20">
         <v>91</v>
       </c>
@@ -5332,7 +5479,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="38">
+    <row r="93" spans="1:11" ht="38" hidden="1">
       <c r="A93" s="20">
         <v>92</v>
       </c>
@@ -5361,7 +5508,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="38">
+    <row r="94" spans="1:11" ht="38" hidden="1">
       <c r="A94" s="20">
         <v>93</v>
       </c>
@@ -5390,7 +5537,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="38">
+    <row r="95" spans="1:11" ht="38" hidden="1">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -5419,7 +5566,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="38">
+    <row r="96" spans="1:11" ht="38" hidden="1">
       <c r="A96" s="20">
         <v>95</v>
       </c>
@@ -5442,7 +5589,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19">
+    <row r="97" spans="1:11" ht="19" hidden="1">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -5468,7 +5615,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19">
+    <row r="98" spans="1:11" ht="19" hidden="1">
       <c r="A98" s="20">
         <v>97</v>
       </c>
@@ -5494,7 +5641,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19">
+    <row r="99" spans="1:11" ht="19" hidden="1">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -5523,7 +5670,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19">
+    <row r="100" spans="1:11" ht="19" hidden="1">
       <c r="A100" s="20">
         <v>99</v>
       </c>
@@ -5552,7 +5699,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19">
+    <row r="101" spans="1:11" ht="19" hidden="1">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -5581,7 +5728,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19">
+    <row r="102" spans="1:11" ht="19" hidden="1">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -5604,7 +5751,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19">
+    <row r="103" spans="1:11" ht="19" hidden="1">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -5627,7 +5774,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19">
+    <row r="104" spans="1:11" ht="19" hidden="1">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -5650,7 +5797,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19">
+    <row r="105" spans="1:11" ht="19" hidden="1">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -5673,7 +5820,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19">
+    <row r="106" spans="1:11" ht="19" hidden="1">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -5696,7 +5843,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19">
+    <row r="107" spans="1:11" ht="19" hidden="1">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -5719,7 +5866,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="38">
+    <row r="108" spans="1:11" ht="38" hidden="1">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -5748,7 +5895,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="38">
+    <row r="109" spans="1:11" ht="38" hidden="1">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -5777,7 +5924,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="38">
+    <row r="110" spans="1:11" ht="38" hidden="1">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -5803,7 +5950,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19">
+    <row r="111" spans="1:11" ht="19" hidden="1">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -5826,7 +5973,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19">
+    <row r="112" spans="1:11" ht="19" hidden="1">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -5849,7 +5996,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19">
+    <row r="113" spans="1:11" ht="19" hidden="1">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -5872,7 +6019,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19">
+    <row r="114" spans="1:11" ht="19" hidden="1">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -5895,7 +6042,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19">
+    <row r="115" spans="1:11" ht="19" hidden="1">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -5918,7 +6065,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19">
+    <row r="116" spans="1:11" ht="19" hidden="1">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -5941,7 +6088,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19">
+    <row r="117" spans="1:11" ht="19" hidden="1">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -5970,7 +6117,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="38">
+    <row r="118" spans="1:11" ht="38" hidden="1">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -5993,7 +6140,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="38">
+    <row r="119" spans="1:11" ht="38" hidden="1">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -6019,7 +6166,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="38">
+    <row r="120" spans="1:11" ht="38" hidden="1">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -6045,7 +6192,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19">
+    <row r="121" spans="1:11" ht="19" hidden="1">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -6068,7 +6215,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19">
+    <row r="122" spans="1:11" ht="19" hidden="1">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -6091,7 +6238,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19">
+    <row r="123" spans="1:11" ht="19" hidden="1">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -6114,7 +6261,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19">
+    <row r="124" spans="1:11" ht="19" hidden="1">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -6137,7 +6284,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19">
+    <row r="125" spans="1:11" ht="19" hidden="1">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -6166,7 +6313,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19">
+    <row r="126" spans="1:11" ht="19" hidden="1">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -6189,7 +6336,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="38">
+    <row r="127" spans="1:11" ht="38" hidden="1">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -6212,7 +6359,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19">
+    <row r="128" spans="1:11" ht="19" hidden="1">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -6235,7 +6382,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="19">
+    <row r="129" spans="1:11" ht="19" hidden="1">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -6264,7 +6411,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="19">
+    <row r="130" spans="1:11" ht="19" hidden="1">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -6293,7 +6440,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="19">
+    <row r="131" spans="1:11" ht="19" hidden="1">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -6322,7 +6469,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="19">
+    <row r="132" spans="1:11" ht="19" hidden="1">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -6351,7 +6498,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="19">
+    <row r="133" spans="1:11" ht="19" hidden="1">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -6374,7 +6521,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="19">
+    <row r="134" spans="1:11" ht="19" hidden="1">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -6397,8 +6544,310 @@
         <v>291</v>
       </c>
     </row>
+    <row r="135" spans="1:11" hidden="1">
+      <c r="A135" s="20">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D135" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G135" s="20">
+        <v>52</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1">
+      <c r="A136" s="20">
+        <f>A135+1</f>
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D136" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G136" s="20">
+        <v>126</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1">
+      <c r="A137" s="20">
+        <f t="shared" ref="A137:A146" si="0">A136+1</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C137" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D137" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="19" hidden="1">
+      <c r="A138" s="20">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D138" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="19" hidden="1">
+      <c r="A139" s="20">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D139" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="19" hidden="1">
+      <c r="A140" s="20">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C140" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D140" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="19" hidden="1">
+      <c r="A141" s="20">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D141" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G141" s="20">
+        <v>121</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="19" hidden="1">
+      <c r="A142" s="20">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D142" s="23">
+        <v>43928</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G142" s="20">
+        <v>121</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="19" hidden="1">
+      <c r="A143" s="20">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D143" s="23">
+        <v>43928</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G143" s="20">
+        <v>121</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="19" hidden="1">
+      <c r="A144" s="20">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D144" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G144" s="20">
+        <v>117</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="19" hidden="1">
+      <c r="A145" s="20">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D145" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="19" hidden="1">
+      <c r="A146" s="20">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D146" s="23">
+        <v>43928</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L89" xr:uid="{409130CB-F764-2748-A6B8-E1F2B13D3B3A}"/>
+  <autoFilter ref="A1:L146" xr:uid="{409130CB-F764-2748-A6B8-E1F2B13D3B3A}">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{A7235153-F297-A345-A972-8712BCA67207}"/>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D692931E-DB39-D740-969D-0FA40537E341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D709D6-E67D-2443-BF00-F5506B33F2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="-21140" windowWidth="35840" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22020" windowHeight="21480" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="328">
   <si>
     <t>関連</t>
   </si>
@@ -2069,31 +2069,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>乙訓管内</t>
-    <rPh sb="0" eb="4">
-      <t>オトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>丹後管内</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">タンゴ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200407-134-136.pdf</t>
-  </si>
-  <si>
-    <t>山城北管内</t>
-    <rPh sb="0" eb="5">
-      <t>ヤマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>40代男性</t>
@@ -2184,6 +2160,159 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.008Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.009Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.010Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.011Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.012Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.013Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.014Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.015Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.016Z</t>
+  </si>
+  <si>
+    <t>2020-04-08T08:00:00.017Z</t>
+  </si>
+  <si>
+    <t>70代女性</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山城北保健所管内</t>
+    <rPh sb="0" eb="5">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府118例目の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府119例目の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丹後保健所管内</t>
+    <rPh sb="0" eb="1">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>ホケンジヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乙訓保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>オトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホケn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丹後保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タンゴ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府136例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200408-146-150.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268207/200407oshirase(84-92).pdf</t>
+  </si>
+  <si>
+    <t>30代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2718,11 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="D129" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152:F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3042,7 +3170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" hidden="1">
+    <row r="10" spans="1:12" ht="19">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3273,7 +3401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="228" hidden="1">
+    <row r="17" spans="1:12" ht="228">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3528,7 +3656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="38" hidden="1">
+    <row r="25" spans="1:12" ht="38">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -3589,7 +3717,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="76" hidden="1">
+    <row r="27" spans="1:12" ht="76">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -3650,7 +3778,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="19" hidden="1">
+    <row r="29" spans="1:12" ht="19">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -3679,7 +3807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19" hidden="1">
+    <row r="30" spans="1:12" ht="19">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -3708,7 +3836,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19" hidden="1">
+    <row r="31" spans="1:12" ht="19">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -3741,7 +3869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" hidden="1">
+    <row r="32" spans="1:12" ht="19">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -3774,7 +3902,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="76" hidden="1">
+    <row r="33" spans="1:12" ht="76">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -3838,7 +3966,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19" hidden="1">
+    <row r="35" spans="1:12" ht="19">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -3867,7 +3995,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="57" hidden="1">
+    <row r="36" spans="1:12" ht="57">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -3893,7 +4021,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19" hidden="1">
+    <row r="37" spans="1:12" ht="19">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -3922,7 +4050,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19" hidden="1">
+    <row r="38" spans="1:12" ht="19">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -3951,7 +4079,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="38" hidden="1">
+    <row r="39" spans="1:12" ht="38">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -3977,7 +4105,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="38" hidden="1">
+    <row r="40" spans="1:12" ht="38">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -4006,7 +4134,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="38" hidden="1">
+    <row r="41" spans="1:12" ht="38">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -4035,7 +4163,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" hidden="1">
+    <row r="42" spans="1:12" ht="19">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -4064,7 +4192,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" hidden="1">
+    <row r="43" spans="1:12" ht="19">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -4096,7 +4224,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" hidden="1">
+    <row r="44" spans="1:12" ht="19">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -4128,7 +4256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" hidden="1">
+    <row r="45" spans="1:12" ht="19">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -4160,7 +4288,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="38" hidden="1">
+    <row r="46" spans="1:12" ht="38">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -4192,7 +4320,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" hidden="1">
+    <row r="47" spans="1:12" ht="19">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -4224,7 +4352,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19" hidden="1">
+    <row r="48" spans="1:12" ht="19">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -4253,7 +4381,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="38" hidden="1">
+    <row r="49" spans="1:12" ht="38">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -4285,7 +4413,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="38" hidden="1">
+    <row r="50" spans="1:12" ht="38">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -4317,7 +4445,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19" hidden="1">
+    <row r="51" spans="1:12" ht="19">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -4349,7 +4477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19" hidden="1">
+    <row r="52" spans="1:12" ht="19">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -4381,7 +4509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="38" hidden="1">
+    <row r="53" spans="1:12" ht="38">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -4413,7 +4541,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="38" hidden="1">
+    <row r="54" spans="1:12" ht="38">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -4445,7 +4573,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="38" hidden="1">
+    <row r="55" spans="1:12" ht="38">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -4477,7 +4605,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19" hidden="1">
+    <row r="56" spans="1:12" ht="19">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -4529,7 +4657,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19" hidden="1">
+    <row r="58" spans="1:12" ht="19">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -4558,7 +4686,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="19" hidden="1">
+    <row r="59" spans="1:12" ht="19">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -4584,7 +4712,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="38" hidden="1">
+    <row r="60" spans="1:12" ht="38">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -4614,7 +4742,7 @@
       </c>
       <c r="L60" s="19"/>
     </row>
-    <row r="61" spans="1:12" ht="38" hidden="1">
+    <row r="61" spans="1:12" ht="38">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -4643,7 +4771,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="38" hidden="1">
+    <row r="62" spans="1:12" ht="38">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -4672,7 +4800,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="38" hidden="1">
+    <row r="63" spans="1:12" ht="38">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -4701,7 +4829,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="38" hidden="1">
+    <row r="64" spans="1:12" ht="38">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -4730,7 +4858,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="38" hidden="1">
+    <row r="65" spans="1:11" ht="38">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -4759,7 +4887,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="38" hidden="1">
+    <row r="66" spans="1:11" ht="38">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -4788,7 +4916,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="19" hidden="1">
+    <row r="67" spans="1:11" ht="19">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -4811,7 +4939,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="19" hidden="1">
+    <row r="68" spans="1:11" ht="19">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -4834,7 +4962,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="19" hidden="1">
+    <row r="69" spans="1:11" ht="19">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -4857,7 +4985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="19" hidden="1">
+    <row r="70" spans="1:11" ht="19">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -4880,7 +5008,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="38" hidden="1">
+    <row r="71" spans="1:11" ht="38">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -4909,7 +5037,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="38" hidden="1">
+    <row r="72" spans="1:11" ht="38">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -4938,7 +5066,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="38" hidden="1">
+    <row r="73" spans="1:11" ht="38">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -4964,7 +5092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="38" hidden="1">
+    <row r="74" spans="1:11" ht="38">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -4993,7 +5121,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19" hidden="1">
+    <row r="75" spans="1:11" ht="19">
       <c r="A75" s="20">
         <v>74</v>
       </c>
@@ -5016,7 +5144,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="19" hidden="1">
+    <row r="76" spans="1:11" ht="19">
       <c r="A76" s="20">
         <v>75</v>
       </c>
@@ -5039,7 +5167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="19" hidden="1">
+    <row r="77" spans="1:11" ht="19">
       <c r="A77" s="20">
         <v>76</v>
       </c>
@@ -5068,7 +5196,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="38" hidden="1">
+    <row r="78" spans="1:11" ht="38">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -5097,7 +5225,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="19" hidden="1">
+    <row r="79" spans="1:11" ht="19">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -5120,7 +5248,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19" hidden="1">
+    <row r="80" spans="1:11" ht="19">
       <c r="A80" s="20">
         <v>79</v>
       </c>
@@ -5143,7 +5271,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="19" hidden="1">
+    <row r="81" spans="1:11" ht="19">
       <c r="A81" s="20">
         <v>80</v>
       </c>
@@ -5166,7 +5294,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="19" hidden="1">
+    <row r="82" spans="1:11" ht="19">
       <c r="A82" s="20">
         <v>81</v>
       </c>
@@ -5189,7 +5317,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="38" hidden="1">
+    <row r="83" spans="1:11" ht="38">
       <c r="A83" s="20">
         <v>82</v>
       </c>
@@ -5218,7 +5346,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="38" hidden="1">
+    <row r="84" spans="1:11" ht="38">
       <c r="A84" s="20">
         <v>83</v>
       </c>
@@ -5247,7 +5375,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="38" hidden="1">
+    <row r="85" spans="1:11" ht="38">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -5276,7 +5404,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="38" hidden="1">
+    <row r="86" spans="1:11" ht="38">
       <c r="A86" s="20">
         <v>85</v>
       </c>
@@ -5305,7 +5433,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="19" hidden="1">
+    <row r="87" spans="1:11" ht="19">
       <c r="A87" s="20">
         <v>86</v>
       </c>
@@ -5334,7 +5462,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="19" hidden="1">
+    <row r="88" spans="1:11" ht="19">
       <c r="A88" s="20">
         <v>87</v>
       </c>
@@ -5363,7 +5491,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="19" hidden="1">
+    <row r="89" spans="1:11" ht="19">
       <c r="A89" s="20">
         <v>88</v>
       </c>
@@ -5392,7 +5520,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="38" hidden="1">
+    <row r="90" spans="1:11" ht="38">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -5421,7 +5549,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="38" hidden="1">
+    <row r="91" spans="1:11" ht="38">
       <c r="A91" s="20">
         <v>90</v>
       </c>
@@ -5450,7 +5578,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="38" hidden="1">
+    <row r="92" spans="1:11" ht="38">
       <c r="A92" s="20">
         <v>91</v>
       </c>
@@ -5479,7 +5607,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="38" hidden="1">
+    <row r="93" spans="1:11" ht="38">
       <c r="A93" s="20">
         <v>92</v>
       </c>
@@ -5508,7 +5636,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="38" hidden="1">
+    <row r="94" spans="1:11" ht="38">
       <c r="A94" s="20">
         <v>93</v>
       </c>
@@ -5537,7 +5665,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="38" hidden="1">
+    <row r="95" spans="1:11" ht="38">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -5566,7 +5694,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="38" hidden="1">
+    <row r="96" spans="1:11" ht="38">
       <c r="A96" s="20">
         <v>95</v>
       </c>
@@ -5589,7 +5717,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19" hidden="1">
+    <row r="97" spans="1:11" ht="19">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -5615,7 +5743,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19" hidden="1">
+    <row r="98" spans="1:11" ht="19">
       <c r="A98" s="20">
         <v>97</v>
       </c>
@@ -5641,7 +5769,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19" hidden="1">
+    <row r="99" spans="1:11" ht="19">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -5670,7 +5798,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19" hidden="1">
+    <row r="100" spans="1:11" ht="19">
       <c r="A100" s="20">
         <v>99</v>
       </c>
@@ -5699,7 +5827,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19" hidden="1">
+    <row r="101" spans="1:11" ht="19">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -5728,7 +5856,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19" hidden="1">
+    <row r="102" spans="1:11" ht="19">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -5751,7 +5879,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19" hidden="1">
+    <row r="103" spans="1:11" ht="19">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -5774,7 +5902,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19" hidden="1">
+    <row r="104" spans="1:11" ht="19">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -5797,7 +5925,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19" hidden="1">
+    <row r="105" spans="1:11" ht="19">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -5820,7 +5948,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19" hidden="1">
+    <row r="106" spans="1:11" ht="19">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -5843,7 +5971,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19" hidden="1">
+    <row r="107" spans="1:11" ht="19">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -5866,7 +5994,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="38" hidden="1">
+    <row r="108" spans="1:11" ht="38">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -5895,7 +6023,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="38" hidden="1">
+    <row r="109" spans="1:11" ht="38">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -5924,7 +6052,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="38" hidden="1">
+    <row r="110" spans="1:11" ht="38">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -5950,7 +6078,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19" hidden="1">
+    <row r="111" spans="1:11" ht="19">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -5973,7 +6101,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19" hidden="1">
+    <row r="112" spans="1:11" ht="19">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -5996,7 +6124,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19" hidden="1">
+    <row r="113" spans="1:11" ht="19">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -6019,7 +6147,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19" hidden="1">
+    <row r="114" spans="1:11" ht="19">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -6042,7 +6170,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19" hidden="1">
+    <row r="115" spans="1:11" ht="19">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -6065,7 +6193,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19" hidden="1">
+    <row r="116" spans="1:11" ht="19">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -6088,7 +6216,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19" hidden="1">
+    <row r="117" spans="1:11" ht="19">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -6117,7 +6245,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="38" hidden="1">
+    <row r="118" spans="1:11" ht="38">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -6140,7 +6268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="38" hidden="1">
+    <row r="119" spans="1:11" ht="38">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -6166,7 +6294,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="38" hidden="1">
+    <row r="120" spans="1:11" ht="38">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -6192,7 +6320,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19" hidden="1">
+    <row r="121" spans="1:11" ht="19">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -6215,7 +6343,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19" hidden="1">
+    <row r="122" spans="1:11" ht="19">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -6238,7 +6366,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19" hidden="1">
+    <row r="123" spans="1:11" ht="19">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -6261,7 +6389,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19" hidden="1">
+    <row r="124" spans="1:11" ht="19">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -6284,7 +6412,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19" hidden="1">
+    <row r="125" spans="1:11" ht="19">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -6313,7 +6441,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19" hidden="1">
+    <row r="126" spans="1:11" ht="19">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -6336,7 +6464,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="38" hidden="1">
+    <row r="127" spans="1:11" ht="38">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -6359,7 +6487,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19" hidden="1">
+    <row r="128" spans="1:11" ht="19">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -6382,7 +6510,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="19" hidden="1">
+    <row r="129" spans="1:11" ht="19">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -6411,7 +6539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="19" hidden="1">
+    <row r="130" spans="1:11" ht="19">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -6440,7 +6568,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="19" hidden="1">
+    <row r="131" spans="1:11" ht="19">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -6469,7 +6597,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="19" hidden="1">
+    <row r="132" spans="1:11" ht="19">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -6498,7 +6626,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="19" hidden="1">
+    <row r="133" spans="1:11" ht="19">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -6521,7 +6649,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="19" hidden="1">
+    <row r="134" spans="1:11" ht="19">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -6544,7 +6672,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1">
+    <row r="135" spans="1:11">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -6558,22 +6686,22 @@
         <v>43928</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="G135" s="20">
         <v>52</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="20">
         <f>A135+1</f>
         <v>135</v>
@@ -6591,21 +6719,21 @@
         <v>114</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="G136" s="20">
         <v>126</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="20">
-        <f t="shared" ref="A137:A146" si="0">A136+1</f>
+        <f t="shared" ref="A137:A156" si="0">A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -6621,13 +6749,13 @@
         <v>213</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="19" hidden="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="19">
       <c r="A138" s="20">
         <f t="shared" si="0"/>
         <v>137</v>
@@ -6645,16 +6773,19 @@
         <v>276</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>282</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="19" hidden="1">
+        <v>302</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="19">
       <c r="A139" s="20">
         <f t="shared" si="0"/>
         <v>138</v>
@@ -6669,13 +6800,16 @@
         <v>43928</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="19" hidden="1">
+        <v>299</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="19">
       <c r="A140" s="20">
         <f t="shared" si="0"/>
         <v>139</v>
@@ -6690,13 +6824,16 @@
         <v>43928</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="19" hidden="1">
+        <v>299</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="19">
       <c r="A141" s="20">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -6714,16 +6851,19 @@
         <v>78</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G141" s="20">
         <v>121</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="19" hidden="1">
+        <v>303</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="19">
       <c r="A142" s="20">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -6738,16 +6878,19 @@
         <v>43928</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G142" s="20">
         <v>121</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="19" hidden="1">
+        <v>303</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="19">
       <c r="A143" s="20">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -6762,16 +6905,19 @@
         <v>43928</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G143" s="20">
         <v>121</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="19" hidden="1">
+        <v>303</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="19">
       <c r="A144" s="20">
         <f t="shared" si="0"/>
         <v>143</v>
@@ -6786,19 +6932,22 @@
         <v>43928</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G144" s="20">
         <v>117</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="19" hidden="1">
+        <v>304</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="19">
       <c r="A145" s="20">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -6813,13 +6962,16 @@
         <v>43928</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="19" hidden="1">
+        <v>299</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="19">
       <c r="A146" s="20">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -6837,17 +6989,263 @@
         <v>76</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="38">
+      <c r="A147" s="20">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C147" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D147" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G147" s="20">
+        <v>118</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="19">
+      <c r="A148" s="20">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D148" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G148" s="20">
+        <v>118</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="19">
+      <c r="A149" s="20">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D149" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="38">
+      <c r="A150" s="20">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C150" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D150" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G150" s="20">
+        <v>119</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="38">
+      <c r="A151" s="20">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D151" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G151" s="20">
+        <v>136</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="19">
+      <c r="A152" s="20">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D152" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="19">
+      <c r="A153" s="20">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C153" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D153" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="19">
+      <c r="A154" s="20">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C154" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D154" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="19">
+      <c r="A155" s="20">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D155" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="19">
+      <c r="A156" s="20">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D156" s="23">
+        <v>43929</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L146" xr:uid="{409130CB-F764-2748-A6B8-E1F2B13D3B3A}">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L146" xr:uid="{409130CB-F764-2748-A6B8-E1F2B13D3B3A}"/>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{A7235153-F297-A345-A972-8712BCA67207}"/>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D709D6-E67D-2443-BF00-F5506B33F2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A3D4D-AE4E-CF4C-BA6F-93AA9E22A3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22020" windowHeight="21480" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="4300" yWindow="-21140" windowWidth="22020" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="335">
   <si>
     <t>関連</t>
   </si>
@@ -2315,6 +2315,49 @@
       <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-09T08:00:00.017Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268261/200408oshirase(93-97).pdf</t>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200409-156-157.pdf</t>
+  </si>
+  <si>
+    <t>山城北保健所管内</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマシロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホケンジヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山城南保健所管内</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマシロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市65例目の接触者　</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200409-16.pdf</t>
   </si>
 </sst>
 </file>
@@ -2847,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D129" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152:F156"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3430,6 +3473,9 @@
       <c r="K17" s="19" t="s">
         <v>49</v>
       </c>
+      <c r="L17" s="7" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="228">
       <c r="A18" s="20">
@@ -3678,6 +3724,9 @@
       <c r="H25" s="14" t="s">
         <v>115</v>
       </c>
+      <c r="J25" s="12">
+        <v>43929</v>
+      </c>
       <c r="K25" s="19" t="s">
         <v>116</v>
       </c>
@@ -3988,6 +4037,9 @@
       <c r="H35" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="J35" s="12">
+        <v>43929</v>
+      </c>
       <c r="K35" s="7" t="s">
         <v>152</v>
       </c>
@@ -4072,6 +4124,9 @@
       <c r="H38" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="J38" s="12">
+        <v>43929</v>
+      </c>
       <c r="K38" s="19" t="s">
         <v>172</v>
       </c>
@@ -5966,6 +6021,9 @@
       </c>
       <c r="F106" s="14" t="s">
         <v>85</v>
+      </c>
+      <c r="J106" s="12">
+        <v>43929</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>263</v>
@@ -6733,7 +6791,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="20">
-        <f t="shared" ref="A137:A156" si="0">A136+1</f>
+        <f t="shared" ref="A137:A166" si="0">A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -7159,6 +7217,9 @@
       <c r="F152" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="K152" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="153" spans="1:11" ht="19">
       <c r="A153" s="20">
@@ -7180,6 +7241,15 @@
       <c r="F153" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="G153" s="20">
+        <v>111</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="154" spans="1:11" ht="19">
       <c r="A154" s="20">
@@ -7201,6 +7271,9 @@
       <c r="F154" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="K154" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="155" spans="1:11" ht="19">
       <c r="A155" s="20">
@@ -7222,6 +7295,9 @@
       <c r="F155" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="K155" s="7" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="156" spans="1:11" ht="19">
       <c r="A156" s="20">
@@ -7241,6 +7317,225 @@
         <v>327</v>
       </c>
       <c r="F156" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="38">
+      <c r="A157" s="20">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D157" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="38">
+      <c r="A158" s="20">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D158" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="19">
+      <c r="A159" s="20">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D159" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="19">
+      <c r="A160" s="20">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C160" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D160" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="19">
+      <c r="A161" s="20">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D161" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="19">
+      <c r="A162" s="20">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C162" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D162" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="19">
+      <c r="A163" s="20">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D163" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="19">
+      <c r="A164" s="20">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C164" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D164" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="19">
+      <c r="A165" s="20">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D165" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="19">
+      <c r="A166" s="20">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D166" s="23">
+        <v>43930</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F166" s="14" t="s">
         <v>318</v>
       </c>
     </row>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A3D4D-AE4E-CF4C-BA6F-93AA9E22A3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6973CEE9-D2FF-F646-8E9F-25399051BB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="-21140" windowWidth="22020" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="9460" yWindow="5820" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="351">
   <si>
     <t>関連</t>
   </si>
@@ -2358,6 +2358,158 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/corona/documents/20200409-16.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268348/200409oshirase(98-105).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-10T08:00:00.017Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10歳未満女児</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オンア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ダンジ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山城北保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山城南保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ミナミ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府136例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>１３６レイメノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府127例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200410-166-168.pdf</t>
+  </si>
+  <si>
+    <t>30代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代女性</t>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海外渡航歴あり</t>
+    <rPh sb="0" eb="4">
+      <t>カイガイテ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>滋賀県発生患者の接触者</t>
+    <rPh sb="0" eb="7">
+      <t>シガケンヘ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市71例目の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市65例目との接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市81例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市80，81例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>81，</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2890,10 +3042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="B162" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4156,6 +4308,9 @@
       <c r="H39" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="J39" s="12">
+        <v>43931</v>
+      </c>
       <c r="K39" s="19" t="s">
         <v>181</v>
       </c>
@@ -4493,6 +4648,9 @@
       <c r="H50" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="J50" s="12">
+        <v>43931</v>
+      </c>
       <c r="K50" s="19" t="s">
         <v>205</v>
       </c>
@@ -4792,6 +4950,9 @@
       <c r="H60" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="J60" s="12">
+        <v>43931</v>
+      </c>
       <c r="K60" s="7" t="s">
         <v>202</v>
       </c>
@@ -5767,6 +5928,9 @@
       </c>
       <c r="F96" s="14" t="s">
         <v>236</v>
+      </c>
+      <c r="J96" s="12">
+        <v>43931</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>254</v>
@@ -6791,7 +6955,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="20">
-        <f t="shared" ref="A137:A166" si="0">A136+1</f>
+        <f t="shared" ref="A137:A175" si="0">A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -7391,6 +7555,12 @@
       <c r="F159" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="H159" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="160" spans="1:11" ht="19">
       <c r="A160" s="20">
@@ -7412,8 +7582,12 @@
       <c r="F160" s="14" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="19">
+      <c r="H160" s="14"/>
+      <c r="K160" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="19">
       <c r="A161" s="20">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -7433,8 +7607,14 @@
       <c r="F161" s="14" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="19">
+      <c r="H161" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="19">
       <c r="A162" s="20">
         <f t="shared" si="0"/>
         <v>161</v>
@@ -7454,8 +7634,14 @@
       <c r="F162" s="14" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="19">
+      <c r="H162" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="19">
       <c r="A163" s="20">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -7475,8 +7661,14 @@
       <c r="F163" s="14" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="19">
+      <c r="H163" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="19">
       <c r="A164" s="20">
         <f t="shared" si="0"/>
         <v>163</v>
@@ -7496,8 +7688,14 @@
       <c r="F164" s="14" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="19">
+      <c r="H164" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="19">
       <c r="A165" s="20">
         <f t="shared" si="0"/>
         <v>164</v>
@@ -7517,8 +7715,11 @@
       <c r="F165" s="14" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="19">
+      <c r="K165" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="19">
       <c r="A166" s="20">
         <f t="shared" si="0"/>
         <v>165</v>
@@ -7536,6 +7737,222 @@
         <v>73</v>
       </c>
       <c r="F166" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="38">
+      <c r="A167" s="20">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D167" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G167" s="20">
+        <v>127</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="38">
+      <c r="A168" s="20">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C168" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D168" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="38">
+      <c r="A169" s="20">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D169" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G169" s="20">
+        <v>136</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="19">
+      <c r="A170" s="20">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D170" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="19">
+      <c r="A171" s="20">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D171" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="19">
+      <c r="A172" s="20">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C172" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D172" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="19">
+      <c r="A173" s="20">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C173" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D173" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="19">
+      <c r="A174" s="20">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D174" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="19">
+      <c r="A175" s="20">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D175" s="23">
+        <v>43931</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F175" s="14" t="s">
         <v>318</v>
       </c>
     </row>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6973CEE9-D2FF-F646-8E9F-25399051BB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786C1DC-FD75-4A42-9DF0-2D9799D8ADEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="5820" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="366">
   <si>
     <t>関連</t>
   </si>
@@ -2510,6 +2510,123 @@
       <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-11T08:00:00.017Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30代男性</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200411_175.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268402/200410oshirase(106-111).pdf</t>
+  </si>
+  <si>
+    <t>京都市71例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>７１レイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市109例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市108例目の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市108，109例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>171, 172</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代男性</t>
+    <rPh sb="2" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府下</t>
+    <rPh sb="0" eb="4">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>滋賀県発生患者の接触者</t>
+    <rPh sb="0" eb="7">
+      <t>シガケンハ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市98例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268406/200411oshirase(112-117).pdf</t>
   </si>
 </sst>
 </file>
@@ -3042,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B162" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6955,7 +7072,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="20">
-        <f t="shared" ref="A137:A175" si="0">A136+1</f>
+        <f t="shared" ref="A137:A185" si="0">A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -7688,6 +7805,9 @@
       <c r="F164" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="G164" s="20">
+        <v>131</v>
+      </c>
       <c r="H164" s="7" t="s">
         <v>349</v>
       </c>
@@ -7850,6 +7970,12 @@
       <c r="F170" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="H170" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="171" spans="1:11" ht="19">
       <c r="A171" s="20">
@@ -7871,6 +7997,9 @@
       <c r="F171" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="K171" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="172" spans="1:11" ht="19">
       <c r="A172" s="20">
@@ -7892,6 +8021,15 @@
       <c r="F172" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="G172" s="20">
+        <v>172</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="173" spans="1:11" ht="19">
       <c r="A173" s="20">
@@ -7913,6 +8051,15 @@
       <c r="F173" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="G173" s="20">
+        <v>171</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="174" spans="1:11" ht="19">
       <c r="A174" s="20">
@@ -7934,6 +8081,15 @@
       <c r="F174" s="14" t="s">
         <v>318</v>
       </c>
+      <c r="G174" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="175" spans="1:11" ht="19">
       <c r="A175" s="20">
@@ -7954,6 +8110,186 @@
       </c>
       <c r="F175" s="14" t="s">
         <v>318</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="38">
+      <c r="A176" s="20">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" s="9">
+        <v>43932</v>
+      </c>
+      <c r="D176" s="23">
+        <v>43932</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="19">
+      <c r="A177" s="20">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177" s="9">
+        <v>43932</v>
+      </c>
+      <c r="D177" s="23">
+        <v>43932</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="19">
+      <c r="A178" s="20">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C178" s="9">
+        <v>43932</v>
+      </c>
+      <c r="D178" s="23">
+        <v>43932</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="19">
+      <c r="A179" s="20">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C179" s="9">
+        <v>43932</v>
+      </c>
+      <c r="D179" s="23">
+        <v>43932</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="19">
+      <c r="A180" s="20">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C180" s="9">
+        <v>43932</v>
+      </c>
+      <c r="D180" s="23">
+        <v>43932</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="19">
+      <c r="A181" s="20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181" s="9">
+        <v>43932</v>
+      </c>
+      <c r="D181" s="23">
+        <v>43932</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G181" s="20">
+        <v>158</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="19">
+      <c r="A182" s="20">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C182" s="9">
+        <v>43932</v>
+      </c>
+      <c r="D182" s="23">
+        <v>43932</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786C1DC-FD75-4A42-9DF0-2D9799D8ADEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD3F5CB-380D-9C46-BA4D-8C93848AD7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="9580" yWindow="-21140" windowWidth="40960" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="396">
   <si>
     <t>関連</t>
   </si>
@@ -2627,6 +2627,149 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268406/200411oshirase(112-117).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.017Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.018Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.019Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.020Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.021Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.022Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.023Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.024Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.025Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.026Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.027Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T08:00:00.028Z</t>
+  </si>
+  <si>
+    <t>90代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40代女性</t>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市患者の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンジヤ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市110例目の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市90例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府下</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">シタ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-129).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-130).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-131).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-132).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-133).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-134).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-135).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-136).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-137).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-138).pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-139).pdf</t>
   </si>
 </sst>
 </file>
@@ -3159,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7072,7 +7215,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="20">
-        <f t="shared" ref="A137:A185" si="0">A136+1</f>
+        <f t="shared" ref="A137:A196" si="0">A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -8290,6 +8433,327 @@
       </c>
       <c r="K182" s="7" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="19">
+      <c r="A183" s="20">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D183" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="19">
+      <c r="A184" s="20">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C184" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D184" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G184" s="20">
+        <v>173</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="19">
+      <c r="A185" s="20">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D185" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G185" s="20">
+        <v>173</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="19">
+      <c r="A186" s="20">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D186" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G186" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="19">
+      <c r="A187" s="20">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D187" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G187" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="19">
+      <c r="A188" s="20">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C188" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D188" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="19">
+      <c r="A189" s="20">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C189" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D189" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="19">
+      <c r="A190" s="20">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C190" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D190" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="19">
+      <c r="A191" s="20">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C191" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D191" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="19">
+      <c r="A192" s="20">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C192" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D192" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="19">
+      <c r="A193" s="20">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D193" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="19">
+      <c r="A194" s="20">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C194" s="9">
+        <v>43933</v>
+      </c>
+      <c r="D194" s="23">
+        <v>43933</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD3F5CB-380D-9C46-BA4D-8C93848AD7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08CA309-8950-0A49-BF4E-7DE9DCE9B1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="-21140" windowWidth="40960" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="14160" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="403">
   <si>
     <t>関連</t>
   </si>
@@ -2770,6 +2770,32 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268408/200412oshirase(118-139).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-13T08:00:00.028Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-13T08:00:00.029Z</t>
+  </si>
+  <si>
+    <t>2020-04-13T08:00:00.030Z</t>
+  </si>
+  <si>
+    <t>2020-04-13T08:00:00.031Z</t>
+  </si>
+  <si>
+    <t>2020-04-13T08:00:00.032Z</t>
+  </si>
+  <si>
+    <t>南丹保健所管内</t>
+    <rPh sb="0" eb="1">
+      <t>ナンタn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200413-194-198.pdf</t>
   </si>
 </sst>
 </file>
@@ -3302,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4385,6 +4411,9 @@
       <c r="H33" s="14" t="s">
         <v>145</v>
       </c>
+      <c r="J33" s="12">
+        <v>43934</v>
+      </c>
       <c r="K33" s="19" t="s">
         <v>146</v>
       </c>
@@ -4628,6 +4657,9 @@
       </c>
       <c r="H41" s="7" t="s">
         <v>169</v>
+      </c>
+      <c r="J41" s="12">
+        <v>43934</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>170</v>
@@ -7215,7 +7247,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="20">
-        <f t="shared" ref="A137:A196" si="0">A136+1</f>
+        <f t="shared" ref="A137:A199" si="0">A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -8754,6 +8786,129 @@
       </c>
       <c r="F194" s="14" t="s">
         <v>318</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="38">
+      <c r="A195" s="20">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C195" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D195" s="23">
+        <v>43934</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="38">
+      <c r="A196" s="20">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C196" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D196" s="23">
+        <v>43934</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="38">
+      <c r="A197" s="20">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C197" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D197" s="23">
+        <v>43934</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="38">
+      <c r="A198" s="20">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C198" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D198" s="23">
+        <v>43934</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K198" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="38">
+      <c r="A199" s="20">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D199" s="23">
+        <v>43934</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K199" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08CA309-8950-0A49-BF4E-7DE9DCE9B1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F1F82-6955-314B-ACEA-737D6A8A30D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="404">
   <si>
     <t>関連</t>
   </si>
@@ -2796,6 +2796,9 @@
   </si>
   <si>
     <t>https://www.pref.kyoto.jp/kentai/news/documents/20200413-194-198.pdf</t>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268461/200413oshirase(130-136).pdf</t>
   </si>
 </sst>
 </file>
@@ -3328,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7247,7 +7250,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="20">
-        <f t="shared" ref="A137:A199" si="0">A136+1</f>
+        <f t="shared" ref="A137:A200" si="0">A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -8909,6 +8912,132 @@
       </c>
       <c r="K199" s="7" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="20">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C200" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D200" s="23">
+        <v>43934</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="20">
+        <f t="shared" ref="A201:A206" si="1">A200+1</f>
+        <v>200</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D201" s="23">
+        <v>43934</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="20">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C202" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D202" s="23">
+        <v>43934</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="20">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C203" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D203" s="23">
+        <v>43934</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="20">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C204" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D204" s="23">
+        <v>43934</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="20">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C205" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D205" s="23">
+        <v>43934</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="20">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C206" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D206" s="23">
+        <v>43934</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F1F82-6955-314B-ACEA-737D6A8A30D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDB5F22-3493-1848-B131-BFBC3A786B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="18520" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="419">
   <si>
     <t>関連</t>
   </si>
@@ -2799,6 +2799,142 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268461/200413oshirase(130-136).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-14T08:00:00.032Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府90例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他府県罹患者と接触者</t>
+    <rPh sb="0" eb="6">
+      <t>タフケn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200417-206-207.pdf</t>
+  </si>
+  <si>
+    <t>90代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代女性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代男性</t>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80代女性</t>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市125例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市罹患者の接触者</t>
+    <rPh sb="0" eb="6">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市罹患者の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リカンシャノセッセィオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発症日まで東京都滞在</t>
+    <rPh sb="0" eb="3">
+      <t>ハッショウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268616/200414oshirase(137-139).pdf</t>
   </si>
 </sst>
 </file>
@@ -3331,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K206" sqref="K206"/>
+    <sheetView tabSelected="1" topLeftCell="C185" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4911,6 +5047,9 @@
       <c r="H49" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="J49" s="12">
+        <v>43935</v>
+      </c>
       <c r="K49" s="19" t="s">
         <v>205</v>
       </c>
@@ -5105,6 +5244,9 @@
       </c>
       <c r="H55" s="25" t="s">
         <v>194</v>
+      </c>
+      <c r="J55" s="12">
+        <v>43935</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>193</v>
@@ -8914,7 +9056,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" ht="19">
       <c r="A200" s="20">
         <f t="shared" si="0"/>
         <v>199</v>
@@ -8928,13 +9070,22 @@
       <c r="D200" s="23">
         <v>43934</v>
       </c>
+      <c r="E200" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="K200" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" ht="19">
       <c r="A201" s="20">
-        <f t="shared" ref="A201:A206" si="1">A200+1</f>
+        <f t="shared" ref="A201:A208" si="1">A200+1</f>
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
@@ -8946,11 +9097,20 @@
       <c r="D201" s="23">
         <v>43934</v>
       </c>
+      <c r="E201" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="K201" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" ht="19">
       <c r="A202" s="20">
         <f t="shared" si="1"/>
         <v>201</v>
@@ -8964,11 +9124,20 @@
       <c r="D202" s="23">
         <v>43934</v>
       </c>
+      <c r="E202" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="K202" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" ht="19">
       <c r="A203" s="20">
         <f t="shared" si="1"/>
         <v>202</v>
@@ -8982,11 +9151,20 @@
       <c r="D203" s="23">
         <v>43934</v>
       </c>
+      <c r="E203" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="K203" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" ht="19">
       <c r="A204" s="20">
         <f t="shared" si="1"/>
         <v>203</v>
@@ -9000,11 +9178,20 @@
       <c r="D204" s="23">
         <v>43934</v>
       </c>
+      <c r="E204" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="K204" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" ht="19">
       <c r="A205" s="20">
         <f t="shared" si="1"/>
         <v>204</v>
@@ -9018,11 +9205,20 @@
       <c r="D205" s="23">
         <v>43934</v>
       </c>
+      <c r="E205" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="K205" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" ht="19">
       <c r="A206" s="20">
         <f t="shared" si="1"/>
         <v>205</v>
@@ -9036,8 +9232,140 @@
       <c r="D206" s="23">
         <v>43934</v>
       </c>
+      <c r="E206" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="K206" s="7" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="38">
+      <c r="A207" s="20">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C207" s="9">
+        <v>43935</v>
+      </c>
+      <c r="D207" s="23">
+        <v>43935</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G207" s="20">
+        <v>90</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="38">
+      <c r="A208" s="20">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C208" s="9">
+        <v>43935</v>
+      </c>
+      <c r="D208" s="23">
+        <v>43935</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K208" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" ht="19">
+      <c r="B209" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C209" s="9">
+        <v>43935</v>
+      </c>
+      <c r="D209" s="23">
+        <v>43935</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" ht="19">
+      <c r="B210" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C210" s="9">
+        <v>43935</v>
+      </c>
+      <c r="D210" s="23">
+        <v>43935</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K210" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" ht="19">
+      <c r="B211" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C211" s="9">
+        <v>43935</v>
+      </c>
+      <c r="D211" s="23">
+        <v>43935</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K211" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDB5F22-3493-1848-B131-BFBC3A786B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F2780-2EF3-0045-9A32-5FB732DF6271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1460" yWindow="-21140" windowWidth="18520" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="425">
   <si>
     <t>関連</t>
   </si>
@@ -2935,6 +2935,53 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268616/200414oshirase(137-139).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-15T08:00:00.032Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50代男性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都市65例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大阪府罹患者の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府107例目の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268649/200415oshirase(140-144).pdf</t>
   </si>
 </sst>
 </file>
@@ -3467,10 +3514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C185" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K211" sqref="K211"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9085,7 +9132,7 @@
     </row>
     <row r="201" spans="1:11" ht="19">
       <c r="A201" s="20">
-        <f t="shared" ref="A201:A208" si="1">A200+1</f>
+        <f t="shared" ref="A201:A217" si="1">A200+1</f>
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
@@ -9302,7 +9349,11 @@
         <v>408</v>
       </c>
     </row>
-    <row r="209" spans="2:11" ht="19">
+    <row r="209" spans="1:11" ht="19">
+      <c r="A209" s="20">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
       <c r="B209" s="8" t="s">
         <v>404</v>
       </c>
@@ -9325,7 +9376,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="210" spans="2:11" ht="19">
+    <row r="210" spans="1:11" ht="19">
+      <c r="A210" s="20">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
       <c r="B210" s="8" t="s">
         <v>404</v>
       </c>
@@ -9348,7 +9403,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="211" spans="2:11" ht="19">
+    <row r="211" spans="1:11" ht="19">
+      <c r="A211" s="20">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
       <c r="B211" s="8" t="s">
         <v>404</v>
       </c>
@@ -9366,6 +9425,138 @@
       </c>
       <c r="K211" s="7" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="19">
+      <c r="A212" s="20">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C212" s="9">
+        <v>43936</v>
+      </c>
+      <c r="D212" s="23">
+        <v>43936</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K212" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="19">
+      <c r="A213" s="20">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C213" s="9">
+        <v>43936</v>
+      </c>
+      <c r="D213" s="23">
+        <v>43936</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K213" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="19">
+      <c r="A214" s="20">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C214" s="9">
+        <v>43936</v>
+      </c>
+      <c r="D214" s="23">
+        <v>43936</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K214" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="19">
+      <c r="A215" s="20">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C215" s="9">
+        <v>43936</v>
+      </c>
+      <c r="D215" s="23">
+        <v>43936</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G215" s="20">
+        <v>107</v>
+      </c>
+      <c r="H215" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K215" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="19">
+      <c r="A216" s="20">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C216" s="9">
+        <v>43936</v>
+      </c>
+      <c r="D216" s="23">
+        <v>43936</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K216" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F2780-2EF3-0045-9A32-5FB732DF6271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA59170-3926-B541-A569-B71FA1AD9B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1460" yWindow="-21140" windowWidth="18520" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="441">
   <si>
     <t>関連</t>
   </si>
@@ -2982,6 +2982,87 @@
   </si>
   <si>
     <t>https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000268/268649/200415oshirase(140-144).pdf</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.032Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.033Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.034Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.035Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.036Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.037Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.038Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.039Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.040Z</t>
+  </si>
+  <si>
+    <t>2020-04-16T08:00:00.041Z</t>
+  </si>
+  <si>
+    <t>50代男性</t>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府外</t>
+    <rPh sb="0" eb="4">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都府192例目の接触者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レイメノ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.pref.kyoto.jp/kentai/news/documents/20200416-216-221.pdf</t>
+  </si>
+  <si>
+    <t>80代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>90代男性</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3514,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:L216"/>
+  <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="D202" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K226" sqref="K226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6245,6 +6326,9 @@
       <c r="H90" s="7" t="s">
         <v>242</v>
       </c>
+      <c r="J90" s="12">
+        <v>43937</v>
+      </c>
       <c r="K90" s="7" t="s">
         <v>254</v>
       </c>
@@ -9132,7 +9216,7 @@
     </row>
     <row r="201" spans="1:11" ht="19">
       <c r="A201" s="20">
-        <f t="shared" ref="A201:A217" si="1">A200+1</f>
+        <f t="shared" ref="A201:A226" si="1">A200+1</f>
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
@@ -9557,6 +9641,240 @@
       </c>
       <c r="K216" s="7" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="38">
+      <c r="A217" s="20">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C217" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D217" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K217" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="38">
+      <c r="A218" s="20">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C218" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D218" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K218" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="19">
+      <c r="A219" s="20">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C219" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D219" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="38">
+      <c r="A220" s="20">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C220" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D220" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="K220" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="38">
+      <c r="A221" s="20">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C221" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D221" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G221" s="20">
+        <v>192</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K221" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="38">
+      <c r="A222" s="20">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C222" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D222" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K222" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="19">
+      <c r="A223" s="20">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C223" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D223" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="19">
+      <c r="A224" s="20">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C224" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D224" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="19">
+      <c r="A225" s="20">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C225" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D225" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="19">
+      <c r="A226" s="20">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C226" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D226" s="23">
+        <v>43937</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto.xlsx
+++ b/data/covid-19-kyoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA59170-3926-B541-A569-B71FA1AD9B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B41DE-7565-D34F-A634-18E49FF03B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="18520" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="15200" yWindow="-20440" windowWidth="18520" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-19-kyoto" sheetId="1" r:id="rId1"/>
@@ -3598,7 +3598,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D202" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K226" sqref="K226"/>
+      <selection activeCell="D202" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
